--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -336,6 +336,21 @@
   </si>
   <si>
     <t>Aguinaldo y pago mamá</t>
+  </si>
+  <si>
+    <t>Deposito inicial del año</t>
+  </si>
+  <si>
+    <t>Primer día en el Lab</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
+  </si>
+  <si>
+    <t>Me encontré este cambio en mi cajita</t>
+  </si>
+  <si>
+    <t>Yogurt Activia</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1170,7 @@
   <dimension ref="A1:BB963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1365,7 @@
       </c>
       <c r="L3" s="25">
         <f>(SUM(C2,(E11:E499)))-(SUM((D11:D499),(C11:C499)))</f>
-        <v>879</v>
+        <v>3679</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1424,7 +1439,7 @@
       </c>
       <c r="N4" s="79">
         <f>SUM(L3,L9,N7)</f>
-        <v>31439</v>
+        <v>31609</v>
       </c>
       <c r="T4" s="47">
         <v>43108</v>
@@ -1432,18 +1447,32 @@
       <c r="U4" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="49" t="s">
+        <v>105</v>
+      </c>
       <c r="W4" s="41">
         <f t="shared" ref="W4:W67" si="3">(SUM(X4,Y4))-AA4</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
+        <v>170</v>
+      </c>
+      <c r="X4" s="50">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="50">
+        <v>60</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>107</v>
+      </c>
       <c r="AA4" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="56"/>
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>108</v>
+      </c>
       <c r="AD4" s="56"/>
       <c r="AE4" s="56"/>
       <c r="AF4" s="56"/>
@@ -1565,7 +1594,7 @@
       </c>
       <c r="L6" s="52">
         <f>(SUM((Q11:Q299),(W3:W500),(C11:C499)))-(SUM((R11:R499)))</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1636,12 +1665,12 @@
       </c>
       <c r="N7" s="78">
         <f>SUM(P7,L6)</f>
-        <v>2700</v>
+        <v>70</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="74">
         <f>(SUM(R11:R499))-(SUM(E11:E499))</f>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="56"/>
       <c r="R7" s="56"/>
@@ -1913,11 +1942,17 @@
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="99">
+        <v>43108</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>104</v>
+      </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
-      <c r="E11" s="100"/>
+      <c r="E11" s="100">
+        <v>2800</v>
+      </c>
       <c r="G11" s="18" t="s">
         <v>22</v>
       </c>
@@ -2020,11 +2055,17 @@
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="35"/>
+      <c r="N12" s="36">
+        <v>43108</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="R12" s="37">
+        <v>100</v>
+      </c>
       <c r="T12" s="47">
         <v>43116</v>
       </c>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Oct, 2017</t>
   </si>
   <si>
-    <t>iPhone</t>
-  </si>
-  <si>
     <t>Celular para su mamá</t>
   </si>
   <si>
@@ -351,6 +348,27 @@
   </si>
   <si>
     <t>Yogurt Activia</t>
+  </si>
+  <si>
+    <t>Sra Ana Julia</t>
+  </si>
+  <si>
+    <t>Pago Celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iphone (Se lo dejé en 3 y el año pasado me adelantó 100)</t>
+  </si>
+  <si>
+    <t>Café con Sol</t>
+  </si>
+  <si>
+    <t>Dentista Enana</t>
+  </si>
+  <si>
+    <t>Limpieza Lab</t>
+  </si>
+  <si>
+    <t>Copias</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1188,7 @@
   <dimension ref="A1:BB963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,13 +1396,13 @@
       <c r="V3" s="49"/>
       <c r="W3" s="41">
         <f>(SUM(X3,Y3))-AA3</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X3" s="50"/>
       <c r="Y3" s="50"/>
       <c r="AA3" s="51">
         <f t="shared" ref="AA3:AA66" si="0">SUM(AB3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="56"/>
       <c r="AD3" s="56"/>
@@ -1400,7 +1418,7 @@
       <c r="AN3" s="56"/>
       <c r="AO3">
         <f t="shared" ref="AO3:AO66" si="1">SUM(AP3,AW3,AV3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP3" s="56"/>
       <c r="AQ3" s="56"/>
@@ -1410,10 +1428,12 @@
         <f t="shared" ref="AT3:AT16" si="2">(AQ3*6)+(AS3*5)</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="56"/>
+      <c r="AU3" s="56">
+        <v>1</v>
+      </c>
       <c r="AV3">
         <f>AU3*5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="38"/>
       <c r="AY3" s="57"/>
@@ -1439,7 +1459,7 @@
       </c>
       <c r="N4" s="79">
         <f>SUM(L3,L9,N7)</f>
-        <v>31609</v>
+        <v>31241</v>
       </c>
       <c r="T4" s="47">
         <v>43108</v>
@@ -1448,11 +1468,11 @@
         <v>73</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W4" s="41">
         <f t="shared" ref="W4:W67" si="3">(SUM(X4,Y4))-AA4</f>
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="X4" s="50">
         <v>120</v>
@@ -1461,17 +1481,17 @@
         <v>60</v>
       </c>
       <c r="Z4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA4" s="51">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AB4">
         <v>10</v>
       </c>
       <c r="AC4" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD4" s="56"/>
       <c r="AE4" s="56"/>
@@ -1486,7 +1506,7 @@
       <c r="AN4" s="56"/>
       <c r="AO4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP4" s="56"/>
       <c r="AQ4" s="56"/>
@@ -1496,10 +1516,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU4" s="56"/>
+      <c r="AU4" s="56">
+        <v>2</v>
+      </c>
       <c r="AV4">
         <f t="shared" ref="AV4:AV67" si="4">AU4*5</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
       </c>
       <c r="AY4" s="57"/>
       <c r="AZ4" s="57" t="s">
@@ -1507,7 +1532,7 @@
       </c>
       <c r="BA4" s="57">
         <f>(SUM((AP3:AP519)))-(SUM((AT3:AT519)))</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB4" s="57"/>
     </row>
@@ -1540,20 +1565,31 @@
       <c r="U5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="49"/>
+      <c r="V5" s="49" t="s">
+        <v>112</v>
+      </c>
       <c r="W5" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="X5" s="50">
+        <v>80</v>
+      </c>
       <c r="Y5" s="50"/>
       <c r="AA5" s="51">
         <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
+      <c r="AD5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE5" s="56">
+        <v>5</v>
+      </c>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
@@ -1565,15 +1601,21 @@
       <c r="AN5" s="56"/>
       <c r="AO5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="AP5" s="56">
+        <v>50</v>
+      </c>
+      <c r="AQ5" s="56">
+        <v>2</v>
+      </c>
       <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
+      <c r="AS5" s="56">
+        <v>3</v>
+      </c>
       <c r="AT5" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AU5" s="56"/>
       <c r="AV5">
@@ -1594,7 +1636,7 @@
       </c>
       <c r="L6" s="52">
         <f>(SUM((Q11:Q299),(W3:W500),(C11:C499)))-(SUM((R11:R499)))</f>
-        <v>70</v>
+        <v>702</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1610,20 +1652,31 @@
       <c r="U6" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="V6" s="72"/>
+      <c r="V6" s="72" t="s">
+        <v>113</v>
+      </c>
       <c r="W6" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="X6" s="50">
+        <v>80</v>
+      </c>
       <c r="Y6" s="50"/>
       <c r="AA6" s="51">
         <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6" s="100"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
+      <c r="AD6" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" s="56">
+        <v>36</v>
+      </c>
       <c r="AF6" s="56"/>
       <c r="AG6" s="56"/>
       <c r="AH6" s="56"/>
@@ -1635,7 +1688,7 @@
       <c r="AN6" s="56"/>
       <c r="AO6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP6" s="56"/>
       <c r="AQ6" s="56"/>
@@ -1645,10 +1698,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU6" s="56"/>
+      <c r="AU6" s="56">
+        <v>2</v>
+      </c>
       <c r="AV6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AW6">
+        <v>6</v>
       </c>
       <c r="AY6" s="60"/>
       <c r="AZ6" s="57"/>
@@ -1665,7 +1723,7 @@
       </c>
       <c r="N7" s="78">
         <f>SUM(P7,L6)</f>
-        <v>70</v>
+        <v>702</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="74">
@@ -1788,7 +1846,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L481)</f>
-        <v>27860</v>
+        <v>26860</v>
       </c>
       <c r="N9" s="32" t="s">
         <v>41</v>
@@ -1946,7 +2004,7 @@
         <v>43108</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -1974,10 +2032,10 @@
         <v>43101</v>
       </c>
       <c r="O11" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="35" t="s">
         <v>102</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>103</v>
       </c>
       <c r="Q11" s="37">
         <v>2700</v>
@@ -2059,7 +2117,7 @@
         <v>43108</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="37"/>
@@ -2138,10 +2196,16 @@
         <f>SUM((L13:L23))</f>
         <v>5120</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="N13" s="36">
+        <v>43109</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="P13" s="35"/>
-      <c r="Q13" s="82"/>
+      <c r="Q13" s="82">
+        <v>100</v>
+      </c>
       <c r="R13" s="37"/>
       <c r="S13" s="56"/>
       <c r="T13" s="47">
@@ -2212,10 +2276,18 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="37"/>
+      <c r="N14" s="36">
+        <v>43110</v>
+      </c>
+      <c r="O14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>500</v>
+      </c>
       <c r="R14" s="37"/>
       <c r="T14" s="47">
         <v>43118</v>
@@ -3385,17 +3457,17 @@
         <v>26</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J30" s="23">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="K30" s="22">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L30" s="20">
         <f t="shared" si="7"/>
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="N30" s="36"/>
       <c r="O30" s="35"/>
@@ -3460,7 +3532,7 @@
         <v>23</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J31" s="23">
         <v>5300</v>
@@ -3533,7 +3605,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J32" s="23">
         <v>160</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -370,12 +370,27 @@
   <si>
     <t>Copias</t>
   </si>
+  <si>
+    <t>Deposito pago mamá + ahorro</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>Miguel Presupuesto</t>
+  </si>
+  <si>
+    <t>SDT Graficador</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +535,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +706,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -697,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -891,6 +919,12 @@
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,6 +933,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF33CC33"/>
       <color rgb="FFCCFFCC"/>
@@ -908,7 +943,6 @@
       <color rgb="FFFFFF66"/>
       <color rgb="FF86F577"/>
       <color rgb="FF99FF66"/>
-      <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1188,7 +1222,7 @@
   <dimension ref="A1:BB963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,6 +1250,9 @@
         <v>43107</v>
       </c>
       <c r="D1" s="53"/>
+      <c r="E1" s="113" t="s">
+        <v>119</v>
+      </c>
       <c r="T1" s="44"/>
       <c r="U1" s="44"/>
       <c r="V1" s="44"/>
@@ -1255,9 +1292,12 @@
         <v>17</v>
       </c>
       <c r="C2" s="83">
-        <v>879</v>
-      </c>
-      <c r="D2" s="53"/>
+        <v>898</v>
+      </c>
+      <c r="E2" s="114">
+        <f>L3-C2</f>
+        <v>3520</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1423,7 @@
       </c>
       <c r="L3" s="25">
         <f>(SUM(C2,(E11:E499)))-(SUM((D11:D499),(C11:C499)))</f>
-        <v>3679</v>
+        <v>4418</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1459,7 +1499,7 @@
       </c>
       <c r="N4" s="79">
         <f>SUM(L3,L9,N7)</f>
-        <v>31241</v>
+        <v>31470</v>
       </c>
       <c r="T4" s="47">
         <v>43108</v>
@@ -1532,7 +1572,7 @@
       </c>
       <c r="BA4" s="57">
         <f>(SUM((AP3:AP519)))-(SUM((AT3:AT519)))</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BB4" s="57"/>
     </row>
@@ -1636,7 +1676,7 @@
       </c>
       <c r="L6" s="52">
         <f>(SUM((Q11:Q299),(W3:W500),(C11:C499)))-(SUM((R11:R499)))</f>
-        <v>702</v>
+        <v>192</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1723,7 +1763,7 @@
       </c>
       <c r="N7" s="78">
         <f>SUM(P7,L6)</f>
-        <v>702</v>
+        <v>192</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="74">
@@ -1738,18 +1778,27 @@
       <c r="U7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="49"/>
+      <c r="V7" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="W7" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="50"/>
+        <v>-20</v>
+      </c>
+      <c r="X7" s="50">
+        <v>80</v>
+      </c>
       <c r="Y7" s="50"/>
       <c r="AA7" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="AB7">
+        <v>70</v>
+      </c>
+      <c r="AC7" s="100" t="s">
+        <v>116</v>
+      </c>
       <c r="AD7" s="56"/>
       <c r="AE7" s="56"/>
       <c r="AF7" s="56"/>
@@ -1763,20 +1812,28 @@
       <c r="AN7" s="56"/>
       <c r="AO7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="AP7" s="56">
+        <v>20</v>
+      </c>
+      <c r="AQ7" s="56">
+        <v>2</v>
+      </c>
       <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
+      <c r="AS7" s="56">
+        <v>1</v>
+      </c>
       <c r="AT7" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU7" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="AU7" s="56">
+        <v>2</v>
+      </c>
       <c r="AV7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
@@ -1786,12 +1843,16 @@
       <c r="U8" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="49"/>
+      <c r="V8" s="49" t="s">
+        <v>117</v>
+      </c>
       <c r="W8" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="X8" s="50">
+        <v>80</v>
+      </c>
       <c r="Y8" s="67"/>
       <c r="AA8" s="51">
         <f t="shared" si="0"/>
@@ -1816,10 +1877,12 @@
       <c r="AP8" s="56"/>
       <c r="AQ8" s="56"/>
       <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
+      <c r="AS8" s="56">
+        <v>2</v>
+      </c>
       <c r="AT8" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU8" s="56"/>
       <c r="AV8">
@@ -2091,11 +2154,17 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="99">
+        <v>43112</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>115</v>
+      </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="56">
+        <v>720</v>
+      </c>
       <c r="G12" s="18" t="s">
         <v>27</v>
       </c>
@@ -2204,9 +2273,11 @@
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="82">
-        <v>100</v>
-      </c>
-      <c r="R13" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="R13" s="37">
+        <v>220</v>
+      </c>
       <c r="S13" s="56"/>
       <c r="T13" s="47">
         <v>43117</v>
@@ -2288,7 +2359,9 @@
       <c r="Q14" s="37">
         <v>500</v>
       </c>
-      <c r="R14" s="37"/>
+      <c r="R14" s="37">
+        <v>500</v>
+      </c>
       <c r="T14" s="47">
         <v>43118</v>
       </c>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>Ganancia</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t>Cerveza</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1228,7 @@
   <dimension ref="A1:BB963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="N4" s="79">
         <f>SUM(L3,L9,N7)</f>
-        <v>31470</v>
+        <v>31370</v>
       </c>
       <c r="T4" s="47">
         <v>43108</v>
@@ -1676,7 +1682,7 @@
       </c>
       <c r="L6" s="52">
         <f>(SUM((Q11:Q299),(W3:W500),(C11:C499)))-(SUM((R11:R499)))</f>
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1763,7 +1769,7 @@
       </c>
       <c r="N7" s="78">
         <f>SUM(P7,L6)</f>
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="74">
@@ -1848,7 +1854,7 @@
       </c>
       <c r="W8" s="41">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>-20</v>
       </c>
       <c r="X8" s="50">
         <v>80</v>
@@ -1856,11 +1862,20 @@
       <c r="Y8" s="67"/>
       <c r="AA8" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
+        <v>100</v>
+      </c>
+      <c r="AB8">
+        <v>90</v>
+      </c>
+      <c r="AC8" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE8" s="56">
+        <v>10</v>
+      </c>
       <c r="AF8" s="56"/>
       <c r="AG8" s="56"/>
       <c r="AH8" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>Cerveza</t>
+  </si>
+  <si>
+    <t>Shape of Water</t>
+  </si>
+  <si>
+    <t>Carls Junior</t>
+  </si>
+  <si>
+    <t>Jaime me dio 50 (?)</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1237,7 @@
   <dimension ref="A1:BB963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1514,7 @@
       </c>
       <c r="N4" s="79">
         <f>SUM(L3,L9,N7)</f>
-        <v>31370</v>
+        <v>31424</v>
       </c>
       <c r="T4" s="47">
         <v>43108</v>
@@ -1578,7 +1587,7 @@
       </c>
       <c r="BA4" s="57">
         <f>(SUM((AP3:AP519)))-(SUM((AT3:AT519)))</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="57"/>
     </row>
@@ -1682,7 +1691,7 @@
       </c>
       <c r="L6" s="52">
         <f>(SUM((Q11:Q299),(W3:W500),(C11:C499)))-(SUM((R11:R499)))</f>
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1769,7 +1778,7 @@
       </c>
       <c r="N7" s="78">
         <f>SUM(P7,L6)</f>
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="74">
@@ -1939,20 +1948,38 @@
       <c r="U9" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="49"/>
+      <c r="V9" s="49" t="s">
+        <v>122</v>
+      </c>
       <c r="W9" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
+        <v>54</v>
+      </c>
+      <c r="X9" s="50">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="50">
+        <v>50</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>124</v>
+      </c>
       <c r="AA9" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
+        <v>296</v>
+      </c>
+      <c r="AB9">
+        <v>250</v>
+      </c>
+      <c r="AC9" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE9" s="56">
+        <v>46</v>
+      </c>
       <c r="AF9" s="56"/>
       <c r="AG9" s="56"/>
       <c r="AH9" s="56"/>
@@ -1969,10 +1996,12 @@
       <c r="AP9" s="56"/>
       <c r="AQ9" s="56"/>
       <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
+      <c r="AS9" s="56">
+        <v>3</v>
+      </c>
       <c r="AT9" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU9" s="56"/>
       <c r="AV9">
@@ -2442,7 +2471,7 @@
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="20">
-        <f t="shared" si="5"/>
+        <f>J15-K15</f>
         <v>1000</v>
       </c>
       <c r="N15" s="35"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Celular para su mamá</t>
   </si>
   <si>
-    <t>Netflix (Nov,2017-Dic,2017 - Tarifa 160)</t>
-  </si>
-  <si>
     <t>Papás</t>
   </si>
   <si>
@@ -399,6 +396,24 @@
   </si>
   <si>
     <t>Jaime me dio 50 (?)</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Uber mamá</t>
+  </si>
+  <si>
+    <t>Netflix (Nov,2017-Ene,2018 - Tarifa 160)</t>
+  </si>
+  <si>
+    <t>No Boiler</t>
+  </si>
+  <si>
+    <t>Ale Super Deudas</t>
+  </si>
+  <si>
+    <t>Tarjeta MB; Copias</t>
   </si>
 </sst>
 </file>
@@ -1237,13 +1252,13 @@
   <dimension ref="A1:BB963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1264,9 +1279,9 @@
       <c r="C1" s="54">
         <v>43107</v>
       </c>
-      <c r="D1" s="53"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T1" s="44"/>
       <c r="U1" s="44"/>
@@ -1309,9 +1324,10 @@
       <c r="C2" s="83">
         <v>898</v>
       </c>
+      <c r="D2" s="56"/>
       <c r="E2" s="114">
         <f>L3-C2</f>
-        <v>3520</v>
+        <v>3184</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1438,7 +1454,7 @@
       </c>
       <c r="L3" s="25">
         <f>(SUM(C2,(E11:E499)))-(SUM((D11:D499),(C11:C499)))</f>
-        <v>4418</v>
+        <v>4082</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1514,7 +1530,7 @@
       </c>
       <c r="N4" s="79">
         <f>SUM(L3,L9,N7)</f>
-        <v>31424</v>
+        <v>31421</v>
       </c>
       <c r="T4" s="47">
         <v>43108</v>
@@ -1523,7 +1539,7 @@
         <v>73</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W4" s="41">
         <f t="shared" ref="W4:W67" si="3">(SUM(X4,Y4))-AA4</f>
@@ -1536,7 +1552,7 @@
         <v>60</v>
       </c>
       <c r="Z4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA4" s="51">
         <f t="shared" si="0"/>
@@ -1546,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="AC4" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD4" s="56"/>
       <c r="AE4" s="56"/>
@@ -1587,7 +1603,7 @@
       </c>
       <c r="BA4" s="57">
         <f>(SUM((AP3:AP519)))-(SUM((AT3:AT519)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="57"/>
     </row>
@@ -1621,7 +1637,7 @@
         <v>69</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W5" s="41">
         <f t="shared" si="3"/>
@@ -1640,7 +1656,7 @@
       </c>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE5" s="56">
         <v>5</v>
@@ -1691,7 +1707,7 @@
       </c>
       <c r="L6" s="52">
         <f>(SUM((Q11:Q299),(W3:W500),(C11:C499)))-(SUM((R11:R499)))</f>
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1708,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="V6" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W6" s="41">
         <f t="shared" si="3"/>
@@ -1727,7 +1743,7 @@
       </c>
       <c r="AC6" s="100"/>
       <c r="AD6" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE6" s="56">
         <v>36</v>
@@ -1778,7 +1794,7 @@
       </c>
       <c r="N7" s="78">
         <f>SUM(P7,L6)</f>
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="74">
@@ -1794,7 +1810,7 @@
         <v>45</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W7" s="41">
         <f t="shared" si="3"/>
@@ -1812,7 +1828,7 @@
         <v>70</v>
       </c>
       <c r="AC7" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD7" s="56"/>
       <c r="AE7" s="56"/>
@@ -1859,7 +1875,7 @@
         <v>70</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W8" s="41">
         <f t="shared" si="3"/>
@@ -1877,10 +1893,10 @@
         <v>90</v>
       </c>
       <c r="AC8" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD8" s="56" t="s">
         <v>120</v>
-      </c>
-      <c r="AD8" s="56" t="s">
-        <v>121</v>
       </c>
       <c r="AE8" s="56">
         <v>10</v>
@@ -1933,7 +1949,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L481)</f>
-        <v>26860</v>
+        <v>26940</v>
       </c>
       <c r="N9" s="32" t="s">
         <v>41</v>
@@ -1949,7 +1965,7 @@
         <v>71</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W9" s="41">
         <f t="shared" si="3"/>
@@ -1962,7 +1978,7 @@
         <v>50</v>
       </c>
       <c r="Z9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA9" s="51">
         <f t="shared" si="0"/>
@@ -1972,10 +1988,10 @@
         <v>250</v>
       </c>
       <c r="AC9" s="100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE9" s="56">
         <v>46</v>
@@ -2111,7 +2127,7 @@
         <v>43108</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -2139,10 +2155,10 @@
         <v>43101</v>
       </c>
       <c r="O11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>102</v>
       </c>
       <c r="Q11" s="37">
         <v>2700</v>
@@ -2156,21 +2172,34 @@
       <c r="U11" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="49"/>
+      <c r="V11" s="49" t="s">
+        <v>127</v>
+      </c>
       <c r="W11" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="50"/>
+        <v>89</v>
+      </c>
+      <c r="X11" s="50">
+        <v>120</v>
+      </c>
       <c r="Y11" s="50"/>
       <c r="AA11" s="51">
         <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11" s="100"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
+      <c r="AD11" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE11" s="56">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="56">
+        <v>10</v>
+      </c>
       <c r="AG11" s="56"/>
       <c r="AH11" s="56"/>
       <c r="AI11" s="56"/>
@@ -2181,15 +2210,19 @@
       <c r="AN11" s="56"/>
       <c r="AO11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56"/>
+        <v>11</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>11</v>
+      </c>
+      <c r="AQ11" s="56">
+        <v>2</v>
+      </c>
       <c r="AR11" s="56"/>
       <c r="AS11" s="56"/>
       <c r="AT11" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU11" s="56"/>
       <c r="AV11">
@@ -2202,7 +2235,7 @@
         <v>43112</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -2230,7 +2263,7 @@
         <v>43108</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="37"/>
@@ -2243,16 +2276,20 @@
       <c r="U12" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="V12" s="49"/>
+      <c r="V12" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="W12" s="41">
         <f>(SUM(X12,Y12))-AA12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="X12" s="50">
+        <v>80</v>
+      </c>
       <c r="Y12" s="112"/>
       <c r="AA12" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC12" s="100"/>
       <c r="AD12" s="56"/>
@@ -2268,7 +2305,7 @@
       <c r="AN12" s="56"/>
       <c r="AO12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP12" s="56"/>
       <c r="AQ12" s="56"/>
@@ -2278,17 +2315,28 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="56"/>
+      <c r="AU12" s="56">
+        <v>2</v>
+      </c>
       <c r="AV12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AW12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="99">
+        <v>43114</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>124</v>
+      </c>
       <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
+      <c r="D13" s="102">
+        <v>163</v>
+      </c>
       <c r="E13" s="103"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18" t="s">
@@ -2313,7 +2361,7 @@
         <v>43109</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="82">
@@ -2371,10 +2419,16 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="99">
+        <v>43116</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>125</v>
+      </c>
       <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
+      <c r="D14" s="102">
+        <v>173</v>
+      </c>
       <c r="E14" s="103"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
@@ -2398,7 +2452,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="37">
         <v>500</v>
@@ -2474,10 +2528,16 @@
         <f>J15-K15</f>
         <v>1000</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="N15" s="36">
+        <v>43115</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>107</v>
+      </c>
       <c r="P15" s="35"/>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="37">
+        <v>100</v>
+      </c>
       <c r="R15" s="37"/>
       <c r="T15" s="47">
         <v>43119</v>
@@ -3574,7 +3634,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J30" s="23">
         <v>2900</v>
@@ -3722,15 +3782,15 @@
         <v>26</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J32" s="23">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="20">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="35"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>37224</v>
+        <v>38074</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>32940</v>
+        <v>33790</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -4106,12 +4106,12 @@
         <v>144</v>
       </c>
       <c r="P33" s="23">
-        <v>6000</v>
+        <v>6850</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="20">
         <f t="shared" si="8"/>
-        <v>6000</v>
+        <v>6850</v>
       </c>
       <c r="T33" s="36"/>
       <c r="U33" s="35"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -459,6 +459,33 @@
   </si>
   <si>
     <t>Cuatrimestre</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Prestamo 1</t>
+  </si>
+  <si>
+    <t>Escuela Manejo</t>
+  </si>
+  <si>
+    <t>Paletas Carlos V</t>
+  </si>
+  <si>
+    <t>Gnomo</t>
+  </si>
+  <si>
+    <t>Fondita Condesa</t>
+  </si>
+  <si>
+    <t>Estacionamiento Samborns</t>
+  </si>
+  <si>
+    <t>Sukiya</t>
+  </si>
+  <si>
+    <t>Tiendita</t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1629,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>38074</v>
+        <v>40832</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1675,7 +1702,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1781,7 +1808,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>273</v>
+        <v>531</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1868,17 +1895,17 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>273</v>
+        <v>3031</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
         <f>(SUM(X11:X499))-(SUM(K11:K499))</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S7" s="116"/>
       <c r="T7" s="118">
         <f>E9</f>
-        <v>12160</v>
+        <v>10160</v>
       </c>
       <c r="Z7" s="47">
         <v>43111</v>
@@ -2016,7 +2043,7 @@
       <c r="D9" s="61"/>
       <c r="E9" s="44">
         <f>SUM(E10:E500)</f>
-        <v>12160</v>
+        <v>10160</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
@@ -2536,17 +2563,26 @@
       <c r="AB13" s="49"/>
       <c r="AC13" s="41">
         <f>(SUM(AD13,AE13))-AG13</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="50"/>
+        <v>-6858</v>
+      </c>
+      <c r="AD13" s="50">
+        <v>80</v>
+      </c>
       <c r="AE13" s="50"/>
       <c r="AG13" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="100"/>
+        <v>6938</v>
+      </c>
+      <c r="AH13">
+        <v>70</v>
+      </c>
+      <c r="AI13" s="100" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
+      <c r="AK13" s="15">
+        <v>6850</v>
+      </c>
       <c r="AL13" s="56"/>
       <c r="AM13" s="56"/>
       <c r="AN13" s="56"/>
@@ -2558,7 +2594,7 @@
       <c r="AT13" s="56"/>
       <c r="AU13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AV13" s="56"/>
       <c r="AW13" s="56"/>
@@ -2568,10 +2604,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA13" s="110"/>
+      <c r="BA13" s="110">
+        <v>2</v>
+      </c>
       <c r="BB13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -2582,11 +2623,11 @@
         <v>141</v>
       </c>
       <c r="C14">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E14">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="99">
         <v>43116</v>
@@ -2638,17 +2679,28 @@
       <c r="AB14" s="49"/>
       <c r="AC14" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="50"/>
+        <v>-86</v>
+      </c>
+      <c r="AD14" s="50">
+        <v>80</v>
+      </c>
       <c r="AE14" s="50"/>
       <c r="AG14" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
+        <v>166</v>
+      </c>
+      <c r="AH14">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ14" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK14" s="56">
+        <v>10</v>
+      </c>
       <c r="AL14" s="56"/>
       <c r="AM14" s="56"/>
       <c r="AN14" s="56"/>
@@ -2660,20 +2712,29 @@
       <c r="AT14" s="56"/>
       <c r="AU14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="56"/>
+        <v>56</v>
+      </c>
+      <c r="AV14" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW14" s="56">
+        <v>2</v>
+      </c>
       <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
+      <c r="AY14" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ14" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BA14" s="56"/>
       <c r="BB14">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -2709,7 +2770,7 @@
       </c>
       <c r="V15" s="35"/>
       <c r="W15" s="37">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="X15" s="37"/>
       <c r="Z15" s="47">
@@ -2721,17 +2782,28 @@
       <c r="AB15" s="72"/>
       <c r="AC15" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="50"/>
+        <v>27</v>
+      </c>
+      <c r="AD15" s="50">
+        <v>80</v>
+      </c>
       <c r="AE15" s="50"/>
       <c r="AG15" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
+        <v>53</v>
+      </c>
+      <c r="AH15">
+        <v>30</v>
+      </c>
+      <c r="AI15" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ15" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK15" s="56">
+        <v>18</v>
+      </c>
       <c r="AL15" s="56"/>
       <c r="AM15" s="56"/>
       <c r="AN15" s="56"/>
@@ -2743,20 +2815,24 @@
       <c r="AT15" s="56"/>
       <c r="AU15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV15" s="56"/>
       <c r="AW15" s="56"/>
       <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
+      <c r="AY15" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ15" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="BA15" s="56">
+        <v>1</v>
+      </c>
       <c r="BB15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
@@ -2784,10 +2860,18 @@
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="37"/>
+      <c r="T16" s="36">
+        <v>43116</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="W16" s="37">
+        <v>8000</v>
+      </c>
       <c r="X16" s="37"/>
       <c r="Z16" s="47">
         <v>43120</v>
@@ -2798,17 +2882,28 @@
       <c r="AB16" s="49"/>
       <c r="AC16" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="50"/>
+        <v>-25</v>
+      </c>
+      <c r="AD16" s="50">
+        <v>100</v>
+      </c>
       <c r="AE16" s="50"/>
       <c r="AG16" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
+        <v>125</v>
+      </c>
+      <c r="AH16">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ16" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK16" s="56">
+        <v>15</v>
+      </c>
       <c r="AL16" s="56"/>
       <c r="AM16" s="56"/>
       <c r="AN16" s="56"/>
@@ -2820,7 +2915,7 @@
       <c r="AT16" s="56"/>
       <c r="AU16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV16" s="56"/>
       <c r="AW16" s="56"/>
@@ -2830,10 +2925,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA16" s="56"/>
+      <c r="BA16" s="56">
+        <v>2</v>
+      </c>
       <c r="BB16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="5:60" x14ac:dyDescent="0.25">
@@ -2861,11 +2958,21 @@
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
+      <c r="T17" s="36">
+        <v>43119</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="W17" s="37">
+        <v>1300</v>
+      </c>
+      <c r="X17" s="37">
+        <v>2500</v>
+      </c>
       <c r="Z17" s="47">
         <v>43121</v>
       </c>
@@ -2938,10 +3045,18 @@
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="37"/>
+      <c r="T18" s="36">
+        <v>43119</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" s="37">
+        <v>250</v>
+      </c>
       <c r="X18" s="37"/>
       <c r="Z18" s="47">
         <v>43122</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="161">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -486,6 +486,27 @@
   </si>
   <si>
     <t>Tiendita</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Mariscos</t>
+  </si>
+  <si>
+    <t>Ale Pizzas</t>
+  </si>
+  <si>
+    <t>Examenes Uri y Niño</t>
+  </si>
+  <si>
+    <t>Gnomo Jaime</t>
+  </si>
+  <si>
+    <t>Avatar Jaime</t>
+  </si>
+  <si>
+    <t>Conducir al hospital</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1650,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40832</v>
+        <v>40846</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1808,7 +1829,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1895,7 +1916,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>3031</v>
+        <v>3045</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2560,7 +2581,9 @@
       <c r="AA13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB13" s="49"/>
+      <c r="AB13" s="49" t="s">
+        <v>156</v>
+      </c>
       <c r="AC13" s="41">
         <f>(SUM(AD13,AE13))-AG13</f>
         <v>-6858</v>
@@ -2676,7 +2699,9 @@
       <c r="AA14" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB14" s="49"/>
+      <c r="AB14" s="49" t="s">
+        <v>157</v>
+      </c>
       <c r="AC14" s="41">
         <f t="shared" si="3"/>
         <v>-86</v>
@@ -2779,7 +2804,9 @@
       <c r="AA15" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB15" s="72"/>
+      <c r="AB15" s="72" t="s">
+        <v>158</v>
+      </c>
       <c r="AC15" s="41">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2879,7 +2906,9 @@
       <c r="AA16" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB16" s="49"/>
+      <c r="AB16" s="49" t="s">
+        <v>159</v>
+      </c>
       <c r="AC16" s="41">
         <f t="shared" si="3"/>
         <v>-25</v>
@@ -2979,7 +3008,9 @@
       <c r="AA17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB17" s="49"/>
+      <c r="AB17" s="49" t="s">
+        <v>160</v>
+      </c>
       <c r="AC17" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3067,17 +3098,28 @@
       <c r="AB18" s="49"/>
       <c r="AC18" s="69">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="AD18" s="50">
+        <v>120</v>
+      </c>
       <c r="AE18" s="50"/>
       <c r="AG18" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="56"/>
+        <v>106</v>
+      </c>
+      <c r="AH18">
+        <v>50</v>
+      </c>
+      <c r="AI18" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ18" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK18" s="56">
+        <v>40</v>
+      </c>
       <c r="AL18" s="56"/>
       <c r="AM18" s="56"/>
       <c r="AN18" s="56"/>
@@ -3089,7 +3131,7 @@
       <c r="AT18" s="56"/>
       <c r="AU18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV18" s="56"/>
       <c r="AW18" s="56"/>
@@ -3099,10 +3141,15 @@
         <f>(AW18*8)+(AY18*5)</f>
         <v>0</v>
       </c>
-      <c r="BA18" s="56"/>
+      <c r="BA18" s="56">
+        <v>2</v>
+      </c>
       <c r="BB18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC18">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="5:60" x14ac:dyDescent="0.25">
@@ -3130,7 +3177,9 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T19" s="36"/>
+      <c r="T19" s="36">
+        <v>43122</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="37"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>Conducir al hospital</t>
+  </si>
+  <si>
+    <t>Deposito para cubrir el minimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa </t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1453,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="114">
         <f>N3-D2</f>
-        <v>3113</v>
+        <v>4213</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1574,7 +1580,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>4011</v>
+        <v>5111</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1650,7 +1656,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40846</v>
+        <v>40996</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1829,7 +1835,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>545</v>
+        <v>95</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1916,12 +1922,12 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>3045</v>
+        <v>2095</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
         <f>(SUM(X11:X499))-(SUM(K11:K499))</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="S7" s="116"/>
       <c r="T7" s="118">
@@ -2767,11 +2773,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="56"/>
+      <c r="G15" s="99">
+        <v>43123</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>161</v>
+      </c>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="K15" s="56">
+        <v>1100</v>
+      </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18" t="s">
         <v>24</v>
@@ -3180,17 +3192,25 @@
       <c r="T19" s="36">
         <v>43122</v>
       </c>
-      <c r="U19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V19" s="35"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
+      <c r="W19" s="37">
+        <v>150</v>
+      </c>
+      <c r="X19" s="37">
+        <v>600</v>
+      </c>
       <c r="Z19" s="47">
         <v>43123</v>
       </c>
       <c r="AA19" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB19" s="49"/>
+      <c r="AB19" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="AC19" s="41">
         <f t="shared" si="3"/>
         <v>0</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t xml:space="preserve">Casa </t>
+  </si>
+  <si>
+    <t>Olvide el cel en el lab</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1659,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40996</v>
+        <v>41060</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1835,7 +1838,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1922,7 +1925,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2095</v>
+        <v>2159</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2769,6 +2772,7 @@
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="E15">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3107,7 +3111,9 @@
       <c r="AA18" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="49"/>
+      <c r="AB18" s="72" t="s">
+        <v>163</v>
+      </c>
       <c r="AC18" s="69">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3291,13 +3297,15 @@
       <c r="AB20" s="49"/>
       <c r="AC20" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="AD20" s="50">
+        <v>80</v>
+      </c>
       <c r="AE20" s="50"/>
       <c r="AG20" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI20" s="56"/>
       <c r="AJ20" s="100"/>
@@ -3313,7 +3321,7 @@
       <c r="AT20" s="56"/>
       <c r="AU20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV20" s="56"/>
       <c r="AW20" s="56"/>
@@ -3323,10 +3331,15 @@
         <f>(AW20*6)+(AX20*8)+(AY20*5)</f>
         <v>0</v>
       </c>
-      <c r="BA20" s="56"/>
+      <c r="BA20" s="56">
+        <v>2</v>
+      </c>
       <c r="BB20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC20">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="5:60" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="166">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>Olvide el cel en el lab</t>
+  </si>
+  <si>
+    <t>Café Edgar</t>
+  </si>
+  <si>
+    <t>Uri y Niño LAB :D</t>
   </si>
 </sst>
 </file>
@@ -1380,12 +1386,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" customWidth="1"/>
@@ -1916,6 +1923,7 @@
       <c r="BH6" s="57"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D7" s="38"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -2282,7 +2290,7 @@
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="38" t="s">
         <v>134</v>
       </c>
       <c r="B11" t="s">
@@ -2978,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E17">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3067,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E18">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3170,7 +3178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E19">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3258,7 +3266,7 @@
       </c>
       <c r="BH19" s="38"/>
     </row>
-    <row r="20" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3294,10 +3302,12 @@
       <c r="AA20" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB20" s="49"/>
+      <c r="AB20" s="49" t="s">
+        <v>165</v>
+      </c>
       <c r="AC20" s="41">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>-6</v>
       </c>
       <c r="AD20" s="50">
         <v>80</v>
@@ -3305,9 +3315,14 @@
       <c r="AE20" s="50"/>
       <c r="AG20" s="51">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AI20" s="56"/>
+        <v>86</v>
+      </c>
+      <c r="AH20">
+        <v>70</v>
+      </c>
+      <c r="AI20" s="56" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ20" s="100"/>
       <c r="AK20" s="56"/>
       <c r="AL20" s="56"/>
@@ -3342,7 +3357,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
       <c r="E21">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3378,18 +3394,24 @@
       <c r="AA21" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="49"/>
+      <c r="AB21" s="49" t="s">
+        <v>164</v>
+      </c>
       <c r="AC21" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="50"/>
+        <v>70</v>
+      </c>
+      <c r="AD21" s="50">
+        <v>80</v>
+      </c>
       <c r="AE21" s="70"/>
       <c r="AG21" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="56"/>
+        <v>10</v>
+      </c>
+      <c r="AI21" s="56" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ21" s="100"/>
       <c r="AK21" s="100"/>
       <c r="AL21" s="56"/>
@@ -3403,7 +3425,7 @@
       <c r="AT21" s="56"/>
       <c r="AU21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV21" s="56"/>
       <c r="AW21" s="56"/>
@@ -3413,13 +3435,15 @@
         <f t="shared" ref="AZ21:AZ84" si="7">(AW21*6)+(AX21*8)+(AY21*5)</f>
         <v>0</v>
       </c>
-      <c r="BA21" s="56"/>
+      <c r="BA21" s="56">
+        <v>2</v>
+      </c>
       <c r="BB21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:60" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E22">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3496,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E23">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3574,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E24">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3653,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E25">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3732,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E26">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3811,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3891,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E28">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3970,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4049,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E30">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4128,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E31">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4205,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="E32">
         <f t="shared" si="6"/>
         <v>0</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2541,7 @@
       <c r="C13">
         <v>560</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="38">
         <v>400</v>
       </c>
       <c r="E13">
@@ -2665,6 +2665,7 @@
       <c r="C14">
         <v>8000</v>
       </c>
+      <c r="D14" s="38"/>
       <c r="E14">
         <f t="shared" si="6"/>
         <v>8000</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="171">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -523,6 +523,21 @@
   <si>
     <t>Uri y Niño LAB :D</t>
   </si>
+  <si>
+    <t>Houston's</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Diente Roto</t>
+  </si>
+  <si>
+    <t>Tío Niño 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar FINAL </t>
+  </si>
 </sst>
 </file>
 
@@ -884,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,6 +1105,7 @@
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1682,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41060</v>
+        <v>40630</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1739,7 +1755,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1845,7 +1861,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>159</v>
+        <v>1729</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1933,12 +1949,12 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2159</v>
+        <v>1729</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
         <f>(SUM(X11:X499))-(SUM(K11:K499))</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="116"/>
       <c r="T7" s="118">
@@ -3025,7 +3041,7 @@
         <v>1300</v>
       </c>
       <c r="X17" s="37">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="Z17" s="47">
         <v>43121</v>
@@ -3212,11 +3228,9 @@
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="37">
-        <v>150</v>
-      </c>
-      <c r="X19" s="37">
-        <v>600</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="X19" s="37"/>
       <c r="Z19" s="47">
         <v>43123</v>
       </c>
@@ -3400,7 +3414,7 @@
       </c>
       <c r="AC21" s="41">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="50">
         <v>80</v>
@@ -3408,9 +3422,12 @@
       <c r="AE21" s="70"/>
       <c r="AG21" s="51">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AI21" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH21">
+        <v>70</v>
+      </c>
+      <c r="AI21" s="100" t="s">
         <v>114</v>
       </c>
       <c r="AJ21" s="100"/>
@@ -3429,12 +3446,16 @@
         <v>10</v>
       </c>
       <c r="AV21" s="56"/>
-      <c r="AW21" s="56"/>
+      <c r="AW21" s="56">
+        <v>1</v>
+      </c>
       <c r="AX21" s="56"/>
-      <c r="AY21" s="109"/>
+      <c r="AY21" s="109">
+        <v>2</v>
+      </c>
       <c r="AZ21" s="56">
         <f t="shared" ref="AZ21:AZ84" si="7">(AW21*6)+(AX21*8)+(AY21*5)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA21" s="56">
         <v>2</v>
@@ -3480,20 +3501,33 @@
       <c r="AA22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB22" s="49"/>
+      <c r="AB22" s="49" t="s">
+        <v>169</v>
+      </c>
       <c r="AC22" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="67"/>
+        <v>-450</v>
+      </c>
+      <c r="AD22" s="67">
+        <v>80</v>
+      </c>
       <c r="AE22" s="67"/>
       <c r="AG22" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
+        <v>530</v>
+      </c>
+      <c r="AH22">
+        <v>100</v>
+      </c>
+      <c r="AI22" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ22" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK22" s="56">
+        <v>400</v>
+      </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="56"/>
       <c r="AN22" s="56"/>
@@ -3505,20 +3539,28 @@
       <c r="AT22" s="56"/>
       <c r="AU22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="56"/>
-      <c r="AW22" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="AV22" s="56">
+        <v>20</v>
+      </c>
+      <c r="AW22" s="56">
+        <v>2</v>
+      </c>
       <c r="AX22" s="56"/>
-      <c r="AY22" s="56"/>
+      <c r="AY22" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ22" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA22" s="56"/>
+        <v>22</v>
+      </c>
+      <c r="BA22" s="56">
+        <v>2</v>
+      </c>
       <c r="BB22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
@@ -3558,20 +3600,33 @@
       <c r="AA23" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB23" s="49"/>
+      <c r="AB23" s="49" t="s">
+        <v>170</v>
+      </c>
       <c r="AC23" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="50"/>
+        <v>-10</v>
+      </c>
+      <c r="AD23" s="50">
+        <v>100</v>
+      </c>
       <c r="AE23" s="50"/>
       <c r="AG23" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
+        <v>110</v>
+      </c>
+      <c r="AH23">
+        <v>100</v>
+      </c>
+      <c r="AI23" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ23" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK23" s="56">
+        <v>10</v>
+      </c>
       <c r="AL23" s="109"/>
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
@@ -3588,10 +3643,12 @@
       <c r="AV23" s="56"/>
       <c r="AW23" s="56"/>
       <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
+      <c r="AY23" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ23" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA23" s="56"/>
       <c r="BB23">
@@ -3637,7 +3694,7 @@
       <c r="AA24" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="49"/>
+      <c r="AB24" s="121"/>
       <c r="AC24" s="41">
         <f t="shared" si="3"/>
         <v>0</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -3778,13 +3778,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="50"/>
+      <c r="AD25" s="50">
+        <v>120</v>
+      </c>
       <c r="AE25" s="50"/>
       <c r="AG25" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="56"/>
+        <v>120</v>
+      </c>
+      <c r="AH25">
+        <v>70</v>
+      </c>
+      <c r="AI25" s="56" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ25" s="56"/>
       <c r="AK25" s="56"/>
       <c r="AL25" s="56"/>
@@ -3798,15 +3805,21 @@
       <c r="AT25" s="56"/>
       <c r="AU25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="AV25" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW25" s="56">
+        <v>2</v>
+      </c>
       <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
+      <c r="AY25" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ25" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA25" s="56"/>
       <c r="BB25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -537,6 +537,21 @@
   </si>
   <si>
     <t xml:space="preserve">Avatar FINAL </t>
+  </si>
+  <si>
+    <t>Gazua</t>
+  </si>
+  <si>
+    <t>Comida china</t>
+  </si>
+  <si>
+    <t>Sol pantalones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platica Ele </t>
+  </si>
+  <si>
+    <t>Firma Mike con Jaime</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1418,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1494,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="114">
         <f>N3-D2</f>
-        <v>4213</v>
+        <v>7213</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1606,7 +1621,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>5111</v>
+        <v>8111</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1682,7 +1697,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40630</v>
+        <v>43822</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1861,7 +1876,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1729</v>
+        <v>1921</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1949,7 +1964,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1729</v>
+        <v>1921</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2912,7 +2927,9 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="K16" s="56">
+        <v>3000</v>
+      </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
         <v>24</v>
@@ -3306,11 +3323,16 @@
         <f t="shared" si="5"/>
         <v>850</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="35"/>
+      <c r="T20" s="36">
+        <v>43129</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V20" s="35"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
+      <c r="W20" s="37">
+        <v>200</v>
+      </c>
       <c r="Z20" s="47">
         <v>43124</v>
       </c>
@@ -3401,8 +3423,12 @@
       <c r="T21" s="36"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
+      <c r="W21" s="37">
+        <v>3000</v>
+      </c>
+      <c r="X21" s="37">
+        <v>3000</v>
+      </c>
       <c r="Z21" s="47">
         <v>43125</v>
       </c>
@@ -3773,10 +3799,12 @@
       <c r="AA25" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB25" s="49"/>
+      <c r="AB25" s="49" t="s">
+        <v>175</v>
+      </c>
       <c r="AC25" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AD25" s="50">
         <v>120</v>
@@ -3784,7 +3812,7 @@
       <c r="AE25" s="50"/>
       <c r="AG25" s="51">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AH25">
         <v>70</v>
@@ -3805,7 +3833,7 @@
       <c r="AT25" s="56"/>
       <c r="AU25">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AV25" s="56">
         <v>50</v>
@@ -3825,6 +3853,9 @@
       <c r="BB25">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
@@ -3865,18 +3896,27 @@
       <c r="AA26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB26" s="49"/>
+      <c r="AB26" s="49" t="s">
+        <v>174</v>
+      </c>
       <c r="AC26" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="AD26" s="50">
+        <v>80</v>
+      </c>
       <c r="AE26" s="50"/>
       <c r="AG26" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="AH26">
+        <v>70</v>
+      </c>
+      <c r="AI26" s="56" t="s">
+        <v>172</v>
+      </c>
       <c r="AJ26" s="56"/>
       <c r="AK26" s="56"/>
       <c r="AL26" s="56"/>
@@ -3890,7 +3930,7 @@
       <c r="AT26" s="56"/>
       <c r="AU26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV26" s="56"/>
       <c r="AW26" s="56"/>
@@ -3904,6 +3944,9 @@
       <c r="BB26">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
@@ -3944,19 +3987,27 @@
       <c r="AA27" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB27" s="49"/>
+      <c r="AB27" s="49" t="s">
+        <v>173</v>
+      </c>
       <c r="AC27" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="50"/>
+        <v>-6</v>
+      </c>
+      <c r="AD27" s="50">
+        <v>80</v>
+      </c>
       <c r="AE27" s="50"/>
       <c r="AG27" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="56"/>
+        <v>86</v>
+      </c>
+      <c r="AH27" s="38">
+        <v>70</v>
+      </c>
+      <c r="AI27" s="56" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ27" s="56"/>
       <c r="AK27" s="109"/>
       <c r="AL27" s="56"/>
@@ -3970,7 +4021,7 @@
       <c r="AT27" s="56"/>
       <c r="AU27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV27" s="56"/>
       <c r="AW27" s="56"/>
@@ -3980,10 +4031,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA27" s="56"/>
+      <c r="BA27" s="56">
+        <v>2</v>
+      </c>
       <c r="BB27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC27">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="178">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Firma Mike con Jaime</t>
+  </si>
+  <si>
+    <t>Bateria iphone (Insurgentes)</t>
+  </si>
+  <si>
+    <t>Doc Luz Verde</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1424,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1703,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>43822</v>
+        <v>43341</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1770,7 +1776,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1876,7 +1882,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1921</v>
+        <v>1440</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1964,7 +1970,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1921</v>
+        <v>1440</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3331,7 +3337,7 @@
       </c>
       <c r="V20" s="35"/>
       <c r="W20" s="37">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Z20" s="47">
         <v>43124</v>
@@ -3473,7 +3479,7 @@
       </c>
       <c r="AV21" s="56"/>
       <c r="AW21" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="56"/>
       <c r="AY21" s="109">
@@ -3481,7 +3487,7 @@
       </c>
       <c r="AZ21" s="56">
         <f t="shared" ref="AZ21:AZ84" si="7">(AW21*6)+(AX21*8)+(AY21*5)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA21" s="56">
         <v>2</v>
@@ -4080,18 +4086,27 @@
       <c r="AA28" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB28" s="49"/>
+      <c r="AB28" s="49" t="s">
+        <v>177</v>
+      </c>
       <c r="AC28" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="50"/>
+        <v>-6</v>
+      </c>
+      <c r="AD28" s="50">
+        <v>80</v>
+      </c>
       <c r="AE28" s="50"/>
       <c r="AG28" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="56"/>
+        <v>86</v>
+      </c>
+      <c r="AH28">
+        <v>70</v>
+      </c>
+      <c r="AI28" s="56" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ28" s="56"/>
       <c r="AK28" s="56"/>
       <c r="AL28" s="56"/>
@@ -4105,20 +4120,27 @@
       <c r="AT28" s="56"/>
       <c r="AU28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
+      <c r="AW28" s="56">
+        <v>2</v>
+      </c>
       <c r="AX28" s="56"/>
       <c r="AY28" s="56"/>
       <c r="AZ28" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA28" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="BA28" s="56">
+        <v>2</v>
+      </c>
       <c r="BB28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC28">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
@@ -4159,21 +4181,27 @@
       <c r="AA29" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB29" s="49"/>
+      <c r="AB29" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="AC29" s="69">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="50"/>
+        <v>-525</v>
+      </c>
+      <c r="AD29" s="50">
+        <v>80</v>
+      </c>
       <c r="AE29" s="84"/>
       <c r="AG29" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="AI29" s="56"/>
       <c r="AJ29" s="56"/>
       <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
+      <c r="AL29" s="56">
+        <v>600</v>
+      </c>
       <c r="AM29" s="56"/>
       <c r="AN29" s="56"/>
       <c r="AO29" s="56"/>
@@ -4184,15 +4212,19 @@
       <c r="AT29" s="56"/>
       <c r="AU29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV29" s="109"/>
-      <c r="AW29" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="AV29" s="109">
+        <v>5</v>
+      </c>
+      <c r="AW29" s="56">
+        <v>2</v>
+      </c>
       <c r="AX29" s="56"/>
       <c r="AY29" s="109"/>
       <c r="AZ29" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA29" s="109"/>
       <c r="BB29">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="187">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -558,6 +558,33 @@
   </si>
   <si>
     <t>Doc Luz Verde</t>
+  </si>
+  <si>
+    <t>Tarjeta Jaime</t>
+  </si>
+  <si>
+    <t>Antihistamínico</t>
+  </si>
+  <si>
+    <t>El Pescadito</t>
+  </si>
+  <si>
+    <t>Hooters</t>
+  </si>
+  <si>
+    <t>Tamales con Jaime</t>
+  </si>
+  <si>
+    <t>Jaime Pescadito Alergia</t>
+  </si>
+  <si>
+    <t>Bautizo Leo</t>
+  </si>
+  <si>
+    <t>Tamales Abuelita Jaime</t>
+  </si>
+  <si>
+    <t>Edgar!!!!</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1451,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1730,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>43341</v>
+        <v>43131</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1882,7 +1909,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1440</v>
+        <v>1230</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1970,7 +1997,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1440</v>
+        <v>1230</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3426,8 +3453,12 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="35"/>
+      <c r="T21" s="36">
+        <v>43131</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="V21" s="35"/>
       <c r="W21" s="37">
         <v>3000</v>
@@ -4186,7 +4217,7 @@
       </c>
       <c r="AC29" s="69">
         <f t="shared" si="3"/>
-        <v>-525</v>
+        <v>-675</v>
       </c>
       <c r="AD29" s="50">
         <v>80</v>
@@ -4194,9 +4225,14 @@
       <c r="AE29" s="84"/>
       <c r="AG29" s="51">
         <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-      <c r="AI29" s="56"/>
+        <v>755</v>
+      </c>
+      <c r="AH29">
+        <v>150</v>
+      </c>
+      <c r="AI29" s="56" t="s">
+        <v>181</v>
+      </c>
       <c r="AJ29" s="56"/>
       <c r="AK29" s="56"/>
       <c r="AL29" s="56">
@@ -4270,20 +4306,33 @@
       <c r="AA30" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB30" s="49"/>
+      <c r="AB30" s="49" t="s">
+        <v>185</v>
+      </c>
       <c r="AC30" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="50"/>
+        <v>-30</v>
+      </c>
+      <c r="AD30" s="50">
+        <v>120</v>
+      </c>
       <c r="AE30" s="50"/>
       <c r="AG30" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
+        <v>150</v>
+      </c>
+      <c r="AH30">
+        <v>120</v>
+      </c>
+      <c r="AI30" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ30" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK30" s="56">
+        <v>20</v>
+      </c>
       <c r="AL30" s="56"/>
       <c r="AM30" s="56"/>
       <c r="AN30" s="56"/>
@@ -4295,7 +4344,7 @@
       <c r="AT30" s="56"/>
       <c r="AU30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV30" s="95"/>
       <c r="AW30" s="56"/>
@@ -4305,10 +4354,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA30" s="56"/>
+      <c r="BA30" s="56">
+        <v>2</v>
+      </c>
       <c r="BB30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
@@ -4347,7 +4398,9 @@
       <c r="AA31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB31" s="49"/>
+      <c r="AB31" s="49" t="s">
+        <v>184</v>
+      </c>
       <c r="AC31" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4424,21 +4477,33 @@
       <c r="AA32" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB32" s="49"/>
+      <c r="AB32" s="49" t="s">
+        <v>183</v>
+      </c>
       <c r="AC32" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="50"/>
+        <v>-30</v>
+      </c>
+      <c r="AD32" s="50">
+        <v>100</v>
+      </c>
       <c r="AE32" s="50"/>
       <c r="AG32" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
+        <v>130</v>
+      </c>
+      <c r="AH32" s="71">
+        <v>100</v>
+      </c>
+      <c r="AI32" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ32" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK32" s="56">
+        <v>20</v>
+      </c>
       <c r="AL32" s="56"/>
       <c r="AM32" s="56"/>
       <c r="AN32" s="56"/>
@@ -4450,7 +4515,7 @@
       <c r="AT32" s="56"/>
       <c r="AU32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV32" s="56"/>
       <c r="AW32" s="56"/>
@@ -4460,10 +4525,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA32" s="56"/>
+      <c r="BA32" s="56">
+        <v>2</v>
+      </c>
       <c r="BB32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="5:56" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>Edgar!!!!</t>
+  </si>
+  <si>
+    <t>Café con Mel</t>
   </si>
 </sst>
 </file>
@@ -1450,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1733,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>43131</v>
+        <v>43070</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1230</v>
+        <v>1169</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1997,7 +2000,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1230</v>
+        <v>1169</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -4571,20 +4574,31 @@
       <c r="AA33" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB33" s="49"/>
+      <c r="AB33" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="AC33" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="50"/>
+        <v>-61</v>
+      </c>
+      <c r="AD33" s="50">
+        <v>120</v>
+      </c>
       <c r="AE33" s="50"/>
       <c r="AG33" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="AH33">
+        <v>70</v>
       </c>
       <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="109"/>
+      <c r="AJ33" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK33" s="109">
+        <v>89</v>
+      </c>
       <c r="AL33" s="56"/>
       <c r="AM33" s="56"/>
       <c r="AN33" s="56"/>
@@ -4596,7 +4610,7 @@
       <c r="AT33" s="56"/>
       <c r="AU33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AV33" s="56"/>
       <c r="AW33" s="56"/>
@@ -4606,10 +4620,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA33" s="56"/>
+      <c r="BA33" s="56">
+        <v>2</v>
+      </c>
       <c r="BB33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="5:56" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="193">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -588,6 +588,21 @@
   </si>
   <si>
     <t>Café con Mel</t>
+  </si>
+  <si>
+    <t>Uri bebé &lt;3</t>
+  </si>
+  <si>
+    <t>Pantalla iPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla </t>
+  </si>
+  <si>
+    <t>Gazuza</t>
+  </si>
+  <si>
+    <t>Depto Jaime</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1748,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>43070</v>
+        <v>42348</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1806,7 +1821,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1912,7 +1927,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1169</v>
+        <v>947</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2000,7 +2015,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1169</v>
+        <v>947</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2168,7 +2183,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33790</v>
+        <v>33290</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -3556,10 +3571,16 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="35"/>
+      <c r="T22" s="36">
+        <v>43139</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="V22" s="35"/>
-      <c r="W22" s="37"/>
+      <c r="W22" s="37">
+        <v>500</v>
+      </c>
       <c r="X22" s="37"/>
       <c r="Z22" s="47">
         <v>43126</v>
@@ -3654,10 +3675,16 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="T23" s="36"/>
-      <c r="U23" s="35"/>
+      <c r="T23" s="36">
+        <v>43139</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V23" s="35"/>
-      <c r="W23" s="37"/>
+      <c r="W23" s="37">
+        <v>150</v>
+      </c>
       <c r="X23" s="37"/>
       <c r="Y23" s="73"/>
       <c r="Z23" s="47">
@@ -3919,11 +3946,11 @@
         <v>1800</v>
       </c>
       <c r="Q26" s="22">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="R26" s="20">
         <f>P26-Q26</f>
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T26" s="36"/>
       <c r="U26" s="35"/>
@@ -4592,7 +4619,9 @@
       <c r="AH33">
         <v>70</v>
       </c>
-      <c r="AI33" s="56"/>
+      <c r="AI33" s="56" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ33" s="56" t="s">
         <v>187</v>
       </c>
@@ -4661,20 +4690,33 @@
       <c r="AA34" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB34" s="49"/>
+      <c r="AB34" s="49" t="s">
+        <v>189</v>
+      </c>
       <c r="AC34" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="50"/>
+        <v>-946</v>
+      </c>
+      <c r="AD34" s="50">
+        <v>80</v>
+      </c>
       <c r="AE34" s="50"/>
       <c r="AG34" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
+        <v>1026</v>
+      </c>
+      <c r="AH34">
+        <v>70</v>
+      </c>
+      <c r="AI34" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ34" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK34" s="56">
+        <v>900</v>
+      </c>
       <c r="AL34" s="56"/>
       <c r="AM34" s="56"/>
       <c r="AN34" s="56"/>
@@ -4686,20 +4728,29 @@
       <c r="AT34" s="56"/>
       <c r="AU34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
+        <v>56</v>
+      </c>
+      <c r="AV34" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW34" s="56">
+        <v>1</v>
+      </c>
       <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
+      <c r="AY34" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ34" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA34" s="56"/>
       <c r="BB34">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="5:56" x14ac:dyDescent="0.25">
@@ -4732,16 +4783,20 @@
       <c r="AA35" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="49"/>
+      <c r="AB35" s="49" t="s">
+        <v>192</v>
+      </c>
       <c r="AC35" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="50"/>
+        <v>74</v>
+      </c>
+      <c r="AD35" s="50">
+        <v>80</v>
+      </c>
       <c r="AE35" s="50"/>
       <c r="AG35" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI35" s="56"/>
       <c r="AJ35" s="56"/>
@@ -4757,20 +4812,27 @@
       <c r="AT35" s="56"/>
       <c r="AU35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
+      <c r="AW35" s="56">
+        <v>2</v>
+      </c>
       <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
+      <c r="AY35" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ35" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA35" s="56"/>
       <c r="BB35">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="5:56" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="194">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>Depto Jaime</t>
+  </si>
+  <si>
+    <t>Dentista Muela 1</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1472,7 @@
   <dimension ref="A1:BH963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1751,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>42348</v>
+        <v>41916</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1821,7 +1824,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1927,7 +1930,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>947</v>
+        <v>515</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2015,7 +2018,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>947</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3683,7 +3686,7 @@
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="37">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="X23" s="37"/>
       <c r="Y23" s="73"/>
@@ -4788,7 +4791,7 @@
       </c>
       <c r="AC35" s="41">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AD35" s="50">
         <v>80</v>
@@ -4796,7 +4799,10 @@
       <c r="AE35" s="50"/>
       <c r="AG35" s="51">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="AH35">
+        <v>50</v>
       </c>
       <c r="AI35" s="56"/>
       <c r="AJ35" s="56"/>
@@ -4865,20 +4871,28 @@
       <c r="AA36" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="49"/>
+      <c r="AB36" s="49" t="s">
+        <v>193</v>
+      </c>
       <c r="AC36" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="50"/>
+        <v>-432</v>
+      </c>
+      <c r="AD36" s="50">
+        <v>80</v>
+      </c>
       <c r="AE36" s="50"/>
       <c r="AG36" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
+      <c r="AJ36" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK36" s="56">
+        <v>500</v>
+      </c>
       <c r="AL36" s="56"/>
       <c r="AM36" s="56"/>
       <c r="AN36" s="56"/>
@@ -4890,15 +4904,21 @@
       <c r="AT36" s="56"/>
       <c r="AU36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="AV36" s="56">
+        <v>12</v>
+      </c>
+      <c r="AW36" s="56">
+        <v>2</v>
+      </c>
       <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
+      <c r="AY36" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ36" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA36" s="56"/>
       <c r="BB36">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="199">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -606,6 +606,21 @@
   </si>
   <si>
     <t>Dentista Muela 1</t>
+  </si>
+  <si>
+    <t>2 y 7 feb</t>
+  </si>
+  <si>
+    <t>Reparación iPhone</t>
+  </si>
+  <si>
+    <t>Pizzas</t>
+  </si>
+  <si>
+    <t>Visita Abuelita</t>
+  </si>
+  <si>
+    <t>Teatro Enana - Emma</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1766,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41916</v>
+        <v>43346</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1930,7 +1945,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>515</v>
+        <v>895</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2018,7 +2033,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>515</v>
+        <v>895</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2186,7 +2201,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33290</v>
+        <v>34340</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -3779,10 +3794,18 @@
         <f>P24-Q24</f>
         <v>140</v>
       </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="37"/>
+      <c r="T24" s="36">
+        <v>43141</v>
+      </c>
+      <c r="U24" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24" s="37">
+        <v>450</v>
+      </c>
       <c r="X24" s="37"/>
       <c r="Z24" s="47">
         <v>43128</v>
@@ -4322,11 +4345,11 @@
         <v>2900</v>
       </c>
       <c r="Q30" s="22">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="R30" s="20">
         <f t="shared" si="8"/>
-        <v>2400</v>
+        <v>1950</v>
       </c>
       <c r="T30" s="36"/>
       <c r="U30" s="35"/>
@@ -4673,14 +4696,22 @@
       <c r="I34" s="101"/>
       <c r="J34" s="102"/>
       <c r="K34" s="103"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="23"/>
+      <c r="M34" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="23">
+        <v>1500</v>
+      </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T34" s="36"/>
       <c r="U34" s="35"/>
@@ -4876,7 +4907,7 @@
       </c>
       <c r="AC36" s="41">
         <f t="shared" si="3"/>
-        <v>-432</v>
+        <v>-502</v>
       </c>
       <c r="AD36" s="50">
         <v>80</v>
@@ -4884,9 +4915,14 @@
       <c r="AE36" s="50"/>
       <c r="AG36" s="51">
         <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="AI36" s="56"/>
+        <v>582</v>
+      </c>
+      <c r="AH36">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="56" t="s">
+        <v>196</v>
+      </c>
       <c r="AJ36" s="56" t="s">
         <v>193</v>
       </c>
@@ -4956,7 +4992,9 @@
       <c r="AA37" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB37" s="49"/>
+      <c r="AB37" s="49" t="s">
+        <v>197</v>
+      </c>
       <c r="AC37" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5027,7 +5065,9 @@
       <c r="AA38" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB38" s="49"/>
+      <c r="AB38" s="49" t="s">
+        <v>198</v>
+      </c>
       <c r="AC38" s="41">
         <f t="shared" si="3"/>
         <v>0</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="199">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="U22" workbookViewId="0">
+      <selection activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>43346</v>
+        <v>43482</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>895</v>
+        <v>1031</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>895</v>
+        <v>1031</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -5070,17 +5070,28 @@
       </c>
       <c r="AC38" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="AD38" s="50">
+        <v>100</v>
+      </c>
+      <c r="AE38" s="50">
+        <v>250</v>
+      </c>
       <c r="AG38" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="56"/>
+        <v>300</v>
+      </c>
+      <c r="AH38">
+        <v>250</v>
+      </c>
+      <c r="AI38" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
+      <c r="AK38" s="56">
+        <v>40</v>
+      </c>
       <c r="AL38" s="56"/>
       <c r="AM38" s="102"/>
       <c r="AN38" s="56"/>
@@ -5092,7 +5103,7 @@
       <c r="AT38" s="56"/>
       <c r="AU38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV38" s="56"/>
       <c r="AW38" s="56"/>
@@ -5102,10 +5113,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA38" s="56"/>
+      <c r="BA38" s="56">
+        <v>2</v>
+      </c>
       <c r="BB38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="5:56" x14ac:dyDescent="0.25">
@@ -5141,12 +5154,17 @@
       <c r="AB39" s="49"/>
       <c r="AC39" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="50"/>
+        <v>120</v>
+      </c>
+      <c r="AD39" s="50">
+        <v>120</v>
+      </c>
       <c r="AE39" s="50"/>
       <c r="AG39" s="51">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>0</v>
       </c>
       <c r="AI39" s="56"/>
@@ -5212,13 +5230,18 @@
       <c r="AB40" s="49"/>
       <c r="AC40" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="AD40" s="50">
+        <v>80</v>
+      </c>
       <c r="AE40" s="50"/>
       <c r="AG40" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="AH40">
+        <v>60</v>
       </c>
       <c r="AI40" s="56"/>
       <c r="AJ40" s="56"/>
@@ -5234,7 +5257,7 @@
       <c r="AT40" s="56"/>
       <c r="AU40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV40" s="56"/>
       <c r="AW40" s="56"/>
@@ -5244,10 +5267,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA40" s="56"/>
+      <c r="BA40" s="56">
+        <v>2</v>
+      </c>
       <c r="BB40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="5:56" x14ac:dyDescent="0.25">
@@ -5283,13 +5311,18 @@
       <c r="AB41" s="49"/>
       <c r="AC41" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="50"/>
+        <v>-86</v>
+      </c>
+      <c r="AD41" s="50">
+        <v>80</v>
+      </c>
       <c r="AE41" s="111"/>
       <c r="AG41" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="AH41">
+        <v>150</v>
       </c>
       <c r="AI41" s="56"/>
       <c r="AJ41" s="56"/>
@@ -5305,7 +5338,7 @@
       <c r="AT41" s="56"/>
       <c r="AU41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV41" s="56"/>
       <c r="AW41" s="56"/>
@@ -5315,10 +5348,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA41" s="56"/>
+      <c r="BA41" s="56">
+        <v>2</v>
+      </c>
       <c r="BB41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC41">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="5:56" x14ac:dyDescent="0.25">
@@ -5354,13 +5392,18 @@
       <c r="AB42" s="49"/>
       <c r="AC42" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="50"/>
+        <v>-32</v>
+      </c>
+      <c r="AD42" s="50">
+        <v>80</v>
+      </c>
       <c r="AE42" s="50"/>
       <c r="AG42" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="AH42">
+        <v>70</v>
       </c>
       <c r="AI42" s="56"/>
       <c r="AJ42" s="56"/>
@@ -5376,7 +5419,7 @@
       <c r="AT42" s="56"/>
       <c r="AU42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AV42" s="56"/>
       <c r="AW42" s="56"/>
@@ -5386,10 +5429,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA42" s="56"/>
+      <c r="BA42" s="56">
+        <v>6</v>
+      </c>
       <c r="BB42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="BC42">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="5:56" x14ac:dyDescent="0.25">
@@ -5425,9 +5473,11 @@
       <c r="AB43" s="49"/>
       <c r="AC43" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="AD43" s="50">
+        <v>80</v>
+      </c>
       <c r="AE43" s="50"/>
       <c r="AG43" s="51">
         <f t="shared" si="0"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="206">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -621,6 +621,27 @@
   </si>
   <si>
     <t>Teatro Enana - Emma</t>
+  </si>
+  <si>
+    <t>Tramites Titulación</t>
+  </si>
+  <si>
+    <t>Mamá itunes</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>Nachos y chela</t>
+  </si>
+  <si>
+    <t>Uber Jaime</t>
+  </si>
+  <si>
+    <t>Sushiito</t>
+  </si>
+  <si>
+    <t>Cedula; Título; Fotos; Café internet</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U22" workbookViewId="0">
-      <selection activeCell="AI41" sqref="AI41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1584,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="114">
         <f>N3-D2</f>
-        <v>7213</v>
+        <v>4413</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1690,7 +1711,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>8111</v>
+        <v>5311</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1766,7 +1787,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>43482</v>
+        <v>40390</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1945,7 +1966,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1031</v>
+        <v>739</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2033,7 +2054,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1031</v>
+        <v>739</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3095,9 +3116,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="99"/>
-      <c r="H17" s="56"/>
+      <c r="H17" s="56" t="s">
+        <v>200</v>
+      </c>
       <c r="I17" s="104"/>
-      <c r="J17" s="102"/>
+      <c r="J17" s="102">
+        <v>300</v>
+      </c>
       <c r="K17" s="103"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18" t="s">
@@ -3183,9 +3208,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="101"/>
+      <c r="G18" s="99">
+        <v>43150</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="101">
+        <v>2500</v>
+      </c>
       <c r="J18" s="102"/>
       <c r="K18" s="103"/>
       <c r="M18" s="18"/>
@@ -5324,7 +5355,9 @@
       <c r="AH41">
         <v>150</v>
       </c>
-      <c r="AI41" s="56"/>
+      <c r="AI41" s="56" t="s">
+        <v>204</v>
+      </c>
       <c r="AJ41" s="56"/>
       <c r="AK41" s="56"/>
       <c r="AL41" s="56"/>
@@ -5405,7 +5438,9 @@
       <c r="AH42">
         <v>70</v>
       </c>
-      <c r="AI42" s="56"/>
+      <c r="AI42" s="56" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ42" s="56"/>
       <c r="AK42" s="56"/>
       <c r="AL42" s="56"/>
@@ -5473,7 +5508,7 @@
       <c r="AB43" s="49"/>
       <c r="AC43" s="41">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AD43" s="50">
         <v>80</v>
@@ -5481,11 +5516,20 @@
       <c r="AE43" s="50"/>
       <c r="AG43" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="AH43">
+        <v>40</v>
+      </c>
+      <c r="AI43" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ43" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK43" s="56">
+        <v>20</v>
+      </c>
       <c r="AL43" s="56"/>
       <c r="AM43" s="56"/>
       <c r="AN43" s="56"/>
@@ -5497,7 +5541,7 @@
       <c r="AT43" s="56"/>
       <c r="AU43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV43" s="102"/>
       <c r="AW43" s="56"/>
@@ -5511,6 +5555,9 @@
       <c r="BB43">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="5:56" x14ac:dyDescent="0.25">
@@ -5546,17 +5593,28 @@
       <c r="AB44" s="72"/>
       <c r="AC44" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="50"/>
+        <v>-105</v>
+      </c>
+      <c r="AD44" s="50">
+        <v>100</v>
+      </c>
       <c r="AE44" s="50"/>
       <c r="AG44" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="100"/>
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="56"/>
+        <v>205</v>
+      </c>
+      <c r="AH44">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ44" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK44" s="56">
+        <v>100</v>
+      </c>
       <c r="AL44" s="56"/>
       <c r="AM44" s="56"/>
       <c r="AN44" s="56"/>
@@ -5568,7 +5626,7 @@
       <c r="AT44" s="56"/>
       <c r="AU44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV44" s="102"/>
       <c r="AW44" s="102"/>
@@ -5578,10 +5636,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA44" s="56"/>
+      <c r="BA44" s="56">
+        <v>1</v>
+      </c>
       <c r="BB44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="5:56" x14ac:dyDescent="0.25">
@@ -5689,20 +5749,37 @@
       <c r="AB46" s="49"/>
       <c r="AC46" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="50"/>
+        <v>-2621</v>
+      </c>
+      <c r="AD46" s="50">
+        <v>120</v>
+      </c>
       <c r="AE46" s="50"/>
       <c r="AG46" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="100"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
+        <v>2741</v>
+      </c>
+      <c r="AH46">
+        <v>70</v>
+      </c>
+      <c r="AI46" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ46" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK46" s="56">
+        <v>1261</v>
+      </c>
+      <c r="AL46" s="56">
+        <v>1000</v>
+      </c>
+      <c r="AM46" s="56">
+        <v>385</v>
+      </c>
+      <c r="AN46" s="56">
+        <v>15</v>
+      </c>
       <c r="AO46" s="56"/>
       <c r="AP46" s="56"/>
       <c r="AQ46" s="56"/>
@@ -5711,7 +5788,7 @@
       <c r="AT46" s="56"/>
       <c r="AU46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV46" s="56"/>
       <c r="AW46" s="56"/>
@@ -5721,10 +5798,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA46" s="56"/>
+      <c r="BA46" s="56">
+        <v>2</v>
+      </c>
       <c r="BB46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="5:56" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="217">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -642,6 +642,39 @@
   </si>
   <si>
     <t>Cedula; Título; Fotos; Café internet</t>
+  </si>
+  <si>
+    <t>Sushi con Jaime</t>
+  </si>
+  <si>
+    <t>JL revisión final</t>
+  </si>
+  <si>
+    <t>Murió mi abue :C</t>
+  </si>
+  <si>
+    <t>Temblor Lupita</t>
+  </si>
+  <si>
+    <t>Your Name Jaime</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Correcciones Tesis</t>
+  </si>
+  <si>
+    <t>Fotos y papeles</t>
+  </si>
+  <si>
+    <t>Fecha de examen</t>
+  </si>
+  <si>
+    <t>Niño Helados y cotizacion tesis</t>
+  </si>
+  <si>
+    <t>Helados</t>
   </si>
 </sst>
 </file>
@@ -1507,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1820,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40390</v>
+        <v>40464</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1860,7 +1893,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1966,7 +1999,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>739</v>
+        <v>813</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2054,7 +2087,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>739</v>
+        <v>813</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3912,10 +3945,16 @@
         <f>P25-Q25</f>
         <v>200</v>
       </c>
-      <c r="T25" s="36"/>
-      <c r="U25" s="35"/>
+      <c r="T25" s="36">
+        <v>43150</v>
+      </c>
+      <c r="U25" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V25" s="35"/>
-      <c r="W25" s="37"/>
+      <c r="W25" s="37">
+        <v>200</v>
+      </c>
       <c r="X25" s="37"/>
       <c r="Z25" s="47">
         <v>43129</v>
@@ -5182,7 +5221,9 @@
       <c r="AA39" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB39" s="49"/>
+      <c r="AB39" s="49" t="s">
+        <v>208</v>
+      </c>
       <c r="AC39" s="41">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -5258,7 +5299,9 @@
       <c r="AA40" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB40" s="49"/>
+      <c r="AB40" s="49" t="s">
+        <v>207</v>
+      </c>
       <c r="AC40" s="41">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -5339,7 +5382,9 @@
       <c r="AA41" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="49"/>
+      <c r="AB41" s="49" t="s">
+        <v>206</v>
+      </c>
       <c r="AC41" s="41">
         <f t="shared" si="3"/>
         <v>-86</v>
@@ -5422,7 +5467,9 @@
       <c r="AA42" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB42" s="49"/>
+      <c r="AB42" s="49" t="s">
+        <v>212</v>
+      </c>
       <c r="AC42" s="41">
         <f t="shared" si="3"/>
         <v>-32</v>
@@ -5505,7 +5552,9 @@
       <c r="AA43" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB43" s="49"/>
+      <c r="AB43" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="AC43" s="41">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -5590,7 +5639,9 @@
       <c r="AA44" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB44" s="72"/>
+      <c r="AB44" s="72" t="s">
+        <v>210</v>
+      </c>
       <c r="AC44" s="41">
         <f t="shared" si="3"/>
         <v>-105</v>
@@ -5674,7 +5725,9 @@
       <c r="AA45" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB45" s="49"/>
+      <c r="AB45" s="49" t="s">
+        <v>211</v>
+      </c>
       <c r="AC45" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5746,7 +5799,9 @@
       <c r="AA46" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB46" s="49"/>
+      <c r="AB46" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="AC46" s="41">
         <f t="shared" si="3"/>
         <v>-2621</v>
@@ -5836,18 +5891,27 @@
       <c r="AA47" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="49"/>
+      <c r="AB47" s="49" t="s">
+        <v>214</v>
+      </c>
       <c r="AC47" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="50"/>
+        <v>-56</v>
+      </c>
+      <c r="AD47" s="50">
+        <v>80</v>
+      </c>
       <c r="AE47" s="50"/>
       <c r="AG47" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="56"/>
+        <v>136</v>
+      </c>
+      <c r="AH47">
+        <v>70</v>
+      </c>
+      <c r="AI47" s="100" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ47" s="56"/>
       <c r="AK47" s="56"/>
       <c r="AL47" s="56"/>
@@ -5861,9 +5925,11 @@
       <c r="AT47" s="56"/>
       <c r="AU47">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV47" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="AV47" s="56">
+        <v>50</v>
+      </c>
       <c r="AW47" s="56"/>
       <c r="AX47" s="56"/>
       <c r="AY47" s="56"/>
@@ -5871,10 +5937,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA47" s="56"/>
+      <c r="BA47" s="56">
+        <v>2</v>
+      </c>
       <c r="BB47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC47">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="5:56" x14ac:dyDescent="0.25">
@@ -5907,20 +5978,33 @@
       <c r="AA48" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB48" s="49"/>
+      <c r="AB48" s="49" t="s">
+        <v>215</v>
+      </c>
       <c r="AC48" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="50"/>
+        <v>-70</v>
+      </c>
+      <c r="AD48" s="50">
+        <v>80</v>
+      </c>
       <c r="AE48" s="50"/>
       <c r="AG48" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
+        <v>150</v>
+      </c>
+      <c r="AH48">
+        <v>70</v>
+      </c>
+      <c r="AI48" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ48" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK48" s="56">
+        <v>64</v>
+      </c>
       <c r="AL48" s="56"/>
       <c r="AM48" s="56"/>
       <c r="AN48" s="56"/>
@@ -5932,7 +6016,7 @@
       <c r="AT48" s="56"/>
       <c r="AU48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV48" s="56"/>
       <c r="AW48" s="56"/>
@@ -5942,10 +6026,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA48" s="56"/>
+      <c r="BA48" s="56">
+        <v>2</v>
+      </c>
       <c r="BB48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC48">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="5:54" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="227">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -675,6 +675,36 @@
   </si>
   <si>
     <t>Helados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime </t>
+  </si>
+  <si>
+    <t>Pagar su banco</t>
+  </si>
+  <si>
+    <t>Dentista; Wingstop Lupita</t>
+  </si>
+  <si>
+    <t>Lupita y Armando Invitaciones</t>
+  </si>
+  <si>
+    <t>Corrigiendo pagina PAPIME</t>
+  </si>
+  <si>
+    <t>Hamburguesas</t>
+  </si>
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
+    <t>Misa abuelita</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Crepas</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1850,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40464</v>
+        <v>41177</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1893,7 +1923,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -1999,7 +2029,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>813</v>
+        <v>2126</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2087,7 +2117,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>813</v>
+        <v>2126</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2255,7 +2285,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>34340</v>
+        <v>33740</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -4048,10 +4078,18 @@
         <f>P26-Q26</f>
         <v>700</v>
       </c>
-      <c r="T26" s="36"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="37"/>
+      <c r="T26" s="36">
+        <v>43156</v>
+      </c>
+      <c r="U26" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="W26" s="37">
+        <v>600</v>
+      </c>
       <c r="X26" s="37"/>
       <c r="Z26" s="47">
         <v>43130</v>
@@ -4139,10 +4177,16 @@
         <f t="shared" ref="R27:R64" si="8">P27-Q27</f>
         <v>3200</v>
       </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="35"/>
+      <c r="T27" s="36">
+        <v>43157</v>
+      </c>
+      <c r="U27" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V27" s="35"/>
-      <c r="W27" s="37"/>
+      <c r="W27" s="37">
+        <v>150</v>
+      </c>
       <c r="X27" s="37"/>
       <c r="Z27" s="47">
         <v>43131</v>
@@ -4232,10 +4276,18 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="37"/>
+      <c r="T28" s="36">
+        <v>43151</v>
+      </c>
+      <c r="U28" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="V28" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="W28" s="37">
+        <v>1300</v>
+      </c>
       <c r="X28" s="37"/>
       <c r="Z28" s="47">
         <v>43132</v>
@@ -4415,11 +4467,11 @@
         <v>2900</v>
       </c>
       <c r="Q30" s="22">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="R30" s="20">
         <f t="shared" si="8"/>
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="T30" s="36"/>
       <c r="U30" s="35"/>
@@ -5804,7 +5856,7 @@
       </c>
       <c r="AC46" s="41">
         <f t="shared" si="3"/>
-        <v>-2621</v>
+        <v>-2677</v>
       </c>
       <c r="AD46" s="50">
         <v>120</v>
@@ -5812,7 +5864,7 @@
       <c r="AE46" s="50"/>
       <c r="AG46" s="51">
         <f t="shared" si="0"/>
-        <v>2741</v>
+        <v>2797</v>
       </c>
       <c r="AH46">
         <v>70</v>
@@ -5843,15 +5895,19 @@
       <c r="AT46" s="56"/>
       <c r="AU46">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AV46" s="56"/>
-      <c r="AW46" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="AV46" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW46" s="56">
+        <v>2</v>
+      </c>
       <c r="AX46" s="56"/>
       <c r="AY46" s="56"/>
       <c r="AZ46" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA46" s="56">
         <v>2</v>
@@ -5859,6 +5915,9 @@
       <c r="BB46">
         <f t="shared" si="4"/>
         <v>10</v>
+      </c>
+      <c r="BC46">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="5:56" x14ac:dyDescent="0.25">
@@ -5896,7 +5955,7 @@
       </c>
       <c r="AC47" s="41">
         <f t="shared" si="3"/>
-        <v>-56</v>
+        <v>-6</v>
       </c>
       <c r="AD47" s="50">
         <v>80</v>
@@ -5904,7 +5963,7 @@
       <c r="AE47" s="50"/>
       <c r="AG47" s="51">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="AH47">
         <v>70</v>
@@ -5925,11 +5984,9 @@
       <c r="AT47" s="56"/>
       <c r="AU47">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="AV47" s="56">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AV47" s="56"/>
       <c r="AW47" s="56"/>
       <c r="AX47" s="56"/>
       <c r="AY47" s="56"/>
@@ -6037,7 +6094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E49">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6067,18 +6124,27 @@
       <c r="AA49" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB49" s="49"/>
+      <c r="AB49" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="AC49" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="50"/>
+        <v>-6</v>
+      </c>
+      <c r="AD49" s="50">
+        <v>80</v>
+      </c>
       <c r="AE49" s="50"/>
       <c r="AG49" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="56"/>
+        <v>86</v>
+      </c>
+      <c r="AH49">
+        <v>70</v>
+      </c>
+      <c r="AI49" s="56" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ49" s="56"/>
       <c r="AK49" s="56"/>
       <c r="AL49" s="56"/>
@@ -6092,23 +6158,30 @@
       <c r="AT49" s="56"/>
       <c r="AU49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV49" s="56"/>
-      <c r="AW49" s="56"/>
+      <c r="AW49" s="56">
+        <v>2</v>
+      </c>
       <c r="AX49" s="56"/>
       <c r="AY49" s="56"/>
       <c r="AZ49" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA49" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="BA49" s="56">
+        <v>2</v>
+      </c>
       <c r="BB49">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:54" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E50">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6138,21 +6211,36 @@
       <c r="AA50" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB50" s="49"/>
+      <c r="AB50" s="49" t="s">
+        <v>220</v>
+      </c>
       <c r="AC50" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="50"/>
+        <v>-715</v>
+      </c>
+      <c r="AD50" s="50">
+        <v>80</v>
+      </c>
       <c r="AE50" s="50"/>
       <c r="AG50" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="56"/>
+        <v>795</v>
+      </c>
+      <c r="AH50">
+        <v>80</v>
+      </c>
+      <c r="AI50" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ50" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK50" s="56">
+        <v>600</v>
+      </c>
+      <c r="AL50" s="56">
+        <v>100</v>
+      </c>
       <c r="AM50" s="56"/>
       <c r="AN50" s="56"/>
       <c r="AO50" s="56"/>
@@ -6163,23 +6251,27 @@
       <c r="AT50" s="56"/>
       <c r="AU50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV50" s="56"/>
-      <c r="AW50" s="56"/>
+      <c r="AW50" s="56">
+        <v>2</v>
+      </c>
       <c r="AX50" s="56"/>
       <c r="AY50" s="56"/>
       <c r="AZ50" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA50" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="BA50" s="56">
+        <v>3</v>
+      </c>
       <c r="BB50">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:54" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E51">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6207,20 +6299,33 @@
       <c r="AA51" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB51" s="49"/>
+      <c r="AB51" s="49" t="s">
+        <v>223</v>
+      </c>
       <c r="AC51" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="AD51" s="50">
+        <v>250</v>
+      </c>
       <c r="AE51" s="50"/>
       <c r="AG51" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
+        <v>210</v>
+      </c>
+      <c r="AH51">
+        <v>150</v>
+      </c>
+      <c r="AI51" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ51" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK51" s="56">
+        <v>40</v>
+      </c>
       <c r="AL51" s="56"/>
       <c r="AM51" s="56"/>
       <c r="AN51" s="56"/>
@@ -6232,7 +6337,7 @@
       <c r="AT51" s="56"/>
       <c r="AU51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV51" s="56"/>
       <c r="AW51" s="56"/>
@@ -6242,13 +6347,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA51" s="56"/>
+      <c r="BA51" s="56">
+        <v>4</v>
+      </c>
       <c r="BB51">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:54" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E52">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6276,7 +6383,9 @@
       <c r="AA52" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB52" s="49"/>
+      <c r="AB52" s="49" t="s">
+        <v>224</v>
+      </c>
       <c r="AC52" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6317,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E53">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6348,13 +6457,13 @@
       <c r="AB53" s="49"/>
       <c r="AC53" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AD53" s="50"/>
       <c r="AE53" s="50"/>
       <c r="AG53" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI53" s="56"/>
       <c r="AJ53" s="56"/>
@@ -6370,15 +6479,19 @@
       <c r="AT53" s="56"/>
       <c r="AU53">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="AV53" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW53" s="56">
+        <v>2</v>
+      </c>
       <c r="AX53" s="56"/>
       <c r="AY53" s="56"/>
       <c r="AZ53" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA53" s="56"/>
       <c r="BB53">
@@ -6386,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E54">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6455,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E55">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6524,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6593,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E57">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6663,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E58">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6732,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E59">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6801,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E60">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6870,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E61">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6939,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E62">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7008,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E63">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7077,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E64">
         <f t="shared" si="6"/>
         <v>0</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="231">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -705,6 +705,18 @@
   </si>
   <si>
     <t>Crepas</t>
+  </si>
+  <si>
+    <t>Descanso Fiebre</t>
+  </si>
+  <si>
+    <t>Valoración Nariz</t>
+  </si>
+  <si>
+    <t>No comí</t>
+  </si>
+  <si>
+    <t>Comí casa</t>
   </si>
 </sst>
 </file>
@@ -1570,9 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1850,7 +1860,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41177</v>
+        <v>41364</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1923,7 +1933,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2029,7 +2039,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2126</v>
+        <v>2313</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2117,7 +2127,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2126</v>
+        <v>2313</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -6396,7 +6406,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI52" s="56"/>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="56" t="s">
+        <v>99</v>
+      </c>
       <c r="AJ52" s="56"/>
       <c r="AK52" s="56"/>
       <c r="AL52" s="56"/>
@@ -6454,20 +6469,33 @@
       <c r="AA53" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB53" s="49"/>
+      <c r="AB53" s="49" t="s">
+        <v>227</v>
+      </c>
       <c r="AC53" s="41">
         <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-      <c r="AD53" s="50"/>
+        <v>57</v>
+      </c>
+      <c r="AD53" s="50">
+        <v>120</v>
+      </c>
       <c r="AE53" s="50"/>
       <c r="AG53" s="51">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
+        <v>63</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ53" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK53" s="56">
+        <v>13</v>
+      </c>
       <c r="AL53" s="56"/>
       <c r="AM53" s="102"/>
       <c r="AN53" s="56"/>
@@ -6527,18 +6555,27 @@
       <c r="AA54" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB54" s="49"/>
+      <c r="AB54" s="49" t="s">
+        <v>228</v>
+      </c>
       <c r="AC54" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="AD54" s="50">
+        <v>80</v>
+      </c>
       <c r="AE54" s="85"/>
       <c r="AG54" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="56"/>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="56" t="s">
+        <v>229</v>
+      </c>
       <c r="AJ54" s="56"/>
       <c r="AK54" s="56"/>
       <c r="AL54" s="56"/>
@@ -6555,12 +6592,16 @@
         <v>0</v>
       </c>
       <c r="AV54" s="56"/>
-      <c r="AW54" s="56"/>
+      <c r="AW54" s="56">
+        <v>2</v>
+      </c>
       <c r="AX54" s="56"/>
-      <c r="AY54" s="56"/>
+      <c r="AY54" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ54" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BA54" s="56"/>
       <c r="BB54">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="233">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>Comí casa</t>
+  </si>
+  <si>
+    <t>Otra vez no cine con Angel</t>
+  </si>
+  <si>
+    <t>Coca</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T34" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1860,7 +1868,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41364</v>
+        <v>41341</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1933,7 +1941,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2039,7 +2047,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2313</v>
+        <v>2290</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2127,7 +2135,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2313</v>
+        <v>2290</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -6560,7 +6568,7 @@
       </c>
       <c r="AC54" s="41">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AD54" s="50">
         <v>80</v>
@@ -6568,7 +6576,7 @@
       <c r="AE54" s="85"/>
       <c r="AG54" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -6576,8 +6584,12 @@
       <c r="AI54" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
+      <c r="AJ54" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK54" s="56">
+        <v>14</v>
+      </c>
       <c r="AL54" s="56"/>
       <c r="AM54" s="56"/>
       <c r="AN54" s="56"/>
@@ -6597,11 +6609,11 @@
       </c>
       <c r="AX54" s="56"/>
       <c r="AY54" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ54" s="56">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA54" s="56"/>
       <c r="BB54">
@@ -6637,20 +6649,33 @@
       <c r="AA55" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB55" s="49"/>
+      <c r="AB55" s="49" t="s">
+        <v>231</v>
+      </c>
       <c r="AC55" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="50"/>
+        <v>-9</v>
+      </c>
+      <c r="AD55" s="50">
+        <v>100</v>
+      </c>
       <c r="AE55" s="50"/>
       <c r="AG55" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
+        <v>109</v>
+      </c>
+      <c r="AH55">
+        <v>75</v>
+      </c>
+      <c r="AI55" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ55" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK55" s="56">
+        <v>18</v>
+      </c>
       <c r="AL55" s="56"/>
       <c r="AM55" s="56"/>
       <c r="AN55" s="56"/>
@@ -6662,7 +6687,7 @@
       <c r="AT55" s="56"/>
       <c r="AU55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV55" s="56"/>
       <c r="AW55" s="56"/>
@@ -6672,10 +6697,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA55" s="56"/>
+      <c r="BA55" s="56">
+        <v>2</v>
+      </c>
       <c r="BB55">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC55">
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="5:55" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="240">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -723,6 +723,27 @@
   </si>
   <si>
     <t>Coca</t>
+  </si>
+  <si>
+    <t>Impresión Tesis</t>
+  </si>
+  <si>
+    <t>Plantón Agua</t>
+  </si>
+  <si>
+    <t>Clunys</t>
+  </si>
+  <si>
+    <t>Prueba Vestidos</t>
+  </si>
+  <si>
+    <t>Martin Toks</t>
+  </si>
+  <si>
+    <t>Toks</t>
+  </si>
+  <si>
+    <t>Chocolate y Cerveza</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T34" workbookViewId="0">
-      <selection activeCell="AB55" sqref="AB55"/>
+    <sheetView tabSelected="1" topLeftCell="Z45" workbookViewId="0">
+      <selection activeCell="AJ56" sqref="AJ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1889,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41341</v>
+        <v>41751</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -1941,7 +1962,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2047,7 +2068,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2290</v>
+        <v>2700</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2135,7 +2156,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2290</v>
+        <v>2700</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -4203,7 +4224,7 @@
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="37">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="X27" s="37"/>
       <c r="Z27" s="47">
@@ -4397,10 +4418,18 @@
         <f t="shared" si="8"/>
         <v>1040</v>
       </c>
-      <c r="T29" s="36"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="37"/>
+      <c r="T29" s="36">
+        <v>43160</v>
+      </c>
+      <c r="U29" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="V29" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="W29" s="37">
+        <v>3000</v>
+      </c>
       <c r="X29" s="37"/>
       <c r="Z29" s="47">
         <v>43133</v>
@@ -6736,20 +6765,31 @@
       <c r="AA56" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB56" s="49"/>
+      <c r="AB56" s="49" t="s">
+        <v>234</v>
+      </c>
       <c r="AC56" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD56" s="50"/>
+        <v>-1447</v>
+      </c>
+      <c r="AD56" s="50">
+        <v>80</v>
+      </c>
       <c r="AE56" s="50"/>
       <c r="AG56" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI56" s="56"/>
+        <v>1527</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="56" t="s">
+        <v>201</v>
+      </c>
       <c r="AJ56" s="56"/>
-      <c r="AK56" s="56"/>
+      <c r="AK56" s="102">
+        <v>1500</v>
+      </c>
       <c r="AL56" s="56"/>
       <c r="AM56" s="56"/>
       <c r="AN56" s="56"/>
@@ -6761,20 +6801,29 @@
       <c r="AT56" s="56"/>
       <c r="AU56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV56" s="56"/>
-      <c r="AW56" s="56"/>
+        <v>27</v>
+      </c>
+      <c r="AV56" s="56">
+        <v>20</v>
+      </c>
+      <c r="AW56" s="56">
+        <v>1</v>
+      </c>
       <c r="AX56" s="56"/>
-      <c r="AY56" s="56"/>
+      <c r="AY56" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ56" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BA56" s="56"/>
       <c r="BB56">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="5:55" x14ac:dyDescent="0.25">
@@ -6805,21 +6854,31 @@
       <c r="AA57" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB57" s="49"/>
+      <c r="AB57" s="49" t="s">
+        <v>235</v>
+      </c>
       <c r="AC57" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD57" s="50"/>
+        <v>-1170</v>
+      </c>
+      <c r="AD57" s="50">
+        <v>80</v>
+      </c>
       <c r="AE57" s="50"/>
       <c r="AG57" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH57" s="86"/>
-      <c r="AI57" s="56"/>
+        <v>1250</v>
+      </c>
+      <c r="AH57" s="86">
+        <v>150</v>
+      </c>
+      <c r="AI57" s="56" t="s">
+        <v>235</v>
+      </c>
       <c r="AJ57" s="56"/>
-      <c r="AK57" s="56"/>
+      <c r="AK57" s="102">
+        <v>1100</v>
+      </c>
       <c r="AL57" s="56"/>
       <c r="AM57" s="56"/>
       <c r="AN57" s="56"/>
@@ -6836,10 +6895,12 @@
       <c r="AV57" s="56"/>
       <c r="AW57" s="56"/>
       <c r="AX57" s="56"/>
-      <c r="AY57" s="56"/>
+      <c r="AY57" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ57" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA57" s="56"/>
       <c r="BB57">
@@ -6875,20 +6936,33 @@
       <c r="AA58" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB58" s="49"/>
+      <c r="AB58" s="49" t="s">
+        <v>236</v>
+      </c>
       <c r="AC58" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="AD58" s="50">
+        <v>100</v>
+      </c>
       <c r="AE58" s="50"/>
       <c r="AG58" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI58" s="56"/>
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="AH58">
+        <v>50</v>
+      </c>
+      <c r="AI58" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ58" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK58" s="56">
+        <v>6</v>
+      </c>
       <c r="AL58" s="56"/>
       <c r="AM58" s="56"/>
       <c r="AN58" s="56"/>
@@ -6900,7 +6974,7 @@
       <c r="AT58" s="56"/>
       <c r="AU58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV58" s="56"/>
       <c r="AW58" s="56"/>
@@ -6910,10 +6984,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA58" s="56"/>
+      <c r="BA58" s="56">
+        <v>2</v>
+      </c>
       <c r="BB58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="5:55" x14ac:dyDescent="0.25">
@@ -6944,18 +7020,27 @@
       <c r="AA59" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB59" s="49"/>
+      <c r="AB59" s="49" t="s">
+        <v>237</v>
+      </c>
       <c r="AC59" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="50"/>
+        <v>-107</v>
+      </c>
+      <c r="AD59" s="50">
+        <v>100</v>
+      </c>
       <c r="AE59" s="50"/>
       <c r="AG59" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI59" s="56"/>
+        <v>207</v>
+      </c>
+      <c r="AH59">
+        <v>207</v>
+      </c>
+      <c r="AI59" s="56" t="s">
+        <v>238</v>
+      </c>
       <c r="AJ59" s="56"/>
       <c r="AK59" s="56"/>
       <c r="AL59" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="253">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -744,6 +744,45 @@
   </si>
   <si>
     <t>Chocolate y Cerveza</t>
+  </si>
+  <si>
+    <t>Jaime me dio 250</t>
+  </si>
+  <si>
+    <t>Casa de Toño</t>
+  </si>
+  <si>
+    <t>Jaime me dio para alcohol</t>
+  </si>
+  <si>
+    <t>Taquitos</t>
+  </si>
+  <si>
+    <t>Michael Day 1</t>
+  </si>
+  <si>
+    <t>Michael Day 2</t>
+  </si>
+  <si>
+    <t>CUMPLE :D</t>
+  </si>
+  <si>
+    <t>Michael Day 4</t>
+  </si>
+  <si>
+    <t>Enana Minecraft</t>
+  </si>
+  <si>
+    <t>Enana</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Juego Da Vinci</t>
+  </si>
+  <si>
+    <t>Azucar</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z45" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56"/>
+    <sheetView tabSelected="1" topLeftCell="V34" workbookViewId="0">
+      <selection activeCell="AO57" sqref="AO57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1725,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="114">
         <f>N3-D2</f>
-        <v>4413</v>
+        <v>4083</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1813,7 +1852,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>5311</v>
+        <v>4981</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1889,7 +1928,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41751</v>
+        <v>41588</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2068,7 +2107,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2700</v>
+        <v>2637</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2156,7 +2195,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2700</v>
+        <v>2637</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2324,7 +2363,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33740</v>
+        <v>33970</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -3420,9 +3459,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="99"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="56" t="s">
+        <v>248</v>
+      </c>
       <c r="I19" s="101"/>
-      <c r="J19" s="102"/>
+      <c r="J19" s="102">
+        <v>130</v>
+      </c>
       <c r="K19" s="103"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18" t="s">
@@ -3506,9 +3549,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="99"/>
-      <c r="H20" s="56"/>
+      <c r="H20" s="56" t="s">
+        <v>123</v>
+      </c>
       <c r="I20" s="101"/>
-      <c r="J20" s="102"/>
+      <c r="J20" s="102">
+        <v>200</v>
+      </c>
       <c r="K20" s="103"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18" t="s">
@@ -4967,13 +5014,19 @@
       <c r="J35" s="102"/>
       <c r="K35" s="103"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="23"/>
+      <c r="N35" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="23">
+        <v>130</v>
+      </c>
       <c r="Q35" s="22"/>
       <c r="R35" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T35" s="36"/>
       <c r="U35" s="35"/>
@@ -5052,13 +5105,19 @@
       <c r="J36" s="102"/>
       <c r="K36" s="103"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="23"/>
+      <c r="N36" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="23">
+        <v>100</v>
+      </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T36" s="36"/>
       <c r="U36" s="35"/>
@@ -6770,7 +6829,7 @@
       </c>
       <c r="AC56" s="41">
         <f t="shared" si="3"/>
-        <v>-1447</v>
+        <v>-1475</v>
       </c>
       <c r="AD56" s="50">
         <v>80</v>
@@ -6778,7 +6837,7 @@
       <c r="AE56" s="50"/>
       <c r="AG56" s="51">
         <f t="shared" si="0"/>
-        <v>1527</v>
+        <v>1555</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -6786,11 +6845,15 @@
       <c r="AI56" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="AJ56" s="56"/>
+      <c r="AJ56" s="56" t="s">
+        <v>154</v>
+      </c>
       <c r="AK56" s="102">
         <v>1500</v>
       </c>
-      <c r="AL56" s="56"/>
+      <c r="AL56" s="56">
+        <v>28</v>
+      </c>
       <c r="AM56" s="56"/>
       <c r="AN56" s="56"/>
       <c r="AO56" s="56"/>
@@ -7098,18 +7161,32 @@
       <c r="AA60" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB60" s="49"/>
+      <c r="AB60" s="49" t="s">
+        <v>244</v>
+      </c>
       <c r="AC60" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD60" s="50"/>
-      <c r="AE60" s="50"/>
+        <v>289</v>
+      </c>
+      <c r="AD60" s="50">
+        <v>120</v>
+      </c>
+      <c r="AE60" s="50">
+        <v>250</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>240</v>
+      </c>
       <c r="AG60" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI60" s="56"/>
+        <v>81</v>
+      </c>
+      <c r="AH60">
+        <v>70</v>
+      </c>
+      <c r="AI60" s="56" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ60" s="56"/>
       <c r="AK60" s="56"/>
       <c r="AL60" s="56"/>
@@ -7123,7 +7200,7 @@
       <c r="AT60" s="56"/>
       <c r="AU60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV60" s="56"/>
       <c r="AW60" s="56"/>
@@ -7133,10 +7210,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA60" s="56"/>
+      <c r="BA60" s="56">
+        <v>0</v>
+      </c>
       <c r="BB60">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="5:55" x14ac:dyDescent="0.25">
@@ -7167,21 +7249,39 @@
       <c r="AA61" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB61" s="49"/>
+      <c r="AB61" s="49" t="s">
+        <v>245</v>
+      </c>
       <c r="AC61" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD61" s="50"/>
-      <c r="AE61" s="50"/>
+        <v>-430</v>
+      </c>
+      <c r="AD61" s="50">
+        <v>80</v>
+      </c>
+      <c r="AE61" s="50">
+        <v>100</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>242</v>
+      </c>
       <c r="AG61" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI61" s="56"/>
+        <v>610</v>
+      </c>
+      <c r="AH61">
+        <v>146</v>
+      </c>
+      <c r="AI61" s="56" t="s">
+        <v>241</v>
+      </c>
       <c r="AJ61" s="56"/>
-      <c r="AK61" s="56"/>
-      <c r="AL61" s="56"/>
+      <c r="AK61" s="56">
+        <v>28</v>
+      </c>
+      <c r="AL61" s="56">
+        <v>420</v>
+      </c>
       <c r="AM61" s="56"/>
       <c r="AN61" s="56"/>
       <c r="AO61" s="56"/>
@@ -7192,7 +7292,7 @@
       <c r="AT61" s="56"/>
       <c r="AU61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV61" s="56"/>
       <c r="AW61" s="56"/>
@@ -7202,10 +7302,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA61" s="56"/>
+      <c r="BA61" s="56">
+        <v>2</v>
+      </c>
       <c r="BB61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC61">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="5:55" x14ac:dyDescent="0.25">
@@ -7236,21 +7341,34 @@
       <c r="AA62" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB62" s="49"/>
+      <c r="AB62" s="49" t="s">
+        <v>246</v>
+      </c>
       <c r="AC62" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD62" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="AD62" s="50">
+        <v>80</v>
+      </c>
       <c r="AE62" s="50"/>
       <c r="AG62" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI62" s="56"/>
-      <c r="AJ62" s="56"/>
-      <c r="AK62" s="56"/>
-      <c r="AL62" s="102"/>
+        <v>54</v>
+      </c>
+      <c r="AH62">
+        <v>20</v>
+      </c>
+      <c r="AI62" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ62" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK62" s="56">
+        <v>23</v>
+      </c>
+      <c r="AL62" s="95"/>
       <c r="AM62" s="56"/>
       <c r="AN62" s="56"/>
       <c r="AO62" s="56"/>
@@ -7261,7 +7379,7 @@
       <c r="AT62" s="56"/>
       <c r="AU62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV62" s="56"/>
       <c r="AW62" s="56"/>
@@ -7271,10 +7389,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA62" s="56"/>
+      <c r="BA62" s="56">
+        <v>1</v>
+      </c>
       <c r="BB62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="5:55" x14ac:dyDescent="0.25">
@@ -7305,12 +7428,16 @@
       <c r="AA63" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB63" s="49"/>
+      <c r="AB63" s="49" t="s">
+        <v>247</v>
+      </c>
       <c r="AC63" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD63" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="AD63" s="50">
+        <v>80</v>
+      </c>
       <c r="AE63" s="50"/>
       <c r="AG63" s="51">
         <f t="shared" si="0"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="255">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -783,6 +783,12 @@
   </si>
   <si>
     <t>Azucar</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Doña Lulá</t>
   </si>
 </sst>
 </file>
@@ -1648,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V34" workbookViewId="0">
-      <selection activeCell="AO57" sqref="AO57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1934,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41588</v>
+        <v>41434</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2107,7 +2113,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2637</v>
+        <v>2483</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2195,7 +2201,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2637</v>
+        <v>2483</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -7433,19 +7439,28 @@
       </c>
       <c r="AC63" s="41">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>-74</v>
       </c>
       <c r="AD63" s="50">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AE63" s="50"/>
       <c r="AG63" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI63" s="56"/>
-      <c r="AJ63" s="56"/>
-      <c r="AK63" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="AH63">
+        <v>155</v>
+      </c>
+      <c r="AI63" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ63" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK63" s="56">
+        <v>15</v>
+      </c>
       <c r="AL63" s="56"/>
       <c r="AM63" s="56"/>
       <c r="AN63" s="56"/>
@@ -7457,7 +7472,7 @@
       <c r="AT63" s="56"/>
       <c r="AU63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AV63" s="56"/>
       <c r="AW63" s="56"/>
@@ -7467,10 +7482,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA63" s="56"/>
+      <c r="BA63" s="56">
+        <v>2</v>
+      </c>
       <c r="BB63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="5:55" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="258">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -789,6 +784,15 @@
   </si>
   <si>
     <t>Doña Lulá</t>
+  </si>
+  <si>
+    <t>Fiesta Despedida Michael</t>
+  </si>
+  <si>
+    <t>Casa del doc</t>
+  </si>
+  <si>
+    <t>Estacionamiento ; Dentista; "Prestamo Niño"</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1654,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="U40" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1938,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41434</v>
+        <v>40594</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2007,7 +2011,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2113,7 +2117,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2483</v>
+        <v>1643</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2201,7 +2205,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2483</v>
+        <v>1643</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2211,7 +2215,7 @@
       <c r="S7" s="116"/>
       <c r="T7" s="118">
         <f>E9</f>
-        <v>10160</v>
+        <v>9660</v>
       </c>
       <c r="Z7" s="47">
         <v>43111</v>
@@ -2349,7 +2353,7 @@
       <c r="D9" s="61"/>
       <c r="E9" s="44">
         <f>SUM(E10:E500)</f>
-        <v>10160</v>
+        <v>9660</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
@@ -2691,9 +2695,12 @@
       <c r="C12">
         <v>1000</v>
       </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
       <c r="E12">
         <f t="shared" ref="E12:E75" si="6">C12-D12</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G12" s="99">
         <v>43112</v>
@@ -7439,7 +7446,7 @@
       </c>
       <c r="AC63" s="41">
         <f t="shared" si="3"/>
-        <v>-74</v>
+        <v>-78</v>
       </c>
       <c r="AD63" s="50">
         <v>120</v>
@@ -7447,7 +7454,7 @@
       <c r="AE63" s="50"/>
       <c r="AG63" s="51">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AH63">
         <v>155</v>
@@ -7472,7 +7479,7 @@
       <c r="AT63" s="56"/>
       <c r="AU63">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV63" s="56"/>
       <c r="AW63" s="56"/>
@@ -7490,7 +7497,7 @@
         <v>10</v>
       </c>
       <c r="BC63">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="5:55" x14ac:dyDescent="0.25">
@@ -7521,22 +7528,39 @@
       <c r="AA64" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB64" s="49"/>
+      <c r="AB64" s="49" t="s">
+        <v>255</v>
+      </c>
       <c r="AC64" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD64" s="50"/>
+        <v>-836</v>
+      </c>
+      <c r="AD64" s="50">
+        <v>120</v>
+      </c>
       <c r="AE64" s="50"/>
       <c r="AG64" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="56"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="56"/>
+        <v>956</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ64" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK64" s="56">
+        <v>20</v>
+      </c>
+      <c r="AL64" s="56">
+        <v>400</v>
+      </c>
+      <c r="AM64" s="57">
+        <v>500</v>
+      </c>
       <c r="AN64" s="56"/>
       <c r="AO64" s="56"/>
       <c r="AP64" s="56"/>
@@ -7546,20 +7570,31 @@
       <c r="AT64" s="56"/>
       <c r="AU64">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV64" s="56"/>
-      <c r="AW64" s="56"/>
+        <v>36</v>
+      </c>
+      <c r="AV64" s="56">
+        <v>30</v>
+      </c>
+      <c r="AW64" s="56">
+        <v>2</v>
+      </c>
       <c r="AX64" s="56"/>
-      <c r="AY64" s="56"/>
+      <c r="AY64" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ64" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA64" s="56"/>
+        <v>22</v>
+      </c>
+      <c r="BA64" s="56">
+        <v>0</v>
+      </c>
       <c r="BB64">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="5:54" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="260">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -793,6 +798,12 @@
   </si>
   <si>
     <t>Estacionamiento ; Dentista; "Prestamo Niño"</t>
+  </si>
+  <si>
+    <t>Café Niño</t>
+  </si>
+  <si>
+    <t>Pre Examen</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1658,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U40" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB67" sqref="AB67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1949,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40594</v>
+        <v>40614</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2117,7 +2128,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2205,7 +2216,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -7763,21 +7774,34 @@
       <c r="AA67" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB67" s="49"/>
+      <c r="AB67" s="49" t="s">
+        <v>259</v>
+      </c>
       <c r="AC67" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="AD67" s="50">
+        <v>120</v>
+      </c>
       <c r="AE67" s="50"/>
       <c r="AG67" s="51">
         <f t="shared" ref="AG67:AG86" si="10">SUM(AH67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67)</f>
-        <v>0</v>
-      </c>
-      <c r="AI67" s="56"/>
-      <c r="AJ67" s="56"/>
+        <v>100</v>
+      </c>
+      <c r="AH67">
+        <v>50</v>
+      </c>
+      <c r="AI67" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ67" s="56" t="s">
+        <v>258</v>
+      </c>
       <c r="AK67" s="56"/>
-      <c r="AL67" s="56"/>
+      <c r="AL67" s="56">
+        <v>50</v>
+      </c>
       <c r="AM67" s="56"/>
       <c r="AN67" s="56"/>
       <c r="AO67" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="278">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -804,6 +799,60 @@
   </si>
   <si>
     <t>Pre Examen</t>
+  </si>
+  <si>
+    <t>Regalo Lupita; Café de Olla; Café Ale;</t>
+  </si>
+  <si>
+    <t>Fridays</t>
+  </si>
+  <si>
+    <t>EXAMEN!!!!</t>
+  </si>
+  <si>
+    <t>Vacío Post examen</t>
+  </si>
+  <si>
+    <t>Café con Andy</t>
+  </si>
+  <si>
+    <t>Regalos Armando y Lupita</t>
+  </si>
+  <si>
+    <t>Estudio</t>
+  </si>
+  <si>
+    <t>BODA Armando y Lupita</t>
+  </si>
+  <si>
+    <t>Tortas</t>
+  </si>
+  <si>
+    <t>Uber Jaime; Taxi</t>
+  </si>
+  <si>
+    <t>Pago Minecraft</t>
+  </si>
+  <si>
+    <t>Portón</t>
+  </si>
+  <si>
+    <t>Comida China</t>
+  </si>
+  <si>
+    <t>Maíz</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Comida Corrida</t>
+  </si>
+  <si>
+    <t>Pedro Casa</t>
+  </si>
+  <si>
+    <t>Estudios Sangre</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1669,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB67" sqref="AB67"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1998,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40614</v>
+        <v>40796</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2022,7 +2071,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2128,7 +2177,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1663</v>
+        <v>1945</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2216,7 +2265,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1663</v>
+        <v>1945</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2384,7 +2433,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33970</v>
+        <v>33870</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -4591,10 +4640,18 @@
         <f t="shared" si="8"/>
         <v>1350</v>
       </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="37"/>
+      <c r="T30" s="36">
+        <v>43169</v>
+      </c>
+      <c r="U30" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="V30" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="W30" s="37">
+        <v>100</v>
+      </c>
       <c r="X30" s="37"/>
       <c r="Z30" s="47">
         <v>43134</v>
@@ -4683,10 +4740,16 @@
         <f t="shared" si="8"/>
         <v>5300</v>
       </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="35"/>
+      <c r="T31" s="36">
+        <v>43179</v>
+      </c>
+      <c r="U31" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="V31" s="35"/>
-      <c r="W31" s="37"/>
+      <c r="W31" s="37">
+        <v>50</v>
+      </c>
       <c r="X31" s="37"/>
       <c r="Z31" s="47">
         <v>43135</v>
@@ -4762,10 +4825,16 @@
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="T32" s="36"/>
-      <c r="U32" s="35"/>
+      <c r="T32" s="36">
+        <v>43179</v>
+      </c>
+      <c r="U32" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V32" s="35"/>
-      <c r="W32" s="37"/>
+      <c r="W32" s="37">
+        <v>100</v>
+      </c>
       <c r="X32" s="37"/>
       <c r="Z32" s="47">
         <v>43136</v>
@@ -4856,10 +4925,18 @@
         <f t="shared" si="8"/>
         <v>6850</v>
       </c>
-      <c r="T33" s="36"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="37"/>
+      <c r="T33" s="36">
+        <v>43179</v>
+      </c>
+      <c r="U33" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="V33" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="W33" s="37">
+        <v>600</v>
+      </c>
       <c r="X33" s="37"/>
       <c r="Z33" s="47">
         <v>43137</v>
@@ -5047,10 +5124,12 @@
       <c r="P35" s="23">
         <v>130</v>
       </c>
-      <c r="Q35" s="22"/>
+      <c r="Q35" s="22">
+        <v>100</v>
+      </c>
       <c r="R35" s="20">
         <f t="shared" si="8"/>
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="T35" s="36"/>
       <c r="U35" s="35"/>
@@ -7608,7 +7687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E65">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7636,7 +7715,9 @@
       <c r="AA65" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB65" s="49"/>
+      <c r="AB65" s="49" t="s">
+        <v>266</v>
+      </c>
       <c r="AC65" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7677,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E66">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7705,7 +7786,9 @@
       <c r="AA66" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB66" s="49"/>
+      <c r="AB66" s="49" t="s">
+        <v>266</v>
+      </c>
       <c r="AC66" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7746,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E67">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7779,7 +7862,7 @@
       </c>
       <c r="AC67" s="41">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AD67" s="50">
         <v>120</v>
@@ -7787,13 +7870,13 @@
       <c r="AE67" s="50"/>
       <c r="AG67" s="51">
         <f t="shared" ref="AG67:AG86" si="10">SUM(AH67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67)</f>
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AH67">
         <v>50</v>
       </c>
       <c r="AI67" s="56" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="AJ67" s="56" t="s">
         <v>258</v>
@@ -7812,7 +7895,7 @@
       <c r="AT67" s="56"/>
       <c r="AU67">
         <f t="shared" ref="AU67:AU86" si="11">SUM(AV67,BC67,BB67)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV67" s="56"/>
       <c r="AW67" s="56"/>
@@ -7822,13 +7905,18 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA67" s="56"/>
+      <c r="BA67" s="56">
+        <v>2</v>
+      </c>
       <c r="BB67">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:54" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="BC67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E68">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7856,7 +7944,9 @@
       <c r="AA68" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB68" s="49"/>
+      <c r="AB68" s="49" t="s">
+        <v>262</v>
+      </c>
       <c r="AC68" s="41">
         <f t="shared" ref="AC68:AC86" si="12">(SUM(AD68,AE68))-AG68</f>
         <v>0</v>
@@ -7867,7 +7957,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI68" s="56"/>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="56" t="s">
+        <v>271</v>
+      </c>
       <c r="AJ68" s="56"/>
       <c r="AK68" s="56"/>
       <c r="AL68" s="56"/>
@@ -7897,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E69">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7925,20 +8020,33 @@
       <c r="AA69" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB69" s="49"/>
+      <c r="AB69" s="49" t="s">
+        <v>263</v>
+      </c>
       <c r="AC69" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="50"/>
+        <v>-16</v>
+      </c>
+      <c r="AD69" s="50">
+        <v>80</v>
+      </c>
       <c r="AE69" s="50"/>
       <c r="AG69" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI69" s="56"/>
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="56"/>
+        <v>96</v>
+      </c>
+      <c r="AH69">
+        <v>70</v>
+      </c>
+      <c r="AI69" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ69" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK69" s="56">
+        <v>10</v>
+      </c>
       <c r="AL69" s="56"/>
       <c r="AM69" s="56"/>
       <c r="AN69" s="56"/>
@@ -7950,7 +8058,7 @@
       <c r="AT69" s="56"/>
       <c r="AU69">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV69" s="56"/>
       <c r="AW69" s="56"/>
@@ -7960,13 +8068,18 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA69" s="56"/>
+      <c r="BA69" s="56">
+        <v>2</v>
+      </c>
       <c r="BB69">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:54" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E70">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7994,18 +8107,27 @@
       <c r="AA70" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB70" s="49"/>
+      <c r="AB70" s="49" t="s">
+        <v>264</v>
+      </c>
       <c r="AC70" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD70" s="50"/>
+        <v>-18</v>
+      </c>
+      <c r="AD70" s="50">
+        <v>80</v>
+      </c>
       <c r="AE70" s="50"/>
       <c r="AG70" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI70" s="56"/>
+        <v>98</v>
+      </c>
+      <c r="AH70">
+        <v>60</v>
+      </c>
+      <c r="AI70" s="56" t="s">
+        <v>272</v>
+      </c>
       <c r="AJ70" s="56"/>
       <c r="AK70" s="56"/>
       <c r="AL70" s="56"/>
@@ -8019,23 +8141,32 @@
       <c r="AT70" s="56"/>
       <c r="AU70">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV70" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="AV70" s="56">
+        <v>22</v>
+      </c>
       <c r="AW70" s="56"/>
       <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
+      <c r="AY70" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ70" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA70" s="56"/>
+        <v>10</v>
+      </c>
+      <c r="BA70" s="56">
+        <v>2</v>
+      </c>
       <c r="BB70">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="5:54" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E71">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8063,22 +8194,39 @@
       <c r="AA71" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB71" s="49"/>
+      <c r="AB71" s="49" t="s">
+        <v>265</v>
+      </c>
       <c r="AC71" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD71" s="50"/>
+        <v>-426</v>
+      </c>
+      <c r="AD71" s="50">
+        <v>80</v>
+      </c>
       <c r="AE71" s="50"/>
       <c r="AG71" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI71" s="56"/>
-      <c r="AJ71" s="56"/>
-      <c r="AK71" s="56"/>
-      <c r="AL71" s="56"/>
-      <c r="AM71" s="56"/>
+        <v>506</v>
+      </c>
+      <c r="AH71">
+        <v>150</v>
+      </c>
+      <c r="AI71" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ71" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK71" s="56">
+        <v>40</v>
+      </c>
+      <c r="AL71" s="56">
+        <v>200</v>
+      </c>
+      <c r="AM71" s="56">
+        <v>105</v>
+      </c>
       <c r="AN71" s="56"/>
       <c r="AO71" s="56"/>
       <c r="AP71" s="56"/>
@@ -8088,23 +8236,30 @@
       <c r="AT71" s="56"/>
       <c r="AU71">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
+      <c r="AW71" s="56">
+        <v>2</v>
+      </c>
       <c r="AX71" s="56"/>
       <c r="AY71" s="56"/>
       <c r="AZ71" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA71" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="BA71" s="56">
+        <v>1</v>
+      </c>
       <c r="BB71">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="5:54" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E72">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8132,21 +8287,36 @@
       <c r="AA72" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB72" s="49"/>
+      <c r="AB72" s="49" t="s">
+        <v>267</v>
+      </c>
       <c r="AC72" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD72" s="50"/>
+        <v>-73</v>
+      </c>
+      <c r="AD72" s="50">
+        <v>120</v>
+      </c>
       <c r="AE72" s="50"/>
       <c r="AG72" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI72" s="56"/>
-      <c r="AJ72" s="56"/>
-      <c r="AK72" s="56"/>
-      <c r="AL72" s="56"/>
+        <v>193</v>
+      </c>
+      <c r="AH72">
+        <v>68</v>
+      </c>
+      <c r="AI72" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ72" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK72" s="56">
+        <v>100</v>
+      </c>
+      <c r="AL72" s="56">
+        <v>20</v>
+      </c>
       <c r="AM72" s="56"/>
       <c r="AN72" s="56"/>
       <c r="AO72" s="56"/>
@@ -8157,7 +8327,7 @@
       <c r="AT72" s="56"/>
       <c r="AU72">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV72" s="56"/>
       <c r="AW72" s="56"/>
@@ -8167,13 +8337,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA72" s="56"/>
+      <c r="BA72" s="56">
+        <v>1</v>
+      </c>
       <c r="BB72">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="5:54" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E73">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8242,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E74">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8270,20 +8442,33 @@
       <c r="AA74" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB74" s="49"/>
+      <c r="AB74" s="49" t="s">
+        <v>274</v>
+      </c>
       <c r="AC74" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="50"/>
+        <v>-78</v>
+      </c>
+      <c r="AD74" s="50">
+        <v>0</v>
+      </c>
       <c r="AE74" s="50"/>
       <c r="AG74" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI74" s="56"/>
-      <c r="AJ74" s="56"/>
-      <c r="AK74" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="AH74">
+        <v>50</v>
+      </c>
+      <c r="AI74" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ74" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK74" s="56">
+        <v>18</v>
+      </c>
       <c r="AL74" s="56"/>
       <c r="AM74" s="56"/>
       <c r="AN74" s="56"/>
@@ -8295,7 +8480,7 @@
       <c r="AT74" s="56"/>
       <c r="AU74">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV74" s="56"/>
       <c r="AW74" s="56"/>
@@ -8305,13 +8490,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA74" s="56"/>
+      <c r="BA74" s="56">
+        <v>2</v>
+      </c>
       <c r="BB74">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="5:54" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E75">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8339,18 +8526,27 @@
       <c r="AA75" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB75" s="49"/>
+      <c r="AB75" s="49" t="s">
+        <v>276</v>
+      </c>
       <c r="AC75" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="50"/>
+        <v>59</v>
+      </c>
+      <c r="AD75" s="50">
+        <v>120</v>
+      </c>
       <c r="AE75" s="50"/>
       <c r="AG75" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI75" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="56" t="s">
+        <v>272</v>
+      </c>
       <c r="AJ75" s="56"/>
       <c r="AK75" s="56"/>
       <c r="AL75" s="56"/>
@@ -8364,23 +8560,32 @@
       <c r="AT75" s="56"/>
       <c r="AU75">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV75" s="56"/>
-      <c r="AW75" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="AV75" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW75" s="56">
+        <v>2</v>
+      </c>
       <c r="AX75" s="56"/>
-      <c r="AY75" s="56"/>
+      <c r="AY75" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ75" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA75" s="56"/>
       <c r="BB75">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="BC75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E76">
         <f t="shared" ref="E76:E139" si="14">C76-D76</f>
         <v>0</v>
@@ -8449,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E77">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8518,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E78">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8587,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E79">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8656,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:55" x14ac:dyDescent="0.25">
       <c r="E80">
         <f t="shared" si="14"/>
         <v>0</v>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="283">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -853,6 +853,21 @@
   </si>
   <si>
     <t>Estudios Sangre</t>
+  </si>
+  <si>
+    <t>Sol comida</t>
+  </si>
+  <si>
+    <t>Ale problemas</t>
+  </si>
+  <si>
+    <t>Seminario Stephane</t>
+  </si>
+  <si>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>Pantalones Sol</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1718,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="AL53" workbookViewId="0">
+      <selection activeCell="AY77" sqref="AY77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2013,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40796</v>
+        <v>40920</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2071,7 +2086,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2177,7 +2192,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1945</v>
+        <v>2069</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2265,7 +2280,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1945</v>
+        <v>2069</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -4748,7 +4763,7 @@
       </c>
       <c r="V31" s="35"/>
       <c r="W31" s="37">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="X31" s="37"/>
       <c r="Z31" s="47">
@@ -4833,7 +4848,7 @@
       </c>
       <c r="V32" s="35"/>
       <c r="W32" s="37">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="X32" s="37"/>
       <c r="Z32" s="47">
@@ -8613,20 +8628,33 @@
       <c r="AA76" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB76" s="49"/>
+      <c r="AB76" s="49" t="s">
+        <v>278</v>
+      </c>
       <c r="AC76" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="50"/>
+        <v>-184</v>
+      </c>
+      <c r="AD76" s="50">
+        <v>80</v>
+      </c>
       <c r="AE76" s="50"/>
       <c r="AG76" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI76" s="56"/>
-      <c r="AJ76" s="56"/>
-      <c r="AK76" s="56"/>
+        <v>264</v>
+      </c>
+      <c r="AH76">
+        <v>64</v>
+      </c>
+      <c r="AI76" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ76" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK76" s="56">
+        <v>200</v>
+      </c>
       <c r="AL76" s="56"/>
       <c r="AM76" s="56"/>
       <c r="AN76" s="56"/>
@@ -8682,18 +8710,27 @@
       <c r="AA77" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB77" s="49"/>
+      <c r="AB77" s="49" t="s">
+        <v>279</v>
+      </c>
       <c r="AC77" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="50"/>
+        <v>-22</v>
+      </c>
+      <c r="AD77" s="50">
+        <v>80</v>
+      </c>
       <c r="AE77" s="50"/>
       <c r="AG77" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI77" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="AH77">
+        <v>70</v>
+      </c>
+      <c r="AI77" s="56" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ77" s="56"/>
       <c r="AK77" s="56"/>
       <c r="AL77" s="56"/>
@@ -8707,20 +8744,29 @@
       <c r="AT77" s="56"/>
       <c r="AU77">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV77" s="56"/>
-      <c r="AW77" s="56"/>
+        <v>32</v>
+      </c>
+      <c r="AV77" s="56">
+        <v>15</v>
+      </c>
+      <c r="AW77" s="56">
+        <v>2</v>
+      </c>
       <c r="AX77" s="56"/>
-      <c r="AY77" s="56"/>
+      <c r="AY77" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ77" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA77" s="56"/>
       <c r="BB77">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="5:55" x14ac:dyDescent="0.25">
@@ -8751,12 +8797,16 @@
       <c r="AA78" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB78" s="49"/>
+      <c r="AB78" s="49" t="s">
+        <v>280</v>
+      </c>
       <c r="AC78" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD78" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="AD78" s="50">
+        <v>80</v>
+      </c>
       <c r="AE78" s="50"/>
       <c r="AG78" s="51">
         <f t="shared" si="10"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="290">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -861,13 +861,34 @@
     <t>Ale problemas</t>
   </si>
   <si>
-    <t>Seminario Stephane</t>
-  </si>
-  <si>
     <t>Arquitectura</t>
   </si>
   <si>
     <t>Pantalones Sol</t>
+  </si>
+  <si>
+    <t>Entrega PAPIME CD</t>
+  </si>
+  <si>
+    <t>Kura (Comida Javs, Enana, Jaime)</t>
+  </si>
+  <si>
+    <t>Chelas, Bubulubu; Dentista</t>
+  </si>
+  <si>
+    <t>Cervezas post comida en EL MEJOR RESTAURANTE  DEL MUNDO KURA</t>
+  </si>
+  <si>
+    <t>Estudios IHOP SERIES</t>
+  </si>
+  <si>
+    <t>Estudios, Chelas, Tacos, Bubulubus</t>
+  </si>
+  <si>
+    <t>IHOP</t>
+  </si>
+  <si>
+    <t>Mau</t>
   </si>
 </sst>
 </file>
@@ -1733,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL53" workbookViewId="0">
-      <selection activeCell="AY77" sqref="AY77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF64" sqref="AF64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2034,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40920</v>
+        <v>39918</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2086,7 +2107,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2192,7 +2213,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>2069</v>
+        <v>1067</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2280,7 +2301,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>2069</v>
+        <v>1067</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -7638,12 +7659,17 @@
       </c>
       <c r="AC64" s="41">
         <f t="shared" si="3"/>
-        <v>-836</v>
+        <v>-636</v>
       </c>
       <c r="AD64" s="50">
         <v>120</v>
       </c>
-      <c r="AE64" s="50"/>
+      <c r="AE64" s="50">
+        <v>200</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>289</v>
+      </c>
       <c r="AG64" s="51">
         <f t="shared" si="0"/>
         <v>956</v>
@@ -8647,10 +8673,10 @@
         <v>64</v>
       </c>
       <c r="AI76" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ76" s="56" t="s">
         <v>281</v>
-      </c>
-      <c r="AJ76" s="56" t="s">
-        <v>282</v>
       </c>
       <c r="AK76" s="56">
         <v>200</v>
@@ -8798,11 +8824,11 @@
         <v>69</v>
       </c>
       <c r="AB78" s="49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AC78" s="41">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>-482</v>
       </c>
       <c r="AD78" s="50">
         <v>80</v>
@@ -8810,13 +8836,26 @@
       <c r="AE78" s="50"/>
       <c r="AG78" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI78" s="56"/>
-      <c r="AJ78" s="56"/>
-      <c r="AK78" s="56"/>
-      <c r="AL78" s="56"/>
-      <c r="AM78" s="56"/>
+        <v>562</v>
+      </c>
+      <c r="AH78">
+        <v>120</v>
+      </c>
+      <c r="AI78" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ78" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK78" s="56">
+        <v>20</v>
+      </c>
+      <c r="AL78" s="56">
+        <v>5</v>
+      </c>
+      <c r="AM78" s="56">
+        <v>400</v>
+      </c>
       <c r="AN78" s="56"/>
       <c r="AO78" s="56"/>
       <c r="AP78" s="56"/>
@@ -8826,15 +8865,21 @@
       <c r="AT78" s="56"/>
       <c r="AU78">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV78" s="56"/>
-      <c r="AW78" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="AV78" s="56">
+        <v>17</v>
+      </c>
+      <c r="AW78" s="56">
+        <v>2</v>
+      </c>
       <c r="AX78" s="56"/>
-      <c r="AY78" s="56"/>
+      <c r="AY78" s="56">
+        <v>3</v>
+      </c>
       <c r="AZ78" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BA78" s="56"/>
       <c r="BB78">
@@ -8870,18 +8915,25 @@
       <c r="AA79" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB79" s="49"/>
+      <c r="AB79" s="49" t="s">
+        <v>283</v>
+      </c>
       <c r="AC79" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="AD79" s="50"/>
       <c r="AE79" s="50"/>
       <c r="AG79" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI79" s="56"/>
+        <v>70</v>
+      </c>
+      <c r="AH79">
+        <v>50</v>
+      </c>
+      <c r="AI79" s="56" t="s">
+        <v>285</v>
+      </c>
       <c r="AJ79" s="56"/>
       <c r="AK79" s="56"/>
       <c r="AL79" s="56"/>
@@ -8895,7 +8947,7 @@
       <c r="AT79" s="56"/>
       <c r="AU79">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV79" s="56"/>
       <c r="AW79" s="56"/>
@@ -8905,10 +8957,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA79" s="56"/>
+      <c r="BA79" s="56">
+        <v>4</v>
+      </c>
       <c r="BB79">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="5:55" x14ac:dyDescent="0.25">
@@ -9008,23 +9062,42 @@
       <c r="AA81" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB81" s="49"/>
+      <c r="AB81" s="49" t="s">
+        <v>286</v>
+      </c>
       <c r="AC81" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD81" s="50"/>
+        <v>-570</v>
+      </c>
+      <c r="AD81" s="50">
+        <v>120</v>
+      </c>
       <c r="AE81" s="50"/>
       <c r="AG81" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
+        <v>690</v>
+      </c>
+      <c r="AH81">
+        <v>100</v>
+      </c>
+      <c r="AI81" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ81" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK81" s="56">
+        <v>485</v>
+      </c>
+      <c r="AL81" s="56">
+        <v>36</v>
+      </c>
+      <c r="AM81" s="56">
+        <v>64</v>
+      </c>
+      <c r="AN81" s="56">
+        <v>5</v>
+      </c>
       <c r="AO81" s="56"/>
       <c r="AP81" s="56"/>
       <c r="AQ81" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="292">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -889,6 +894,12 @@
   </si>
   <si>
     <t>Mau</t>
+  </si>
+  <si>
+    <t>Doña Lula</t>
+  </si>
+  <si>
+    <t>Pedro Jaime JL</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1754,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF64" sqref="AF64"/>
+    <sheetView tabSelected="1" topLeftCell="X60" workbookViewId="0">
+      <selection activeCell="AB84" sqref="AB84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2045,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>39918</v>
+        <v>40102</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2107,7 +2118,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2213,7 +2224,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1067</v>
+        <v>1251</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2301,7 +2312,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1067</v>
+        <v>1251</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -5066,10 +5077,16 @@
         <f t="shared" si="8"/>
         <v>1500</v>
       </c>
-      <c r="T34" s="36"/>
-      <c r="U34" s="35"/>
+      <c r="T34" s="36">
+        <v>43186</v>
+      </c>
+      <c r="U34" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="V34" s="35"/>
-      <c r="W34" s="37"/>
+      <c r="W34" s="37">
+        <v>200</v>
+      </c>
       <c r="X34" s="37"/>
       <c r="Z34" s="47">
         <v>43138</v>
@@ -9150,18 +9167,27 @@
       <c r="AA82" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB82" s="49"/>
+      <c r="AB82" s="49" t="s">
+        <v>291</v>
+      </c>
       <c r="AC82" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD82" s="50"/>
+        <v>-80</v>
+      </c>
+      <c r="AD82" s="50">
+        <v>80</v>
+      </c>
       <c r="AE82" s="50"/>
       <c r="AG82" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI82" s="56"/>
+        <v>160</v>
+      </c>
+      <c r="AH82">
+        <v>140</v>
+      </c>
+      <c r="AI82" s="56" t="s">
+        <v>290</v>
+      </c>
       <c r="AJ82" s="56"/>
       <c r="AK82" s="56"/>
       <c r="AL82" s="56"/>
@@ -9175,15 +9201,19 @@
       <c r="AT82" s="56"/>
       <c r="AU82">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV82" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="AV82" s="56">
+        <v>20</v>
+      </c>
       <c r="AW82" s="56"/>
       <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
+      <c r="AY82" s="56">
+        <v>3</v>
+      </c>
       <c r="AZ82" s="56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA82" s="56"/>
       <c r="BB82">
@@ -9219,16 +9249,20 @@
       <c r="AA83" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB83" s="49"/>
+      <c r="AB83" s="49" t="s">
+        <v>164</v>
+      </c>
       <c r="AC83" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="AD83" s="50">
+        <v>80</v>
+      </c>
       <c r="AE83" s="50"/>
       <c r="AG83" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI83" s="56"/>
       <c r="AJ83" s="56"/>
@@ -9244,7 +9278,7 @@
       <c r="AT83" s="56"/>
       <c r="AU83">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV83" s="56"/>
       <c r="AW83" s="56"/>
@@ -9254,10 +9288,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA83" s="56"/>
+      <c r="BA83" s="56">
+        <v>2</v>
+      </c>
       <c r="BB83">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC83">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="5:60" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="298">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -900,6 +895,24 @@
   </si>
   <si>
     <t>Pedro Jaime JL</t>
+  </si>
+  <si>
+    <t>Veterinario Connie  y Alitas Jaime</t>
+  </si>
+  <si>
+    <t>Enana coopero para el vete</t>
+  </si>
+  <si>
+    <t>Wingstop</t>
+  </si>
+  <si>
+    <t>Semiasalto; Consulta; Taxi a casa; Café Jaime; Pulsera metro</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Cerveza; Bubulubus</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1765,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X60" workbookViewId="0">
-      <selection activeCell="AB84" sqref="AB84"/>
+    <sheetView tabSelected="1" topLeftCell="T64" workbookViewId="0">
+      <selection activeCell="AD84" sqref="AD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2058,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40102</v>
+        <v>39733</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2224,7 +2237,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1251</v>
+        <v>882</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2312,7 +2325,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1251</v>
+        <v>882</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -9254,7 +9267,7 @@
       </c>
       <c r="AC83" s="41">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>-35</v>
       </c>
       <c r="AD83" s="50">
         <v>80</v>
@@ -9262,12 +9275,23 @@
       <c r="AE83" s="50"/>
       <c r="AG83" s="51">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
+        <v>115</v>
+      </c>
+      <c r="AH83">
+        <v>50</v>
+      </c>
+      <c r="AI83" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ83" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK83" s="56">
+        <v>44</v>
+      </c>
+      <c r="AL83" s="56">
+        <v>5</v>
+      </c>
       <c r="AM83" s="56"/>
       <c r="AN83" s="56"/>
       <c r="AO83" s="56"/>
@@ -9327,24 +9351,50 @@
       <c r="AA84" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB84" s="49"/>
+      <c r="AB84" s="49" t="s">
+        <v>292</v>
+      </c>
       <c r="AC84" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD84" s="50"/>
-      <c r="AE84" s="50"/>
+        <v>-270</v>
+      </c>
+      <c r="AD84" s="50">
+        <v>70</v>
+      </c>
+      <c r="AE84" s="50">
+        <v>100</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>293</v>
+      </c>
       <c r="AG84" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
+        <v>440</v>
+      </c>
+      <c r="AH84">
+        <v>110</v>
+      </c>
+      <c r="AI84" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ84" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK84" s="56">
+        <v>10</v>
+      </c>
+      <c r="AL84" s="56">
+        <v>250</v>
+      </c>
+      <c r="AM84" s="56">
+        <v>23</v>
+      </c>
+      <c r="AN84" s="56">
+        <v>20</v>
+      </c>
+      <c r="AO84" s="56">
+        <v>10</v>
+      </c>
       <c r="AP84" s="56"/>
       <c r="AQ84" s="56"/>
       <c r="AR84" s="56"/>
@@ -9352,7 +9402,7 @@
       <c r="AT84" s="56"/>
       <c r="AU84">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AV84" s="56"/>
       <c r="AW84" s="56"/>
@@ -9362,10 +9412,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA84" s="56"/>
+      <c r="BA84" s="56">
+        <v>1</v>
+      </c>
       <c r="BB84">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="5:60" x14ac:dyDescent="0.25">

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="306">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -913,6 +918,30 @@
   </si>
   <si>
     <t>Cerveza; Bubulubus</t>
+  </si>
+  <si>
+    <t>Uri Cooperó para su café</t>
+  </si>
+  <si>
+    <t>Café Uri y Manu</t>
+  </si>
+  <si>
+    <t>Barbacoa</t>
+  </si>
+  <si>
+    <t>Perro Negro</t>
+  </si>
+  <si>
+    <t>Tramites Manu</t>
+  </si>
+  <si>
+    <t>Clases</t>
+  </si>
+  <si>
+    <t>Alejandra Valencia</t>
+  </si>
+  <si>
+    <t>Tescoco Visita</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1778,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T64" workbookViewId="0">
-      <selection activeCell="AD84" sqref="AD84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1884,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="114">
         <f>N3-D2</f>
-        <v>4083</v>
+        <v>4065</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -1982,7 +2011,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>4981</v>
+        <v>4963</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -2058,7 +2087,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>39733</v>
+        <v>39778</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2131,7 +2160,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2237,7 +2266,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>882</v>
+        <v>945</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2325,7 +2354,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>882</v>
+        <v>945</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -3782,10 +3811,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="99"/>
+      <c r="G21" s="99">
+        <v>43194</v>
+      </c>
       <c r="H21" s="56"/>
       <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
+      <c r="J21" s="102">
+        <v>18</v>
+      </c>
       <c r="K21" s="103"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18" t="s">
@@ -7940,7 +7973,7 @@
       </c>
       <c r="AE67" s="50"/>
       <c r="AG67" s="51">
-        <f t="shared" ref="AG67:AG86" si="10">SUM(AH67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67)</f>
+        <f t="shared" ref="AG67:AG114" si="10">SUM(AH67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67,AT67,AU67)</f>
         <v>116</v>
       </c>
       <c r="AH67">
@@ -7965,7 +7998,7 @@
       <c r="AS67" s="56"/>
       <c r="AT67" s="56"/>
       <c r="AU67">
-        <f t="shared" ref="AU67:AU86" si="11">SUM(AV67,BC67,BB67)</f>
+        <f t="shared" ref="AU67:AU120" si="11">SUM(AV67,BC67,BB67)</f>
         <v>16</v>
       </c>
       <c r="AV67" s="56"/>
@@ -8019,7 +8052,7 @@
         <v>262</v>
       </c>
       <c r="AC68" s="41">
-        <f t="shared" ref="AC68:AC86" si="12">(SUM(AD68,AE68))-AG68</f>
+        <f t="shared" ref="AC68:AC114" si="12">(SUM(AD68,AE68))-AG68</f>
         <v>0</v>
       </c>
       <c r="AD68" s="50"/>
@@ -8059,7 +8092,7 @@
       </c>
       <c r="BA68" s="56"/>
       <c r="BB68">
-        <f t="shared" ref="BB68:BB86" si="13">BA68*5</f>
+        <f t="shared" ref="BB68:BB120" si="13">BA68*5</f>
         <v>0</v>
       </c>
     </row>
@@ -9454,17 +9487,28 @@
       <c r="AB85" s="49"/>
       <c r="AC85" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD85" s="50"/>
+        <v>100</v>
+      </c>
+      <c r="AD85" s="50">
+        <v>200</v>
+      </c>
       <c r="AE85" s="50"/>
       <c r="AG85" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
+        <v>100</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ85" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK85" s="56">
+        <v>100</v>
+      </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="56"/>
       <c r="AN85" s="56"/>
@@ -9483,7 +9527,7 @@
       <c r="AX85" s="56"/>
       <c r="AY85" s="56"/>
       <c r="AZ85" s="56">
-        <f t="shared" ref="AZ85:AZ86" si="15">(AW85*6)+(AX85*8)+(AY85*5)</f>
+        <f t="shared" ref="AZ85:AZ120" si="15">(AW85*6)+(AX85*8)+(AY85*5)</f>
         <v>0</v>
       </c>
       <c r="BA85" s="56"/>
@@ -9523,15 +9567,22 @@
       <c r="AB86" s="49"/>
       <c r="AC86" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD86" s="50"/>
+        <v>10</v>
+      </c>
+      <c r="AD86" s="50">
+        <v>120</v>
+      </c>
       <c r="AE86" s="50"/>
       <c r="AG86" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI86" s="56"/>
+        <v>110</v>
+      </c>
+      <c r="AH86">
+        <v>110</v>
+      </c>
+      <c r="AI86" s="56" t="s">
+        <v>152</v>
+      </c>
       <c r="AJ86" s="56"/>
       <c r="AK86" s="56"/>
       <c r="AL86" s="56"/>
@@ -9583,14 +9634,26 @@
       <c r="V87" s="35"/>
       <c r="W87" s="37"/>
       <c r="X87" s="37"/>
-      <c r="Z87" s="106"/>
-      <c r="AA87" s="48"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="108"/>
+      <c r="Z87" s="47">
+        <v>43191</v>
+      </c>
+      <c r="AA87" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB87" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC87" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD87" s="107"/>
       <c r="AE87" s="107"/>
       <c r="AF87" s="56"/>
-      <c r="AG87" s="107"/>
+      <c r="AG87" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH87" s="56"/>
       <c r="AI87" s="56"/>
       <c r="AJ87" s="56"/>
@@ -9604,14 +9667,23 @@
       <c r="AR87" s="56"/>
       <c r="AS87" s="56"/>
       <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
+      <c r="AU87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV87" s="56"/>
       <c r="AW87" s="56"/>
       <c r="AX87" s="56"/>
       <c r="AY87" s="56"/>
-      <c r="AZ87" s="56"/>
+      <c r="AZ87" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA87" s="56"/>
-      <c r="BB87" s="56"/>
+      <c r="BB87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC87" s="56"/>
       <c r="BD87" s="56"/>
       <c r="BE87" s="56"/>
@@ -9641,16 +9713,34 @@
       <c r="V88" s="35"/>
       <c r="W88" s="37"/>
       <c r="X88" s="37"/>
-      <c r="Z88" s="106"/>
-      <c r="AA88" s="107"/>
-      <c r="AB88" s="56"/>
-      <c r="AC88" s="108"/>
-      <c r="AD88" s="107"/>
+      <c r="Z88" s="47">
+        <v>43192</v>
+      </c>
+      <c r="AA88" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB88" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC88" s="41">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="AD88" s="107">
+        <v>120</v>
+      </c>
       <c r="AE88" s="107"/>
       <c r="AF88" s="56"/>
-      <c r="AG88" s="107"/>
-      <c r="AH88" s="56"/>
-      <c r="AI88" s="56"/>
+      <c r="AG88" s="51">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="AH88" s="56">
+        <v>50</v>
+      </c>
+      <c r="AI88" s="56" t="s">
+        <v>300</v>
+      </c>
       <c r="AJ88" s="56"/>
       <c r="AK88" s="56"/>
       <c r="AL88" s="56"/>
@@ -9662,14 +9752,25 @@
       <c r="AR88" s="56"/>
       <c r="AS88" s="56"/>
       <c r="AT88" s="56"/>
-      <c r="AU88" s="56"/>
+      <c r="AU88">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
       <c r="AV88" s="56"/>
       <c r="AW88" s="56"/>
       <c r="AX88" s="56"/>
       <c r="AY88" s="56"/>
-      <c r="AZ88" s="56"/>
-      <c r="BA88" s="56"/>
-      <c r="BB88" s="56"/>
+      <c r="AZ88" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BA88" s="56">
+        <v>2</v>
+      </c>
+      <c r="BB88">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
       <c r="BC88" s="56"/>
       <c r="BD88" s="56"/>
       <c r="BE88" s="56"/>
@@ -9699,16 +9800,34 @@
       <c r="V89" s="35"/>
       <c r="W89" s="37"/>
       <c r="X89" s="37"/>
-      <c r="Z89" s="106"/>
-      <c r="AA89" s="107"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="108"/>
-      <c r="AD89" s="107"/>
+      <c r="Z89" s="47">
+        <v>43193</v>
+      </c>
+      <c r="AA89" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB89" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC89" s="41">
+        <f t="shared" si="12"/>
+        <v>-41</v>
+      </c>
+      <c r="AD89" s="107">
+        <v>80</v>
+      </c>
       <c r="AE89" s="107"/>
       <c r="AF89" s="56"/>
-      <c r="AG89" s="107"/>
-      <c r="AH89" s="56"/>
-      <c r="AI89" s="56"/>
+      <c r="AG89" s="51">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="AH89" s="56">
+        <v>60</v>
+      </c>
+      <c r="AI89" s="56" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ89" s="56"/>
       <c r="AK89" s="56"/>
       <c r="AL89" s="56"/>
@@ -9720,15 +9839,32 @@
       <c r="AR89" s="56"/>
       <c r="AS89" s="56"/>
       <c r="AT89" s="56"/>
-      <c r="AU89" s="56"/>
-      <c r="AV89" s="56"/>
-      <c r="AW89" s="56"/>
+      <c r="AU89">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="AV89" s="56">
+        <v>50</v>
+      </c>
+      <c r="AW89" s="56">
+        <v>2</v>
+      </c>
       <c r="AX89" s="56"/>
-      <c r="AY89" s="56"/>
-      <c r="AZ89" s="56"/>
+      <c r="AY89" s="56">
+        <v>2</v>
+      </c>
+      <c r="AZ89" s="56">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
       <c r="BA89" s="56"/>
-      <c r="BB89" s="56"/>
-      <c r="BC89" s="56"/>
+      <c r="BB89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC89" s="56">
+        <v>11</v>
+      </c>
       <c r="BD89" s="56"/>
       <c r="BE89" s="56"/>
       <c r="BF89" s="56"/>
@@ -9757,18 +9893,44 @@
       <c r="V90" s="35"/>
       <c r="W90" s="37"/>
       <c r="X90" s="37"/>
-      <c r="Z90" s="106"/>
-      <c r="AA90" s="107"/>
-      <c r="AB90" s="56"/>
-      <c r="AC90" s="108"/>
-      <c r="AD90" s="107"/>
-      <c r="AE90" s="107"/>
-      <c r="AF90" s="56"/>
-      <c r="AG90" s="107"/>
-      <c r="AH90" s="56"/>
-      <c r="AI90" s="56"/>
-      <c r="AJ90" s="56"/>
-      <c r="AK90" s="56"/>
+      <c r="Z90" s="47">
+        <v>43194</v>
+      </c>
+      <c r="AA90" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB90" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC90" s="41">
+        <f t="shared" si="12"/>
+        <v>-55</v>
+      </c>
+      <c r="AD90" s="107">
+        <v>80</v>
+      </c>
+      <c r="AE90" s="107">
+        <v>20</v>
+      </c>
+      <c r="AF90" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG90" s="51">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="AH90" s="56">
+        <v>70</v>
+      </c>
+      <c r="AI90" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ90" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK90" s="56">
+        <v>75</v>
+      </c>
       <c r="AL90" s="56"/>
       <c r="AM90" s="56"/>
       <c r="AN90" s="56"/>
@@ -9778,14 +9940,25 @@
       <c r="AR90" s="56"/>
       <c r="AS90" s="56"/>
       <c r="AT90" s="56"/>
-      <c r="AU90" s="56"/>
+      <c r="AU90">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
       <c r="AV90" s="56"/>
       <c r="AW90" s="56"/>
       <c r="AX90" s="56"/>
       <c r="AY90" s="56"/>
-      <c r="AZ90" s="56"/>
-      <c r="BA90" s="56"/>
-      <c r="BB90" s="56"/>
+      <c r="AZ90" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BA90" s="56">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
       <c r="BC90" s="56"/>
       <c r="BD90" s="56"/>
       <c r="BE90" s="56"/>
@@ -9815,14 +9988,24 @@
       <c r="V91" s="35"/>
       <c r="W91" s="37"/>
       <c r="X91" s="37"/>
-      <c r="Z91" s="106"/>
-      <c r="AA91" s="107"/>
-      <c r="AB91" s="56"/>
-      <c r="AC91" s="108"/>
+      <c r="Z91" s="47">
+        <v>43195</v>
+      </c>
+      <c r="AA91" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="41">
+        <f t="shared" si="12"/>
+        <v>-11</v>
+      </c>
       <c r="AD91" s="107"/>
       <c r="AE91" s="107"/>
       <c r="AF91" s="56"/>
-      <c r="AG91" s="107"/>
+      <c r="AG91" s="51">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
       <c r="AH91" s="56"/>
       <c r="AI91" s="56"/>
       <c r="AJ91" s="56"/>
@@ -9836,15 +10019,26 @@
       <c r="AR91" s="56"/>
       <c r="AS91" s="56"/>
       <c r="AT91" s="56"/>
-      <c r="AU91" s="56"/>
+      <c r="AU91">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
       <c r="AV91" s="56"/>
       <c r="AW91" s="56"/>
       <c r="AX91" s="56"/>
       <c r="AY91" s="56"/>
-      <c r="AZ91" s="56"/>
+      <c r="AZ91" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA91" s="56"/>
-      <c r="BB91" s="56"/>
-      <c r="BC91" s="56"/>
+      <c r="BB91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC91" s="56">
+        <v>11</v>
+      </c>
       <c r="BD91" s="56"/>
       <c r="BE91" s="56"/>
       <c r="BF91" s="56"/>
@@ -9873,14 +10067,24 @@
       <c r="V92" s="35"/>
       <c r="W92" s="37"/>
       <c r="X92" s="37"/>
-      <c r="Z92" s="106"/>
-      <c r="AA92" s="107"/>
-      <c r="AB92" s="56"/>
-      <c r="AC92" s="108"/>
+      <c r="Z92" s="47">
+        <v>43196</v>
+      </c>
+      <c r="AA92" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD92" s="107"/>
       <c r="AE92" s="107"/>
       <c r="AF92" s="56"/>
-      <c r="AG92" s="107"/>
+      <c r="AG92" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH92" s="56"/>
       <c r="AI92" s="56"/>
       <c r="AJ92" s="56"/>
@@ -9894,14 +10098,23 @@
       <c r="AR92" s="56"/>
       <c r="AS92" s="56"/>
       <c r="AT92" s="56"/>
-      <c r="AU92" s="56"/>
+      <c r="AU92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV92" s="56"/>
       <c r="AW92" s="56"/>
       <c r="AX92" s="56"/>
       <c r="AY92" s="56"/>
-      <c r="AZ92" s="56"/>
+      <c r="AZ92" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA92" s="56"/>
-      <c r="BB92" s="56"/>
+      <c r="BB92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC92" s="56"/>
       <c r="BD92" s="56"/>
       <c r="BE92" s="56"/>
@@ -9931,14 +10144,24 @@
       <c r="V93" s="35"/>
       <c r="W93" s="37"/>
       <c r="X93" s="37"/>
-      <c r="Z93" s="106"/>
-      <c r="AA93" s="107"/>
-      <c r="AB93" s="56"/>
-      <c r="AC93" s="108"/>
+      <c r="Z93" s="47">
+        <v>43197</v>
+      </c>
+      <c r="AA93" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD93" s="107"/>
       <c r="AE93" s="107"/>
       <c r="AF93" s="56"/>
-      <c r="AG93" s="107"/>
+      <c r="AG93" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH93" s="56"/>
       <c r="AI93" s="56"/>
       <c r="AJ93" s="56"/>
@@ -9952,14 +10175,23 @@
       <c r="AR93" s="56"/>
       <c r="AS93" s="56"/>
       <c r="AT93" s="56"/>
-      <c r="AU93" s="56"/>
+      <c r="AU93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV93" s="56"/>
       <c r="AW93" s="56"/>
       <c r="AX93" s="56"/>
       <c r="AY93" s="56"/>
-      <c r="AZ93" s="56"/>
+      <c r="AZ93" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA93" s="56"/>
-      <c r="BB93" s="56"/>
+      <c r="BB93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC93" s="56"/>
       <c r="BD93" s="56"/>
       <c r="BE93" s="56"/>
@@ -9989,14 +10221,24 @@
       <c r="V94" s="35"/>
       <c r="W94" s="37"/>
       <c r="X94" s="37"/>
-      <c r="Z94" s="106"/>
-      <c r="AA94" s="107"/>
-      <c r="AB94" s="56"/>
-      <c r="AC94" s="108"/>
+      <c r="Z94" s="47">
+        <v>43198</v>
+      </c>
+      <c r="AA94" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD94" s="107"/>
       <c r="AE94" s="107"/>
       <c r="AF94" s="56"/>
-      <c r="AG94" s="107"/>
+      <c r="AG94" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH94" s="56"/>
       <c r="AI94" s="56"/>
       <c r="AJ94" s="56"/>
@@ -10010,14 +10252,23 @@
       <c r="AR94" s="56"/>
       <c r="AS94" s="56"/>
       <c r="AT94" s="56"/>
-      <c r="AU94" s="56"/>
+      <c r="AU94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV94" s="56"/>
       <c r="AW94" s="56"/>
       <c r="AX94" s="56"/>
       <c r="AY94" s="56"/>
-      <c r="AZ94" s="56"/>
+      <c r="AZ94" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA94" s="56"/>
-      <c r="BB94" s="56"/>
+      <c r="BB94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC94" s="56"/>
       <c r="BD94" s="56"/>
       <c r="BE94" s="56"/>
@@ -10047,14 +10298,24 @@
       <c r="V95" s="35"/>
       <c r="W95" s="37"/>
       <c r="X95" s="37"/>
-      <c r="Z95" s="106"/>
-      <c r="AA95" s="107"/>
-      <c r="AB95" s="56"/>
-      <c r="AC95" s="108"/>
+      <c r="Z95" s="47">
+        <v>43199</v>
+      </c>
+      <c r="AA95" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB95" s="49"/>
+      <c r="AC95" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD95" s="107"/>
       <c r="AE95" s="107"/>
       <c r="AF95" s="56"/>
-      <c r="AG95" s="107"/>
+      <c r="AG95" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH95" s="56"/>
       <c r="AI95" s="56"/>
       <c r="AJ95" s="56"/>
@@ -10068,14 +10329,23 @@
       <c r="AR95" s="56"/>
       <c r="AS95" s="56"/>
       <c r="AT95" s="56"/>
-      <c r="AU95" s="56"/>
+      <c r="AU95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV95" s="56"/>
       <c r="AW95" s="56"/>
       <c r="AX95" s="56"/>
       <c r="AY95" s="56"/>
-      <c r="AZ95" s="56"/>
+      <c r="AZ95" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA95" s="56"/>
-      <c r="BB95" s="56"/>
+      <c r="BB95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC95" s="56"/>
       <c r="BD95" s="56"/>
       <c r="BE95" s="56"/>
@@ -10105,14 +10375,24 @@
       <c r="V96" s="35"/>
       <c r="W96" s="37"/>
       <c r="X96" s="37"/>
-      <c r="Z96" s="106"/>
-      <c r="AA96" s="107"/>
-      <c r="AB96" s="56"/>
-      <c r="AC96" s="108"/>
+      <c r="Z96" s="47">
+        <v>43200</v>
+      </c>
+      <c r="AA96" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB96" s="49"/>
+      <c r="AC96" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD96" s="107"/>
       <c r="AE96" s="107"/>
       <c r="AF96" s="56"/>
-      <c r="AG96" s="107"/>
+      <c r="AG96" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH96" s="56"/>
       <c r="AI96" s="56"/>
       <c r="AJ96" s="56"/>
@@ -10126,14 +10406,23 @@
       <c r="AR96" s="56"/>
       <c r="AS96" s="56"/>
       <c r="AT96" s="56"/>
-      <c r="AU96" s="56"/>
+      <c r="AU96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV96" s="56"/>
       <c r="AW96" s="56"/>
       <c r="AX96" s="56"/>
       <c r="AY96" s="56"/>
-      <c r="AZ96" s="56"/>
+      <c r="AZ96" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA96" s="56"/>
-      <c r="BB96" s="56"/>
+      <c r="BB96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC96" s="56"/>
       <c r="BD96" s="56"/>
       <c r="BE96" s="56"/>
@@ -10163,14 +10452,24 @@
       <c r="V97" s="35"/>
       <c r="W97" s="37"/>
       <c r="X97" s="37"/>
-      <c r="Z97" s="106"/>
-      <c r="AA97" s="107"/>
-      <c r="AB97" s="56"/>
-      <c r="AC97" s="108"/>
+      <c r="Z97" s="47">
+        <v>43201</v>
+      </c>
+      <c r="AA97" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB97" s="49"/>
+      <c r="AC97" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD97" s="107"/>
       <c r="AE97" s="107"/>
       <c r="AF97" s="56"/>
-      <c r="AG97" s="107"/>
+      <c r="AG97" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH97" s="56"/>
       <c r="AI97" s="56"/>
       <c r="AJ97" s="56"/>
@@ -10184,14 +10483,23 @@
       <c r="AR97" s="56"/>
       <c r="AS97" s="56"/>
       <c r="AT97" s="56"/>
-      <c r="AU97" s="56"/>
+      <c r="AU97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV97" s="56"/>
       <c r="AW97" s="56"/>
       <c r="AX97" s="56"/>
       <c r="AY97" s="56"/>
-      <c r="AZ97" s="56"/>
+      <c r="AZ97" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA97" s="56"/>
-      <c r="BB97" s="56"/>
+      <c r="BB97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC97" s="56"/>
       <c r="BD97" s="56"/>
       <c r="BE97" s="56"/>
@@ -10221,14 +10529,24 @@
       <c r="V98" s="35"/>
       <c r="W98" s="37"/>
       <c r="X98" s="37"/>
-      <c r="Z98" s="106"/>
-      <c r="AA98" s="107"/>
-      <c r="AB98" s="56"/>
-      <c r="AC98" s="108"/>
+      <c r="Z98" s="47">
+        <v>43202</v>
+      </c>
+      <c r="AA98" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB98" s="49"/>
+      <c r="AC98" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD98" s="107"/>
       <c r="AE98" s="107"/>
       <c r="AF98" s="56"/>
-      <c r="AG98" s="107"/>
+      <c r="AG98" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH98" s="56"/>
       <c r="AI98" s="56"/>
       <c r="AJ98" s="56"/>
@@ -10242,14 +10560,23 @@
       <c r="AR98" s="56"/>
       <c r="AS98" s="56"/>
       <c r="AT98" s="56"/>
-      <c r="AU98" s="56"/>
+      <c r="AU98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV98" s="56"/>
       <c r="AW98" s="56"/>
       <c r="AX98" s="56"/>
       <c r="AY98" s="56"/>
-      <c r="AZ98" s="56"/>
+      <c r="AZ98" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA98" s="56"/>
-      <c r="BB98" s="56"/>
+      <c r="BB98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC98" s="56"/>
       <c r="BD98" s="56"/>
       <c r="BE98" s="56"/>
@@ -10279,14 +10606,24 @@
       <c r="V99" s="35"/>
       <c r="W99" s="37"/>
       <c r="X99" s="37"/>
-      <c r="Z99" s="106"/>
-      <c r="AA99" s="107"/>
-      <c r="AB99" s="56"/>
-      <c r="AC99" s="108"/>
+      <c r="Z99" s="47">
+        <v>43203</v>
+      </c>
+      <c r="AA99" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD99" s="107"/>
       <c r="AE99" s="107"/>
       <c r="AF99" s="56"/>
-      <c r="AG99" s="107"/>
+      <c r="AG99" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH99" s="56"/>
       <c r="AI99" s="56"/>
       <c r="AJ99" s="56"/>
@@ -10300,14 +10637,23 @@
       <c r="AR99" s="56"/>
       <c r="AS99" s="56"/>
       <c r="AT99" s="56"/>
-      <c r="AU99" s="56"/>
+      <c r="AU99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV99" s="56"/>
       <c r="AW99" s="56"/>
       <c r="AX99" s="56"/>
       <c r="AY99" s="56"/>
-      <c r="AZ99" s="56"/>
+      <c r="AZ99" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA99" s="56"/>
-      <c r="BB99" s="56"/>
+      <c r="BB99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC99" s="56"/>
       <c r="BD99" s="56"/>
       <c r="BE99" s="56"/>
@@ -10337,14 +10683,24 @@
       <c r="V100" s="35"/>
       <c r="W100" s="37"/>
       <c r="X100" s="37"/>
-      <c r="Z100" s="106"/>
-      <c r="AA100" s="107"/>
-      <c r="AB100" s="56"/>
-      <c r="AC100" s="108"/>
+      <c r="Z100" s="47">
+        <v>43204</v>
+      </c>
+      <c r="AA100" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB100" s="49"/>
+      <c r="AC100" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD100" s="107"/>
       <c r="AE100" s="107"/>
       <c r="AF100" s="56"/>
-      <c r="AG100" s="107"/>
+      <c r="AG100" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH100" s="56"/>
       <c r="AI100" s="56"/>
       <c r="AJ100" s="56"/>
@@ -10358,14 +10714,23 @@
       <c r="AR100" s="56"/>
       <c r="AS100" s="56"/>
       <c r="AT100" s="56"/>
-      <c r="AU100" s="56"/>
+      <c r="AU100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV100" s="56"/>
       <c r="AW100" s="56"/>
       <c r="AX100" s="56"/>
       <c r="AY100" s="56"/>
-      <c r="AZ100" s="56"/>
+      <c r="AZ100" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA100" s="56"/>
-      <c r="BB100" s="56"/>
+      <c r="BB100">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC100" s="56"/>
       <c r="BD100" s="56"/>
       <c r="BE100" s="56"/>
@@ -10395,14 +10760,24 @@
       <c r="V101" s="35"/>
       <c r="W101" s="37"/>
       <c r="X101" s="37"/>
-      <c r="Z101" s="106"/>
-      <c r="AA101" s="107"/>
-      <c r="AB101" s="56"/>
-      <c r="AC101" s="108"/>
+      <c r="Z101" s="47">
+        <v>43205</v>
+      </c>
+      <c r="AA101" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB101" s="49"/>
+      <c r="AC101" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD101" s="107"/>
       <c r="AE101" s="107"/>
       <c r="AF101" s="56"/>
-      <c r="AG101" s="107"/>
+      <c r="AG101" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH101" s="56"/>
       <c r="AI101" s="56"/>
       <c r="AJ101" s="56"/>
@@ -10416,14 +10791,23 @@
       <c r="AR101" s="56"/>
       <c r="AS101" s="56"/>
       <c r="AT101" s="56"/>
-      <c r="AU101" s="56"/>
+      <c r="AU101">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV101" s="56"/>
       <c r="AW101" s="56"/>
       <c r="AX101" s="56"/>
       <c r="AY101" s="56"/>
-      <c r="AZ101" s="56"/>
+      <c r="AZ101" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA101" s="56"/>
-      <c r="BB101" s="56"/>
+      <c r="BB101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC101" s="56"/>
       <c r="BD101" s="56"/>
       <c r="BE101" s="56"/>
@@ -10453,14 +10837,24 @@
       <c r="V102" s="35"/>
       <c r="W102" s="37"/>
       <c r="X102" s="37"/>
-      <c r="Z102" s="106"/>
-      <c r="AA102" s="107"/>
-      <c r="AB102" s="56"/>
-      <c r="AC102" s="108"/>
+      <c r="Z102" s="47">
+        <v>43206</v>
+      </c>
+      <c r="AA102" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB102" s="49"/>
+      <c r="AC102" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD102" s="107"/>
       <c r="AE102" s="107"/>
       <c r="AF102" s="56"/>
-      <c r="AG102" s="107"/>
+      <c r="AG102" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH102" s="56"/>
       <c r="AI102" s="56"/>
       <c r="AJ102" s="56"/>
@@ -10474,14 +10868,23 @@
       <c r="AR102" s="56"/>
       <c r="AS102" s="56"/>
       <c r="AT102" s="56"/>
-      <c r="AU102" s="56"/>
+      <c r="AU102">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV102" s="56"/>
       <c r="AW102" s="56"/>
       <c r="AX102" s="56"/>
       <c r="AY102" s="56"/>
-      <c r="AZ102" s="56"/>
+      <c r="AZ102" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA102" s="56"/>
-      <c r="BB102" s="56"/>
+      <c r="BB102">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC102" s="56"/>
       <c r="BD102" s="56"/>
       <c r="BE102" s="56"/>
@@ -10511,14 +10914,24 @@
       <c r="V103" s="35"/>
       <c r="W103" s="37"/>
       <c r="X103" s="37"/>
-      <c r="Z103" s="106"/>
-      <c r="AA103" s="107"/>
-      <c r="AB103" s="56"/>
-      <c r="AC103" s="108"/>
+      <c r="Z103" s="47">
+        <v>43207</v>
+      </c>
+      <c r="AA103" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB103" s="49"/>
+      <c r="AC103" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD103" s="107"/>
       <c r="AE103" s="107"/>
       <c r="AF103" s="56"/>
-      <c r="AG103" s="107"/>
+      <c r="AG103" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH103" s="56"/>
       <c r="AI103" s="56"/>
       <c r="AJ103" s="56"/>
@@ -10532,14 +10945,23 @@
       <c r="AR103" s="56"/>
       <c r="AS103" s="56"/>
       <c r="AT103" s="56"/>
-      <c r="AU103" s="56"/>
+      <c r="AU103">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV103" s="56"/>
       <c r="AW103" s="56"/>
       <c r="AX103" s="56"/>
       <c r="AY103" s="56"/>
-      <c r="AZ103" s="56"/>
+      <c r="AZ103" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA103" s="56"/>
-      <c r="BB103" s="56"/>
+      <c r="BB103">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC103" s="56"/>
       <c r="BD103" s="56"/>
       <c r="BE103" s="56"/>
@@ -10569,14 +10991,24 @@
       <c r="V104" s="35"/>
       <c r="W104" s="37"/>
       <c r="X104" s="37"/>
-      <c r="Z104" s="106"/>
-      <c r="AA104" s="107"/>
-      <c r="AB104" s="56"/>
-      <c r="AC104" s="108"/>
+      <c r="Z104" s="47">
+        <v>43208</v>
+      </c>
+      <c r="AA104" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB104" s="49"/>
+      <c r="AC104" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD104" s="107"/>
       <c r="AE104" s="107"/>
       <c r="AF104" s="56"/>
-      <c r="AG104" s="107"/>
+      <c r="AG104" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH104" s="56"/>
       <c r="AI104" s="56"/>
       <c r="AJ104" s="56"/>
@@ -10590,14 +11022,23 @@
       <c r="AR104" s="56"/>
       <c r="AS104" s="56"/>
       <c r="AT104" s="56"/>
-      <c r="AU104" s="56"/>
+      <c r="AU104">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV104" s="56"/>
       <c r="AW104" s="56"/>
       <c r="AX104" s="56"/>
       <c r="AY104" s="56"/>
-      <c r="AZ104" s="56"/>
+      <c r="AZ104" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA104" s="56"/>
-      <c r="BB104" s="56"/>
+      <c r="BB104">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC104" s="56"/>
       <c r="BD104" s="56"/>
       <c r="BE104" s="56"/>
@@ -10627,14 +11068,24 @@
       <c r="V105" s="35"/>
       <c r="W105" s="37"/>
       <c r="X105" s="37"/>
-      <c r="Z105" s="106"/>
-      <c r="AA105" s="107"/>
-      <c r="AB105" s="56"/>
-      <c r="AC105" s="108"/>
+      <c r="Z105" s="47">
+        <v>43209</v>
+      </c>
+      <c r="AA105" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB105" s="49"/>
+      <c r="AC105" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD105" s="107"/>
       <c r="AE105" s="107"/>
       <c r="AF105" s="56"/>
-      <c r="AG105" s="107"/>
+      <c r="AG105" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH105" s="56"/>
       <c r="AI105" s="56"/>
       <c r="AJ105" s="56"/>
@@ -10648,14 +11099,23 @@
       <c r="AR105" s="56"/>
       <c r="AS105" s="56"/>
       <c r="AT105" s="56"/>
-      <c r="AU105" s="56"/>
+      <c r="AU105">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV105" s="56"/>
       <c r="AW105" s="56"/>
       <c r="AX105" s="56"/>
       <c r="AY105" s="56"/>
-      <c r="AZ105" s="56"/>
+      <c r="AZ105" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA105" s="56"/>
-      <c r="BB105" s="56"/>
+      <c r="BB105">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC105" s="56"/>
       <c r="BD105" s="56"/>
       <c r="BE105" s="56"/>
@@ -10685,14 +11145,24 @@
       <c r="V106" s="35"/>
       <c r="W106" s="37"/>
       <c r="X106" s="37"/>
-      <c r="Z106" s="106"/>
-      <c r="AA106" s="107"/>
-      <c r="AB106" s="56"/>
-      <c r="AC106" s="108"/>
+      <c r="Z106" s="47">
+        <v>43210</v>
+      </c>
+      <c r="AA106" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB106" s="49"/>
+      <c r="AC106" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD106" s="107"/>
       <c r="AE106" s="107"/>
       <c r="AF106" s="56"/>
-      <c r="AG106" s="107"/>
+      <c r="AG106" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH106" s="56"/>
       <c r="AI106" s="56"/>
       <c r="AJ106" s="56"/>
@@ -10706,14 +11176,23 @@
       <c r="AR106" s="56"/>
       <c r="AS106" s="56"/>
       <c r="AT106" s="56"/>
-      <c r="AU106" s="56"/>
+      <c r="AU106">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV106" s="56"/>
       <c r="AW106" s="56"/>
       <c r="AX106" s="56"/>
       <c r="AY106" s="56"/>
-      <c r="AZ106" s="56"/>
+      <c r="AZ106" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA106" s="56"/>
-      <c r="BB106" s="56"/>
+      <c r="BB106">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC106" s="56"/>
       <c r="BD106" s="56"/>
       <c r="BE106" s="56"/>
@@ -10743,14 +11222,24 @@
       <c r="V107" s="35"/>
       <c r="W107" s="37"/>
       <c r="X107" s="37"/>
-      <c r="Z107" s="106"/>
-      <c r="AA107" s="107"/>
-      <c r="AB107" s="56"/>
-      <c r="AC107" s="108"/>
+      <c r="Z107" s="47">
+        <v>43211</v>
+      </c>
+      <c r="AA107" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB107" s="49"/>
+      <c r="AC107" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD107" s="107"/>
       <c r="AE107" s="107"/>
       <c r="AF107" s="56"/>
-      <c r="AG107" s="107"/>
+      <c r="AG107" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH107" s="56"/>
       <c r="AI107" s="56"/>
       <c r="AJ107" s="56"/>
@@ -10764,14 +11253,23 @@
       <c r="AR107" s="56"/>
       <c r="AS107" s="56"/>
       <c r="AT107" s="56"/>
-      <c r="AU107" s="56"/>
+      <c r="AU107">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV107" s="56"/>
       <c r="AW107" s="56"/>
       <c r="AX107" s="56"/>
       <c r="AY107" s="56"/>
-      <c r="AZ107" s="56"/>
+      <c r="AZ107" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA107" s="56"/>
-      <c r="BB107" s="56"/>
+      <c r="BB107">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC107" s="56"/>
       <c r="BD107" s="56"/>
       <c r="BE107" s="56"/>
@@ -10801,14 +11299,24 @@
       <c r="V108" s="35"/>
       <c r="W108" s="37"/>
       <c r="X108" s="37"/>
-      <c r="Z108" s="106"/>
-      <c r="AA108" s="107"/>
-      <c r="AB108" s="56"/>
-      <c r="AC108" s="108"/>
+      <c r="Z108" s="47">
+        <v>43212</v>
+      </c>
+      <c r="AA108" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB108" s="49"/>
+      <c r="AC108" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD108" s="107"/>
       <c r="AE108" s="107"/>
       <c r="AF108" s="56"/>
-      <c r="AG108" s="107"/>
+      <c r="AG108" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH108" s="56"/>
       <c r="AI108" s="56"/>
       <c r="AJ108" s="56"/>
@@ -10822,14 +11330,23 @@
       <c r="AR108" s="56"/>
       <c r="AS108" s="56"/>
       <c r="AT108" s="56"/>
-      <c r="AU108" s="56"/>
+      <c r="AU108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV108" s="56"/>
       <c r="AW108" s="56"/>
       <c r="AX108" s="56"/>
       <c r="AY108" s="56"/>
-      <c r="AZ108" s="56"/>
+      <c r="AZ108" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA108" s="56"/>
-      <c r="BB108" s="56"/>
+      <c r="BB108">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC108" s="56"/>
       <c r="BD108" s="56"/>
       <c r="BE108" s="56"/>
@@ -10859,14 +11376,24 @@
       <c r="V109" s="35"/>
       <c r="W109" s="37"/>
       <c r="X109" s="37"/>
-      <c r="Z109" s="106"/>
-      <c r="AA109" s="107"/>
-      <c r="AB109" s="56"/>
-      <c r="AC109" s="108"/>
+      <c r="Z109" s="47">
+        <v>43213</v>
+      </c>
+      <c r="AA109" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB109" s="49"/>
+      <c r="AC109" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD109" s="107"/>
       <c r="AE109" s="107"/>
       <c r="AF109" s="56"/>
-      <c r="AG109" s="107"/>
+      <c r="AG109" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH109" s="56"/>
       <c r="AI109" s="56"/>
       <c r="AJ109" s="56"/>
@@ -10880,14 +11407,23 @@
       <c r="AR109" s="56"/>
       <c r="AS109" s="56"/>
       <c r="AT109" s="56"/>
-      <c r="AU109" s="56"/>
+      <c r="AU109">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV109" s="56"/>
       <c r="AW109" s="56"/>
       <c r="AX109" s="56"/>
       <c r="AY109" s="56"/>
-      <c r="AZ109" s="56"/>
+      <c r="AZ109" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA109" s="56"/>
-      <c r="BB109" s="56"/>
+      <c r="BB109">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC109" s="56"/>
       <c r="BD109" s="56"/>
       <c r="BE109" s="56"/>
@@ -10917,14 +11453,24 @@
       <c r="V110" s="35"/>
       <c r="W110" s="37"/>
       <c r="X110" s="37"/>
-      <c r="Z110" s="106"/>
-      <c r="AA110" s="107"/>
-      <c r="AB110" s="56"/>
-      <c r="AC110" s="108"/>
+      <c r="Z110" s="47">
+        <v>43214</v>
+      </c>
+      <c r="AA110" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB110" s="49"/>
+      <c r="AC110" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD110" s="107"/>
       <c r="AE110" s="107"/>
       <c r="AF110" s="56"/>
-      <c r="AG110" s="107"/>
+      <c r="AG110" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH110" s="56"/>
       <c r="AI110" s="56"/>
       <c r="AJ110" s="56"/>
@@ -10938,14 +11484,23 @@
       <c r="AR110" s="56"/>
       <c r="AS110" s="56"/>
       <c r="AT110" s="56"/>
-      <c r="AU110" s="56"/>
+      <c r="AU110">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV110" s="56"/>
       <c r="AW110" s="56"/>
       <c r="AX110" s="56"/>
       <c r="AY110" s="56"/>
-      <c r="AZ110" s="56"/>
+      <c r="AZ110" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA110" s="56"/>
-      <c r="BB110" s="56"/>
+      <c r="BB110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC110" s="56"/>
       <c r="BD110" s="56"/>
       <c r="BE110" s="56"/>
@@ -10975,14 +11530,24 @@
       <c r="V111" s="35"/>
       <c r="W111" s="37"/>
       <c r="X111" s="37"/>
-      <c r="Z111" s="106"/>
-      <c r="AA111" s="107"/>
-      <c r="AB111" s="56"/>
-      <c r="AC111" s="108"/>
+      <c r="Z111" s="47">
+        <v>43215</v>
+      </c>
+      <c r="AA111" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB111" s="49"/>
+      <c r="AC111" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD111" s="107"/>
       <c r="AE111" s="107"/>
       <c r="AF111" s="56"/>
-      <c r="AG111" s="107"/>
+      <c r="AG111" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH111" s="56"/>
       <c r="AI111" s="56"/>
       <c r="AJ111" s="56"/>
@@ -10996,14 +11561,23 @@
       <c r="AR111" s="56"/>
       <c r="AS111" s="56"/>
       <c r="AT111" s="56"/>
-      <c r="AU111" s="56"/>
+      <c r="AU111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV111" s="56"/>
       <c r="AW111" s="56"/>
       <c r="AX111" s="56"/>
       <c r="AY111" s="56"/>
-      <c r="AZ111" s="56"/>
+      <c r="AZ111" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA111" s="56"/>
-      <c r="BB111" s="56"/>
+      <c r="BB111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC111" s="56"/>
       <c r="BD111" s="56"/>
       <c r="BE111" s="56"/>
@@ -11033,14 +11607,24 @@
       <c r="V112" s="35"/>
       <c r="W112" s="37"/>
       <c r="X112" s="37"/>
-      <c r="Z112" s="106"/>
-      <c r="AA112" s="107"/>
-      <c r="AB112" s="56"/>
-      <c r="AC112" s="108"/>
+      <c r="Z112" s="47">
+        <v>43216</v>
+      </c>
+      <c r="AA112" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB112" s="49"/>
+      <c r="AC112" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD112" s="107"/>
       <c r="AE112" s="107"/>
       <c r="AF112" s="56"/>
-      <c r="AG112" s="107"/>
+      <c r="AG112" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH112" s="56"/>
       <c r="AI112" s="56"/>
       <c r="AJ112" s="56"/>
@@ -11054,14 +11638,23 @@
       <c r="AR112" s="56"/>
       <c r="AS112" s="56"/>
       <c r="AT112" s="56"/>
-      <c r="AU112" s="56"/>
+      <c r="AU112">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV112" s="56"/>
       <c r="AW112" s="56"/>
       <c r="AX112" s="56"/>
       <c r="AY112" s="56"/>
-      <c r="AZ112" s="56"/>
+      <c r="AZ112" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA112" s="56"/>
-      <c r="BB112" s="56"/>
+      <c r="BB112">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC112" s="56"/>
       <c r="BD112" s="56"/>
       <c r="BE112" s="56"/>
@@ -11091,14 +11684,24 @@
       <c r="V113" s="35"/>
       <c r="W113" s="37"/>
       <c r="X113" s="37"/>
-      <c r="Z113" s="106"/>
-      <c r="AA113" s="107"/>
-      <c r="AB113" s="56"/>
-      <c r="AC113" s="108"/>
+      <c r="Z113" s="47">
+        <v>43217</v>
+      </c>
+      <c r="AA113" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB113" s="49"/>
+      <c r="AC113" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD113" s="107"/>
       <c r="AE113" s="107"/>
       <c r="AF113" s="56"/>
-      <c r="AG113" s="107"/>
+      <c r="AG113" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH113" s="56"/>
       <c r="AI113" s="56"/>
       <c r="AJ113" s="56"/>
@@ -11112,14 +11715,23 @@
       <c r="AR113" s="56"/>
       <c r="AS113" s="56"/>
       <c r="AT113" s="56"/>
-      <c r="AU113" s="56"/>
+      <c r="AU113">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV113" s="56"/>
       <c r="AW113" s="56"/>
       <c r="AX113" s="56"/>
       <c r="AY113" s="56"/>
-      <c r="AZ113" s="56"/>
+      <c r="AZ113" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA113" s="56"/>
-      <c r="BB113" s="56"/>
+      <c r="BB113">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC113" s="56"/>
       <c r="BD113" s="56"/>
       <c r="BE113" s="56"/>
@@ -11149,14 +11761,24 @@
       <c r="V114" s="35"/>
       <c r="W114" s="37"/>
       <c r="X114" s="37"/>
-      <c r="Z114" s="106"/>
-      <c r="AA114" s="107"/>
-      <c r="AB114" s="56"/>
-      <c r="AC114" s="108"/>
+      <c r="Z114" s="47">
+        <v>43218</v>
+      </c>
+      <c r="AA114" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB114" s="49"/>
+      <c r="AC114" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AD114" s="107"/>
       <c r="AE114" s="107"/>
       <c r="AF114" s="56"/>
-      <c r="AG114" s="107"/>
+      <c r="AG114" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AH114" s="56"/>
       <c r="AI114" s="56"/>
       <c r="AJ114" s="56"/>
@@ -11170,14 +11792,23 @@
       <c r="AR114" s="56"/>
       <c r="AS114" s="56"/>
       <c r="AT114" s="56"/>
-      <c r="AU114" s="56"/>
+      <c r="AU114">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV114" s="56"/>
       <c r="AW114" s="56"/>
       <c r="AX114" s="56"/>
       <c r="AY114" s="56"/>
-      <c r="AZ114" s="56"/>
+      <c r="AZ114" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA114" s="56"/>
-      <c r="BB114" s="56"/>
+      <c r="BB114">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC114" s="56"/>
       <c r="BD114" s="56"/>
       <c r="BE114" s="56"/>
@@ -11228,14 +11859,23 @@
       <c r="AR115" s="56"/>
       <c r="AS115" s="56"/>
       <c r="AT115" s="56"/>
-      <c r="AU115" s="56"/>
+      <c r="AU115">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV115" s="56"/>
       <c r="AW115" s="56"/>
       <c r="AX115" s="56"/>
       <c r="AY115" s="56"/>
-      <c r="AZ115" s="56"/>
+      <c r="AZ115" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA115" s="56"/>
-      <c r="BB115" s="56"/>
+      <c r="BB115">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC115" s="56"/>
       <c r="BD115" s="56"/>
       <c r="BE115" s="56"/>
@@ -11286,14 +11926,23 @@
       <c r="AR116" s="56"/>
       <c r="AS116" s="56"/>
       <c r="AT116" s="56"/>
-      <c r="AU116" s="56"/>
+      <c r="AU116">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV116" s="56"/>
       <c r="AW116" s="56"/>
       <c r="AX116" s="56"/>
       <c r="AY116" s="56"/>
-      <c r="AZ116" s="56"/>
+      <c r="AZ116" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA116" s="56"/>
-      <c r="BB116" s="56"/>
+      <c r="BB116">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC116" s="56"/>
       <c r="BD116" s="56"/>
       <c r="BE116" s="56"/>
@@ -11344,14 +11993,23 @@
       <c r="AR117" s="56"/>
       <c r="AS117" s="56"/>
       <c r="AT117" s="56"/>
-      <c r="AU117" s="56"/>
+      <c r="AU117">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV117" s="56"/>
       <c r="AW117" s="56"/>
       <c r="AX117" s="56"/>
       <c r="AY117" s="56"/>
-      <c r="AZ117" s="56"/>
+      <c r="AZ117" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA117" s="56"/>
-      <c r="BB117" s="56"/>
+      <c r="BB117">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC117" s="56"/>
       <c r="BD117" s="56"/>
       <c r="BE117" s="56"/>
@@ -11402,14 +12060,23 @@
       <c r="AR118" s="56"/>
       <c r="AS118" s="56"/>
       <c r="AT118" s="56"/>
-      <c r="AU118" s="56"/>
+      <c r="AU118">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV118" s="56"/>
       <c r="AW118" s="56"/>
       <c r="AX118" s="56"/>
       <c r="AY118" s="56"/>
-      <c r="AZ118" s="56"/>
+      <c r="AZ118" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA118" s="56"/>
-      <c r="BB118" s="56"/>
+      <c r="BB118">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC118" s="56"/>
       <c r="BD118" s="56"/>
       <c r="BE118" s="56"/>
@@ -11460,14 +12127,23 @@
       <c r="AR119" s="56"/>
       <c r="AS119" s="56"/>
       <c r="AT119" s="56"/>
-      <c r="AU119" s="56"/>
+      <c r="AU119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV119" s="56"/>
       <c r="AW119" s="56"/>
       <c r="AX119" s="56"/>
       <c r="AY119" s="56"/>
-      <c r="AZ119" s="56"/>
+      <c r="AZ119" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA119" s="56"/>
-      <c r="BB119" s="56"/>
+      <c r="BB119">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC119" s="56"/>
       <c r="BD119" s="56"/>
       <c r="BE119" s="56"/>
@@ -11518,14 +12194,23 @@
       <c r="AR120" s="56"/>
       <c r="AS120" s="56"/>
       <c r="AT120" s="56"/>
-      <c r="AU120" s="56"/>
+      <c r="AU120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AV120" s="56"/>
       <c r="AW120" s="56"/>
       <c r="AX120" s="56"/>
       <c r="AY120" s="56"/>
-      <c r="AZ120" s="56"/>
+      <c r="AZ120" s="56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="BA120" s="56"/>
-      <c r="BB120" s="56"/>
+      <c r="BB120">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="BC120" s="56"/>
       <c r="BD120" s="56"/>
       <c r="BE120" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="309">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -942,6 +942,15 @@
   </si>
   <si>
     <t>Tescoco Visita</t>
+  </si>
+  <si>
+    <t>Edgar y Uri son OSOM :3</t>
+  </si>
+  <si>
+    <t>Café para el lab</t>
+  </si>
+  <si>
+    <t>Uri</t>
   </si>
 </sst>
 </file>
@@ -1807,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="AP67" workbookViewId="0">
+      <selection activeCell="BC92" sqref="BC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2096,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>39778</v>
+        <v>40272</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2160,7 +2169,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2266,7 +2275,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>945</v>
+        <v>1489</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2354,7 +2363,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>945</v>
+        <v>1489</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2522,7 +2531,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33870</v>
+        <v>33820</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -4324,11 +4333,11 @@
         <v>1800</v>
       </c>
       <c r="Q26" s="22">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="R26" s="20">
         <f>P26-Q26</f>
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T26" s="36">
         <v>43156</v>
@@ -5230,10 +5239,16 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="T35" s="36"/>
-      <c r="U35" s="35"/>
+      <c r="T35" s="36">
+        <v>43162</v>
+      </c>
+      <c r="U35" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="V35" s="35"/>
-      <c r="W35" s="37"/>
+      <c r="W35" s="37">
+        <v>200</v>
+      </c>
       <c r="X35" s="37"/>
       <c r="Z35" s="47">
         <v>43139</v>
@@ -5321,10 +5336,16 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T36" s="36"/>
-      <c r="U36" s="35"/>
+      <c r="T36" s="36">
+        <v>43162</v>
+      </c>
+      <c r="U36" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="V36" s="35"/>
-      <c r="W36" s="37"/>
+      <c r="W36" s="37">
+        <v>250</v>
+      </c>
       <c r="X36" s="37"/>
       <c r="Z36" s="47">
         <v>43140</v>
@@ -9811,7 +9832,7 @@
       </c>
       <c r="AC89" s="41">
         <f t="shared" si="12"/>
-        <v>-41</v>
+        <v>-61</v>
       </c>
       <c r="AD89" s="107">
         <v>80</v>
@@ -9820,7 +9841,7 @@
       <c r="AF89" s="56"/>
       <c r="AG89" s="51">
         <f t="shared" si="10"/>
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="AH89" s="56">
         <v>60</v>
@@ -9828,8 +9849,12 @@
       <c r="AI89" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="AJ89" s="56"/>
-      <c r="AK89" s="56"/>
+      <c r="AJ89" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK89" s="56">
+        <v>20</v>
+      </c>
       <c r="AL89" s="56"/>
       <c r="AM89" s="56"/>
       <c r="AN89" s="56"/>
@@ -9999,17 +10024,27 @@
         <f t="shared" si="12"/>
         <v>-11</v>
       </c>
-      <c r="AD91" s="107"/>
+      <c r="AD91" s="107">
+        <v>80</v>
+      </c>
       <c r="AE91" s="107"/>
       <c r="AF91" s="56"/>
       <c r="AG91" s="51">
         <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="AH91" s="56"/>
-      <c r="AI91" s="56"/>
-      <c r="AJ91" s="56"/>
-      <c r="AK91" s="56"/>
+        <v>91</v>
+      </c>
+      <c r="AH91" s="56">
+        <v>70</v>
+      </c>
+      <c r="AI91" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ91" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK91" s="56">
+        <v>10</v>
+      </c>
       <c r="AL91" s="56"/>
       <c r="AM91" s="56"/>
       <c r="AN91" s="56"/>
@@ -10024,12 +10059,16 @@
         <v>11</v>
       </c>
       <c r="AV91" s="56"/>
-      <c r="AW91" s="56"/>
+      <c r="AW91" s="56">
+        <v>2</v>
+      </c>
       <c r="AX91" s="56"/>
-      <c r="AY91" s="56"/>
+      <c r="AY91" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ91" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA91" s="56"/>
       <c r="BB91">
@@ -10073,17 +10112,25 @@
       <c r="AA92" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB92" s="49"/>
+      <c r="AB92" s="49" t="s">
+        <v>306</v>
+      </c>
       <c r="AC92" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD92" s="107"/>
-      <c r="AE92" s="107"/>
-      <c r="AF92" s="56"/>
+        <v>114</v>
+      </c>
+      <c r="AD92" s="107">
+        <v>80</v>
+      </c>
+      <c r="AE92" s="107">
+        <v>50</v>
+      </c>
+      <c r="AF92" s="56" t="s">
+        <v>308</v>
+      </c>
       <c r="AG92" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH92" s="56"/>
       <c r="AI92" s="56"/>
@@ -10100,9 +10147,11 @@
       <c r="AT92" s="56"/>
       <c r="AU92">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV92" s="56"/>
+        <v>16</v>
+      </c>
+      <c r="AV92" s="56">
+        <v>16</v>
+      </c>
       <c r="AW92" s="56"/>
       <c r="AX92" s="56"/>
       <c r="AY92" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="314">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -951,6 +951,21 @@
   </si>
   <si>
     <t>Uri</t>
+  </si>
+  <si>
+    <t>Niño; Taxi</t>
+  </si>
+  <si>
+    <t>Churros, Boing</t>
+  </si>
+  <si>
+    <t>Mariana 1</t>
+  </si>
+  <si>
+    <t>El moro</t>
+  </si>
+  <si>
+    <t>Bistecates</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,6 +1315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD52F8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1313,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1520,6 +1541,10 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP67" workbookViewId="0">
-      <selection activeCell="BC92" sqref="BC92"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2121,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40272</v>
+        <v>40545</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2275,7 +2300,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1489</v>
+        <v>1762</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2363,7 +2388,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1489</v>
+        <v>1762</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -10117,7 +10142,7 @@
       </c>
       <c r="AC92" s="41">
         <f t="shared" si="12"/>
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="AD92" s="107">
         <v>80</v>
@@ -10130,10 +10155,14 @@
       </c>
       <c r="AG92" s="51">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="AH92" s="56"/>
-      <c r="AI92" s="56"/>
+        <v>96</v>
+      </c>
+      <c r="AH92" s="56">
+        <v>80</v>
+      </c>
+      <c r="AI92" s="56" t="s">
+        <v>313</v>
+      </c>
       <c r="AJ92" s="56"/>
       <c r="AK92" s="56"/>
       <c r="AL92" s="56"/>
@@ -10199,23 +10228,35 @@
       <c r="AA93" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB93" s="49"/>
+      <c r="AB93" s="49" t="s">
+        <v>312</v>
+      </c>
       <c r="AC93" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD93" s="107"/>
+        <v>-70</v>
+      </c>
+      <c r="AD93" s="107">
+        <v>120</v>
+      </c>
       <c r="AE93" s="107"/>
       <c r="AF93" s="56"/>
       <c r="AG93" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH93" s="56"/>
+        <v>190</v>
+      </c>
+      <c r="AH93" s="56">
+        <v>100</v>
+      </c>
       <c r="AI93" s="56"/>
-      <c r="AJ93" s="56"/>
-      <c r="AK93" s="102"/>
-      <c r="AL93" s="56"/>
+      <c r="AJ93" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK93" s="95">
+        <v>50</v>
+      </c>
+      <c r="AL93" s="56">
+        <v>20</v>
+      </c>
       <c r="AM93" s="56"/>
       <c r="AN93" s="56"/>
       <c r="AO93" s="56"/>
@@ -10226,7 +10267,7 @@
       <c r="AT93" s="56"/>
       <c r="AU93">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV93" s="56"/>
       <c r="AW93" s="56"/>
@@ -10236,10 +10277,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA93" s="56"/>
+      <c r="BA93" s="56">
+        <v>4</v>
+      </c>
       <c r="BB93">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC93" s="56"/>
       <c r="BD93" s="56"/>
@@ -10276,23 +10319,33 @@
       <c r="AA94" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB94" s="49"/>
+      <c r="AB94" s="49" t="s">
+        <v>311</v>
+      </c>
       <c r="AC94" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="AD94" s="107"/>
-      <c r="AE94" s="107"/>
+      <c r="AE94" s="122">
+        <v>500</v>
+      </c>
       <c r="AF94" s="56"/>
       <c r="AG94" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AH94" s="56"/>
       <c r="AI94" s="56"/>
-      <c r="AJ94" s="56"/>
-      <c r="AK94" s="56"/>
-      <c r="AL94" s="56"/>
+      <c r="AJ94" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK94" s="123">
+        <v>60</v>
+      </c>
+      <c r="AL94" s="56">
+        <v>17</v>
+      </c>
       <c r="AM94" s="56"/>
       <c r="AN94" s="56"/>
       <c r="AO94" s="56"/>

--- a/Finanzas/1_Ene-Feb-Mar_2018.xlsx
+++ b/Finanzas/1_Ene-Feb-Mar_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="324">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -950,9 +950,6 @@
     <t>Café para el lab</t>
   </si>
   <si>
-    <t>Uri</t>
-  </si>
-  <si>
     <t>Niño; Taxi</t>
   </si>
   <si>
@@ -966,6 +963,39 @@
   </si>
   <si>
     <t>Bistecates</t>
+  </si>
+  <si>
+    <t>Cita preoperatoria</t>
+  </si>
+  <si>
+    <t>Janneth Casa</t>
+  </si>
+  <si>
+    <t>Edgar integrales</t>
+  </si>
+  <si>
+    <t>Pago Pau FINAL</t>
+  </si>
+  <si>
+    <t>Janneth</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase 1 </t>
+  </si>
+  <si>
+    <t>Uri y Edgar</t>
+  </si>
+  <si>
+    <t>Maíz, Tarjeta Metro</t>
+  </si>
+  <si>
+    <t>Clases de manejo</t>
+  </si>
+  <si>
+    <t>17 ene - Mamá</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1571,8 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1553,11 +1581,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
       <color rgb="FFD52F8E"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FF33CC33"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCFCFCF"/>
       <color rgb="FFF6F7C9"/>
@@ -1841,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,6 +1885,7 @@
     <col min="27" max="27" width="6.42578125" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" customWidth="1"/>
     <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" customWidth="1"/>
     <col min="47" max="47" width="13.7109375" customWidth="1"/>
     <col min="48" max="51" width="13.140625" customWidth="1"/>
     <col min="52" max="52" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2121,7 +2150,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40545</v>
+        <v>39093</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2194,7 +2223,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2300,7 +2329,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1762</v>
+        <v>310</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2388,7 +2417,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1762</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -2398,7 +2427,7 @@
       <c r="S7" s="116"/>
       <c r="T7" s="118">
         <f>E9</f>
-        <v>9660</v>
+        <v>9960</v>
       </c>
       <c r="Z7" s="47">
         <v>43111</v>
@@ -2536,7 +2565,7 @@
       <c r="D9" s="61"/>
       <c r="E9" s="44">
         <f>SUM(E10:E500)</f>
-        <v>9660</v>
+        <v>9960</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
@@ -2755,11 +2784,11 @@
         <v>3700</v>
       </c>
       <c r="D11">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="E11">
         <f>C11-D11</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="99">
         <v>43108</v>
@@ -3239,10 +3268,18 @@
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15">
+        <v>1300</v>
+      </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="99">
         <v>43123</v>
@@ -5265,7 +5302,7 @@
         <v>30</v>
       </c>
       <c r="T35" s="36">
-        <v>43162</v>
+        <v>43193</v>
       </c>
       <c r="U35" s="35" t="s">
         <v>24</v>
@@ -5362,7 +5399,7 @@
         <v>100</v>
       </c>
       <c r="T36" s="36">
-        <v>43162</v>
+        <v>43193</v>
       </c>
       <c r="U36" s="35" t="s">
         <v>106</v>
@@ -5457,10 +5494,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="37"/>
+      <c r="T37" s="36">
+        <v>43198</v>
+      </c>
+      <c r="U37" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="V37" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="W37" s="37">
+        <v>500</v>
+      </c>
       <c r="X37" s="37"/>
       <c r="Z37" s="47">
         <v>43141</v>
@@ -5530,10 +5575,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T38" s="36"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="37"/>
+      <c r="T38" s="36">
+        <v>43198</v>
+      </c>
+      <c r="U38" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="V38" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="W38" s="37">
+        <v>250</v>
+      </c>
       <c r="X38" s="37"/>
       <c r="Z38" s="47">
         <v>43142</v>
@@ -10142,16 +10195,16 @@
       </c>
       <c r="AC92" s="41">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="AD92" s="107">
         <v>80</v>
       </c>
       <c r="AE92" s="107">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AF92" s="56" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AG92" s="51">
         <f t="shared" si="10"/>
@@ -10161,7 +10214,7 @@
         <v>80</v>
       </c>
       <c r="AI92" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AJ92" s="56"/>
       <c r="AK92" s="56"/>
@@ -10229,7 +10282,7 @@
         <v>70</v>
       </c>
       <c r="AB93" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC93" s="41">
         <f t="shared" si="12"/>
@@ -10249,7 +10302,7 @@
       </c>
       <c r="AI93" s="56"/>
       <c r="AJ93" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK93" s="95">
         <v>50</v>
@@ -10320,16 +10373,14 @@
         <v>71</v>
       </c>
       <c r="AB94" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AC94" s="41">
         <f t="shared" si="12"/>
-        <v>423</v>
+        <v>-77</v>
       </c>
       <c r="AD94" s="107"/>
-      <c r="AE94" s="122">
-        <v>500</v>
-      </c>
+      <c r="AE94" s="107"/>
       <c r="AF94" s="56"/>
       <c r="AG94" s="51">
         <f t="shared" si="10"/>
@@ -10337,10 +10388,10 @@
       </c>
       <c r="AH94" s="56"/>
       <c r="AI94" s="56"/>
-      <c r="AJ94" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK94" s="123">
+      <c r="AJ94" s="122" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK94" s="122">
         <v>60</v>
       </c>
       <c r="AL94" s="56">
@@ -10406,20 +10457,28 @@
       <c r="AA95" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB95" s="49"/>
+      <c r="AB95" s="49" t="s">
+        <v>314</v>
+      </c>
       <c r="AC95" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD95" s="107"/>
+        <v>48</v>
+      </c>
+      <c r="AD95" s="107">
+        <v>120</v>
+      </c>
       <c r="AE95" s="107"/>
       <c r="AF95" s="56"/>
       <c r="AG95" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH95" s="56"/>
-      <c r="AI95" s="56"/>
+        <v>72</v>
+      </c>
+      <c r="AH95" s="56">
+        <v>60</v>
+      </c>
+      <c r="AI95" s="56" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ95" s="56"/>
       <c r="AK95" s="56"/>
       <c r="AL95" s="56"/>
@@ -10433,22 +10492,26 @@
       <c r="AT95" s="56"/>
       <c r="AU95">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV95" s="56"/>
       <c r="AW95" s="56"/>
       <c r="AX95" s="56"/>
-      <c r="AY95" s="56"/>
+      <c r="AY95" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ95" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA95" s="56"/>
       <c r="BB95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC95" s="56"/>
+      <c r="BC95" s="56">
+        <v>12</v>
+      </c>
       <c r="BD95" s="56"/>
       <c r="BE95" s="56"/>
       <c r="BF95" s="56"/>
@@ -10483,23 +10546,37 @@
       <c r="AA96" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB96" s="49"/>
+      <c r="AB96" s="49" t="s">
+        <v>313</v>
+      </c>
       <c r="AC96" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD96" s="107"/>
+        <v>-860</v>
+      </c>
+      <c r="AD96" s="107">
+        <v>80</v>
+      </c>
       <c r="AE96" s="107"/>
       <c r="AF96" s="56"/>
       <c r="AG96" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH96" s="56"/>
-      <c r="AI96" s="56"/>
-      <c r="AJ96" s="56"/>
-      <c r="AK96" s="56"/>
-      <c r="AL96" s="56"/>
+        <v>940</v>
+      </c>
+      <c r="AH96" s="56">
+        <v>900</v>
+      </c>
+      <c r="AI96" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ96" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK96" s="56">
+        <v>10</v>
+      </c>
+      <c r="AL96" s="56">
+        <v>30</v>
+      </c>
       <c r="AM96" s="56"/>
       <c r="AN96" s="56"/>
       <c r="AO96" s="56"/>
@@ -10513,12 +10590,16 @@
         <v>0</v>
       </c>
       <c r="AV96" s="56"/>
-      <c r="AW96" s="56"/>
+      <c r="AW96" s="56">
+        <v>4</v>
+      </c>
       <c r="AX96" s="56"/>
-      <c r="AY96" s="56"/>
+      <c r="AY96" s="56">
+        <v>4</v>
+      </c>
       <c r="AZ96" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BA96" s="56"/>
       <c r="BB96">
@@ -10560,22 +10641,32 @@
       <c r="AA97" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB97" s="49"/>
+      <c r="AB97" s="49" t="s">
+        <v>315</v>
+      </c>
       <c r="AC97" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD97" s="107"/>
+        <v>-990</v>
+      </c>
+      <c r="AD97" s="107">
+        <v>80</v>
+      </c>
       <c r="AE97" s="107"/>
       <c r="AF97" s="56"/>
       <c r="AG97" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH97" s="56"/>
+        <v>1070</v>
+      </c>
+      <c r="AH97" s="56">
+        <v>70</v>
+      </c>
       <c r="AI97" s="56"/>
-      <c r="AJ97" s="56"/>
-      <c r="AK97" s="56"/>
+      <c r="AJ97" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK97" s="123">
+        <v>1000</v>
+      </c>
       <c r="AL97" s="56"/>
       <c r="AM97" s="56"/>
       <c r="AN97" s="56"/>
@@ -10590,12 +10681,16 @@
         <v>0</v>
       </c>
       <c r="AV97" s="56"/>
-      <c r="AW97" s="56"/>
+      <c r="AW97" s="56">
+        <v>2</v>
+      </c>
       <c r="AX97" s="56"/>
-      <c r="AY97" s="56"/>
+      <c r="AY97" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ97" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA97" s="56"/>
       <c r="BB97">
